--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -1,1651 +1,1658 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133728\Desktop\NEED-GQ\data\metadata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED514E4A-C89F-4471-9C27-40359A7B2910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FR" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
-  <si>
-    <t xml:space="preserve">pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value_labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">submitdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastpage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startlanguage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">startdate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous remplissez ce questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dbl+lbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Homme; [2] Femme; [3] Autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle est votre année de naissance ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle province habitez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vous vivez …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Vous vivez …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quel est votre pays de naissance ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez le pays concerné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Sélectionnez le pays concerné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actuellement, quel est votre principal statut professionnel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Actuellement, quel est votre principal statut professionnel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D13b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiquez approximativement le nombre d'années:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSHC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non sélectionné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_A12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD1_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G00Q10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{if(((is_empty(DSD1_A1.NAOK)) and (is_empty(DSD1_A2.NAOK)) and (is_empty(DSD1_A3.NAOK)) and (is_empty(DSD1_A4.NAOK)) and (is_empty(DSD1_A5.NAOK)) and (is_empty(DSD1_A6.NAOK)) and (is_empty(DSD1_A7.NAOK)) and (is_empty(DSD1_A9.NAOK)) and (is_empty(DSD1_A10.NAOK)) and (is_empty(DSD1_A11.NAOK)) and (is_empty(DSD1_A12.NAOK)) and (is_empty(DSD1_other)) and (DSD1_A8.NAOK == "Y")),'uitgesloten','in')}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSD3_SQ11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avez-vous également d’ autre(s) problème(s) de santé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_2comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_3comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_4comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_5comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_6comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_7comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_17comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_11comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_8comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_9comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_10comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_12comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_13comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_14comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_18comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_15comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_19comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_16comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D15_othercomment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre mobilité aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre autonomie aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre douleur ou gêne aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votre anxiété ou dépression aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC3_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_SQ018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC4_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC5_SQ018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H13_SQ022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HC13_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez indiquez approximativement le nombre d’années:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_SQ010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1_SQ015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par rapport à la personne que vous aidez, vous êtes :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG2_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Follow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM_Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM_Cemail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM_GSM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="542">
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>col_type</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>levels</t>
+  </si>
+  <si>
+    <t>value_labels</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dbl</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>submitdate</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>lastpage</t>
+  </si>
+  <si>
+    <t>startlanguage</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>datestamp</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Vous remplissez ce questionnaire</t>
+  </si>
+  <si>
+    <t>dbl+lbl</t>
+  </si>
+  <si>
+    <t>[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
+  </si>
+  <si>
+    <t>D1b</t>
+  </si>
+  <si>
+    <t>A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>À quel genre vous identifiez-vous ?</t>
+  </si>
+  <si>
+    <t>[1] Homme; [2] Femme; [3] Autre</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Quelle est votre année de naissance ?</t>
+  </si>
+  <si>
+    <t>END0</t>
+  </si>
+  <si>
+    <t>Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Dans quelle province habitez-vous ?</t>
+  </si>
+  <si>
+    <t>[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>END1</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D5_other</t>
+  </si>
+  <si>
+    <t>[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Vous vivez …</t>
+  </si>
+  <si>
+    <t>[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D6_other</t>
+  </si>
+  <si>
+    <t>[Autre] Vous vivez …</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>Quel est votre pays de naissance ?</t>
+  </si>
+  <si>
+    <t>[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Sélectionnez le pays concerné</t>
+  </si>
+  <si>
+    <t>[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D8_other</t>
+  </si>
+  <si>
+    <t>[Autre] Sélectionnez le pays concerné</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+  </si>
+  <si>
+    <t>[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D9_other</t>
+  </si>
+  <si>
+    <t>[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
+  </si>
+  <si>
+    <t>[1] Oui; [2] Non; [3] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>Actuellement, quel est votre principal statut professionnel?</t>
+  </si>
+  <si>
+    <t>D11_other</t>
+  </si>
+  <si>
+    <t>[Autre] Actuellement, quel est votre principal statut professionnel?</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
+  </si>
+  <si>
+    <t>[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
+  </si>
+  <si>
+    <t>[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>D13b</t>
+  </si>
+  <si>
+    <t>Indiquez approximativement le nombre d'années:</t>
+  </si>
+  <si>
+    <t>DSHC1</t>
+  </si>
+  <si>
+    <t>Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
+  </si>
+  <si>
+    <t>[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>HC1</t>
+  </si>
+  <si>
+    <t>Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
+  </si>
+  <si>
+    <t>[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>DSD1_A1</t>
+  </si>
+  <si>
+    <t>[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>[1] Oui; [2] Non sélectionné</t>
+  </si>
+  <si>
+    <t>DSD1_A2</t>
+  </si>
+  <si>
+    <t>[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A3</t>
+  </si>
+  <si>
+    <t>[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A4</t>
+  </si>
+  <si>
+    <t>[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A5</t>
+  </si>
+  <si>
+    <t>[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A6</t>
+  </si>
+  <si>
+    <t>[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A7</t>
+  </si>
+  <si>
+    <t>[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A8</t>
+  </si>
+  <si>
+    <t>[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A9</t>
+  </si>
+  <si>
+    <t>[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A10</t>
+  </si>
+  <si>
+    <t>[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A11</t>
+  </si>
+  <si>
+    <t>[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_A12</t>
+  </si>
+  <si>
+    <t>[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>DSD1_other</t>
+  </si>
+  <si>
+    <t>[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t>END3</t>
+  </si>
+  <si>
+    <t>Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
+  </si>
+  <si>
+    <t>DSD2</t>
+  </si>
+  <si>
+    <t>Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
+  </si>
+  <si>
+    <t>G00Q10</t>
+  </si>
+  <si>
+    <t>{if(((is_empty(DSD1_A1.NAOK)) and (is_empty(DSD1_A2.NAOK)) and (is_empty(DSD1_A3.NAOK)) and (is_empty(DSD1_A4.NAOK)) and (is_empty(DSD1_A5.NAOK)) and (is_empty(DSD1_A6.NAOK)) and (is_empty(DSD1_A7.NAOK)) and (is_empty(DSD1_A9.NAOK)) and (is_empty(DSD1_A10.NAOK)) and (is_empty(DSD1_A11.NAOK)) and (is_empty(DSD1_A12.NAOK)) and (is_empty(DSD1_other)) and (DSD1_A8.NAOK == "Y")),'uitgesloten','in')}</t>
+  </si>
+  <si>
+    <t>DSD3_SQ1</t>
+  </si>
+  <si>
+    <t>[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ2</t>
+  </si>
+  <si>
+    <t>[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ3</t>
+  </si>
+  <si>
+    <t>[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ4</t>
+  </si>
+  <si>
+    <t>[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ5</t>
+  </si>
+  <si>
+    <t>[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ9</t>
+  </si>
+  <si>
+    <t>[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ6</t>
+  </si>
+  <si>
+    <t>[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ7</t>
+  </si>
+  <si>
+    <t>[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ8</t>
+  </si>
+  <si>
+    <t>[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ10</t>
+  </si>
+  <si>
+    <t>[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>DSD3_SQ11</t>
+  </si>
+  <si>
+    <t>[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>Avez-vous également d’ autre(s) problème(s) de santé ?</t>
+  </si>
+  <si>
+    <t>D15_2</t>
+  </si>
+  <si>
+    <t>[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_2comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_3</t>
+  </si>
+  <si>
+    <t>[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_3comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_4</t>
+  </si>
+  <si>
+    <t>[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_4comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_5</t>
+  </si>
+  <si>
+    <t>[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_5comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_6</t>
+  </si>
+  <si>
+    <t>[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_6comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_7</t>
+  </si>
+  <si>
+    <t>[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_7comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_17</t>
+  </si>
+  <si>
+    <t>[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_17comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_11</t>
+  </si>
+  <si>
+    <t>[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_11comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_8</t>
+  </si>
+  <si>
+    <t>[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_8comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_9</t>
+  </si>
+  <si>
+    <t>[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_9comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_10</t>
+  </si>
+  <si>
+    <t>[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_10comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_12</t>
+  </si>
+  <si>
+    <t>[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_12comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_13</t>
+  </si>
+  <si>
+    <t>[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_13comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_14</t>
+  </si>
+  <si>
+    <t>[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_14comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_18</t>
+  </si>
+  <si>
+    <t>[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_18comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_15</t>
+  </si>
+  <si>
+    <t>[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_15comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_19</t>
+  </si>
+  <si>
+    <t>[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_19comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_16</t>
+  </si>
+  <si>
+    <t>[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_16comment</t>
+  </si>
+  <si>
+    <t>[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_other</t>
+  </si>
+  <si>
+    <t>[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>D15_othercomment</t>
+  </si>
+  <si>
+    <t>[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t>[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t>[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
+  </si>
+  <si>
+    <t>[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t>[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t>[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>Votre mobilité aujourd'hui</t>
+  </si>
+  <si>
+    <t>[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>Votre autonomie aujourd'hui</t>
+  </si>
+  <si>
+    <t>[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
+  </si>
+  <si>
+    <t>[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>Votre douleur ou gêne aujourd'hui</t>
+  </si>
+  <si>
+    <t>[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>Votre anxiété ou dépression aujourd'hui</t>
+  </si>
+  <si>
+    <t>[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
+  </si>
+  <si>
+    <t>HC2</t>
+  </si>
+  <si>
+    <t>Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
+  </si>
+  <si>
+    <t>HC3_SQ005</t>
+  </si>
+  <si>
+    <t>[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ006</t>
+  </si>
+  <si>
+    <t>[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ007</t>
+  </si>
+  <si>
+    <t>[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ008</t>
+  </si>
+  <si>
+    <t>[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ001</t>
+  </si>
+  <si>
+    <t>[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ002</t>
+  </si>
+  <si>
+    <t>[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ003</t>
+  </si>
+  <si>
+    <t>[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ012</t>
+  </si>
+  <si>
+    <t>[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ013</t>
+  </si>
+  <si>
+    <t>[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ011</t>
+  </si>
+  <si>
+    <t>[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ010</t>
+  </si>
+  <si>
+    <t>[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_SQ004</t>
+  </si>
+  <si>
+    <t>[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC3_other</t>
+  </si>
+  <si>
+    <t>[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t>HC4_SQ001</t>
+  </si>
+  <si>
+    <t>[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ002</t>
+  </si>
+  <si>
+    <t>[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ003</t>
+  </si>
+  <si>
+    <t>[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ004</t>
+  </si>
+  <si>
+    <t>[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ019</t>
+  </si>
+  <si>
+    <t>[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ005</t>
+  </si>
+  <si>
+    <t>[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ006</t>
+  </si>
+  <si>
+    <t>[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ007</t>
+  </si>
+  <si>
+    <t>[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ008</t>
+  </si>
+  <si>
+    <t>[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ009</t>
+  </si>
+  <si>
+    <t>[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ010</t>
+  </si>
+  <si>
+    <t>[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ011</t>
+  </si>
+  <si>
+    <t>[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ012</t>
+  </si>
+  <si>
+    <t>[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ013</t>
+  </si>
+  <si>
+    <t>[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ014</t>
+  </si>
+  <si>
+    <t>[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ015</t>
+  </si>
+  <si>
+    <t>[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ016</t>
+  </si>
+  <si>
+    <t>[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ017</t>
+  </si>
+  <si>
+    <t>[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_SQ018</t>
+  </si>
+  <si>
+    <t>[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC4_other</t>
+  </si>
+  <si>
+    <t>[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t>HC5_SQ001</t>
+  </si>
+  <si>
+    <t>[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>HC5_SQ002</t>
+  </si>
+  <si>
+    <t>[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ003</t>
+  </si>
+  <si>
+    <t>[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ004</t>
+  </si>
+  <si>
+    <t>[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ005</t>
+  </si>
+  <si>
+    <t>[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ006</t>
+  </si>
+  <si>
+    <t>[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ007</t>
+  </si>
+  <si>
+    <t>[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ008</t>
+  </si>
+  <si>
+    <t>[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ009</t>
+  </si>
+  <si>
+    <t>[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ010</t>
+  </si>
+  <si>
+    <t>[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ011</t>
+  </si>
+  <si>
+    <t>[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ012</t>
+  </si>
+  <si>
+    <t>[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ013</t>
+  </si>
+  <si>
+    <t>[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ014</t>
+  </si>
+  <si>
+    <t>[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ015</t>
+  </si>
+  <si>
+    <t>[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ016</t>
+  </si>
+  <si>
+    <t>[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ017</t>
+  </si>
+  <si>
+    <t>[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC5_SQ018</t>
+  </si>
+  <si>
+    <t>[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t>HC6</t>
+  </si>
+  <si>
+    <t>En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
+  </si>
+  <si>
+    <t>H13_SQ013</t>
+  </si>
+  <si>
+    <t>[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>H13_SQ014</t>
+  </si>
+  <si>
+    <t>[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ016</t>
+  </si>
+  <si>
+    <t>[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ017</t>
+  </si>
+  <si>
+    <t>[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ018</t>
+  </si>
+  <si>
+    <t>[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ019</t>
+  </si>
+  <si>
+    <t>[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ020</t>
+  </si>
+  <si>
+    <t>[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ021</t>
+  </si>
+  <si>
+    <t>[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ002</t>
+  </si>
+  <si>
+    <t>[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ004</t>
+  </si>
+  <si>
+    <t>[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ008</t>
+  </si>
+  <si>
+    <t>[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ009</t>
+  </si>
+  <si>
+    <t>[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ015</t>
+  </si>
+  <si>
+    <t>[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ003</t>
+  </si>
+  <si>
+    <t>[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ005</t>
+  </si>
+  <si>
+    <t>[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ010</t>
+  </si>
+  <si>
+    <t>[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ011</t>
+  </si>
+  <si>
+    <t>[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H13_SQ022</t>
+  </si>
+  <si>
+    <t>[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
+  </si>
+  <si>
+    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
+  </si>
+  <si>
+    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
+  </si>
+  <si>
+    <t>HC7</t>
+  </si>
+  <si>
+    <t>Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
+  </si>
+  <si>
+    <t>[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>HC8</t>
+  </si>
+  <si>
+    <t>Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
+  </si>
+  <si>
+    <t>[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
+  </si>
+  <si>
+    <t>HC9</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
+  </si>
+  <si>
+    <t>HC10</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
+  </si>
+  <si>
+    <t>HC11</t>
+  </si>
+  <si>
+    <t>Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
+  </si>
+  <si>
+    <t>[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>HC12</t>
+  </si>
+  <si>
+    <t>Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
+  </si>
+  <si>
+    <t>HC13_SQ001</t>
+  </si>
+  <si>
+    <t>[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ002</t>
+  </si>
+  <si>
+    <t>[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ003</t>
+  </si>
+  <si>
+    <t>[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ004</t>
+  </si>
+  <si>
+    <t>[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ005</t>
+  </si>
+  <si>
+    <t>[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ006</t>
+  </si>
+  <si>
+    <t>[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ007</t>
+  </si>
+  <si>
+    <t>[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ009</t>
+  </si>
+  <si>
+    <t>[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_SQ008</t>
+  </si>
+  <si>
+    <t>[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>HC13_other</t>
+  </si>
+  <si>
+    <t>[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
+  </si>
+  <si>
+    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+  </si>
+  <si>
+    <t>[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>S2_other</t>
+  </si>
+  <si>
+    <t>[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
+  </si>
+  <si>
+    <t>[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>S3b</t>
+  </si>
+  <si>
+    <t>Veuillez indiquez approximativement le nombre d’années:  </t>
+  </si>
+  <si>
+    <t>TXT1</t>
+  </si>
+  <si>
+    <t>La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
+  </si>
+  <si>
+    <t>S4_SQ001</t>
+  </si>
+  <si>
+    <t>[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
+  </si>
+  <si>
+    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
+  </si>
+  <si>
+    <t>S7_SQ001</t>
+  </si>
+  <si>
+    <t>[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ002</t>
+  </si>
+  <si>
+    <t>[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ003</t>
+  </si>
+  <si>
+    <t>[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ004</t>
+  </si>
+  <si>
+    <t>[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ005</t>
+  </si>
+  <si>
+    <t>[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ006</t>
+  </si>
+  <si>
+    <t>[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ011</t>
+  </si>
+  <si>
+    <t>[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ007</t>
+  </si>
+  <si>
+    <t>[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ008</t>
+  </si>
+  <si>
+    <t>[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ009</t>
+  </si>
+  <si>
+    <t>[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_SQ010</t>
+  </si>
+  <si>
+    <t>[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>S7_other</t>
+  </si>
+  <si>
+    <t>[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t>P1_SQ001</t>
+  </si>
+  <si>
+    <t>[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t>P1_SQ002</t>
+  </si>
+  <si>
+    <t>[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ003</t>
+  </si>
+  <si>
+    <t>[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ004</t>
+  </si>
+  <si>
+    <t>[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ005</t>
+  </si>
+  <si>
+    <t>[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ006</t>
+  </si>
+  <si>
+    <t>[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ007</t>
+  </si>
+  <si>
+    <t>[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ008</t>
+  </si>
+  <si>
+    <t>[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ009</t>
+  </si>
+  <si>
+    <t>[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ010</t>
+  </si>
+  <si>
+    <t>[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ011</t>
+  </si>
+  <si>
+    <t>[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ012</t>
+  </si>
+  <si>
+    <t>[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ013</t>
+  </si>
+  <si>
+    <t>[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ014</t>
+  </si>
+  <si>
+    <t>[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>P1_SQ015</t>
+  </si>
+  <si>
+    <t>[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
+  </si>
+  <si>
+    <t>[1] Oui; [2] Non</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
+  </si>
+  <si>
+    <t>CG1</t>
+  </si>
+  <si>
+    <t>En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
+  </si>
+  <si>
+    <t>CG2</t>
+  </si>
+  <si>
+    <t>Par rapport à la personne que vous aidez, vous êtes :</t>
+  </si>
+  <si>
+    <t>[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
+  </si>
+  <si>
+    <t>CG2_other</t>
+  </si>
+  <si>
+    <t>[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
+  </si>
+  <si>
+    <t>CG3</t>
+  </si>
+  <si>
+    <t>A quel genre vous identifiez-vous ?</t>
+  </si>
+  <si>
+    <t>CG4</t>
+  </si>
+  <si>
+    <t>CG5</t>
+  </si>
+  <si>
+    <t>La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
+  </si>
+  <si>
+    <t>CG6</t>
+  </si>
+  <si>
+    <t>Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
+  </si>
+  <si>
+    <t>CG7</t>
+  </si>
+  <si>
+    <t>Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
+  </si>
+  <si>
+    <t>NOM_Email</t>
+  </si>
+  <si>
+    <t>[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+  </si>
+  <si>
+    <t>NOM_Cemail</t>
+  </si>
+  <si>
+    <t>[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+  </si>
+  <si>
+    <t>NOM_GSM1</t>
+  </si>
+  <si>
+    <t>[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+  </si>
+  <si>
+    <t>TXS</t>
+  </si>
+  <si>
+    <t>Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1681,6 +1688,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1962,14 +1978,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1992,8 +2013,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2005,7 +2026,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -2015,8 +2036,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2028,7 +2049,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>210</v>
       </c>
       <c r="F3" t="s">
@@ -2038,8 +2059,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2051,7 +2072,7 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
@@ -2061,8 +2082,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2074,7 +2095,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -2084,8 +2105,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2097,7 +2118,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
@@ -2107,8 +2128,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2120,7 +2141,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -2130,8 +2151,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2143,7 +2164,7 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
@@ -2153,8 +2174,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2166,7 +2187,7 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>93</v>
       </c>
       <c r="F9" t="s">
@@ -2176,8 +2197,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2189,7 +2210,7 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>378</v>
       </c>
       <c r="F10" t="s">
@@ -2199,8 +2220,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2212,7 +2233,7 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>93</v>
       </c>
       <c r="F11" t="s">
@@ -2222,8 +2243,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2235,7 +2256,7 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>93</v>
       </c>
       <c r="F12" t="s">
@@ -2245,8 +2266,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2258,7 +2279,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>378</v>
       </c>
       <c r="F13" t="s">
@@ -2268,8 +2289,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2281,7 +2302,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>95</v>
       </c>
       <c r="F14" t="s">
@@ -2291,8 +2312,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2304,7 +2325,7 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>378</v>
       </c>
       <c r="F15" t="s">
@@ -2314,8 +2335,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2327,7 +2348,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>153</v>
       </c>
       <c r="F16" t="s">
@@ -2337,8 +2358,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2350,7 +2371,7 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>346</v>
       </c>
       <c r="F17" t="s">
@@ -2360,8 +2381,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2373,7 +2394,7 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>148</v>
       </c>
       <c r="F18" t="s">
@@ -2383,8 +2404,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2396,7 +2417,7 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>372</v>
       </c>
       <c r="F19" t="s">
@@ -2406,8 +2427,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2419,7 +2440,7 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>141</v>
       </c>
       <c r="F20" t="s">
@@ -2429,8 +2450,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2442,7 +2463,7 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>354</v>
       </c>
       <c r="F21" t="s">
@@ -2452,8 +2473,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2465,7 +2486,7 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>377</v>
       </c>
       <c r="F22" t="s">
@@ -2475,8 +2496,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2488,7 +2509,7 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>155</v>
       </c>
       <c r="F23" t="s">
@@ -2498,8 +2519,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2511,7 +2532,7 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>368</v>
       </c>
       <c r="F24" t="s">
@@ -2521,8 +2542,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2534,7 +2555,7 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>144</v>
       </c>
       <c r="F25" t="s">
@@ -2544,8 +2565,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2557,7 +2578,7 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>166</v>
       </c>
       <c r="F26" t="s">
@@ -2567,8 +2588,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2580,7 +2601,7 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>357</v>
       </c>
       <c r="F27" t="s">
@@ -2590,8 +2611,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2603,7 +2624,7 @@
       <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>144</v>
       </c>
       <c r="F28" t="s">
@@ -2613,8 +2634,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2626,7 +2647,7 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>162</v>
       </c>
       <c r="F29" t="s">
@@ -2636,8 +2657,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2649,7 +2670,7 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>260</v>
       </c>
       <c r="F30" t="s">
@@ -2659,8 +2680,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2672,7 +2693,7 @@
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>163</v>
       </c>
       <c r="F31" t="s">
@@ -2682,8 +2703,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2695,7 +2716,7 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>163</v>
       </c>
       <c r="F32" t="s">
@@ -2705,8 +2726,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2718,7 +2739,7 @@
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>185</v>
       </c>
       <c r="F33" t="s">
@@ -2728,8 +2749,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2741,7 +2762,7 @@
       <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>185</v>
       </c>
       <c r="F34" t="s">
@@ -2751,8 +2772,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2764,7 +2785,7 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>185</v>
       </c>
       <c r="F35" t="s">
@@ -2774,8 +2795,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2787,7 +2808,7 @@
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>185</v>
       </c>
       <c r="F36" t="s">
@@ -2797,8 +2818,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2810,7 +2831,7 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>185</v>
       </c>
       <c r="F37" t="s">
@@ -2820,8 +2841,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2833,7 +2854,7 @@
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>185</v>
       </c>
       <c r="F38" t="s">
@@ -2843,8 +2864,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2856,7 +2877,7 @@
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>185</v>
       </c>
       <c r="F39" t="s">
@@ -2866,8 +2887,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2879,7 +2900,7 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>185</v>
       </c>
       <c r="F40" t="s">
@@ -2889,8 +2910,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2902,7 +2923,7 @@
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>185</v>
       </c>
       <c r="F41" t="s">
@@ -2912,8 +2933,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2925,7 +2946,7 @@
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>185</v>
       </c>
       <c r="F42" t="s">
@@ -2935,8 +2956,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2948,7 +2969,7 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>172</v>
       </c>
       <c r="F43" t="s">
@@ -2958,8 +2979,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2971,7 +2992,7 @@
       <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>175</v>
       </c>
       <c r="F44" t="s">
@@ -2981,8 +3002,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -2994,7 +3015,7 @@
       <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>341</v>
       </c>
       <c r="F45" t="s">
@@ -3004,8 +3025,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -3017,7 +3038,7 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>378</v>
       </c>
       <c r="F46" t="s">
@@ -3027,8 +3048,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -3040,7 +3061,7 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>182</v>
       </c>
       <c r="F47" t="s">
@@ -3050,8 +3071,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -3063,7 +3084,7 @@
       <c r="D48" t="s">
         <v>11</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>154</v>
       </c>
       <c r="F48" t="s">
@@ -3073,8 +3094,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -3086,7 +3107,7 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>189</v>
       </c>
       <c r="F49" t="s">
@@ -3096,8 +3117,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -3109,7 +3130,7 @@
       <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>189</v>
       </c>
       <c r="F50" t="s">
@@ -3119,8 +3140,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -3132,7 +3153,7 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>189</v>
       </c>
       <c r="F51" t="s">
@@ -3142,8 +3163,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -3155,7 +3176,7 @@
       <c r="D52" t="s">
         <v>19</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>189</v>
       </c>
       <c r="F52" t="s">
@@ -3165,8 +3186,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3178,7 +3199,7 @@
       <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>189</v>
       </c>
       <c r="F53" t="s">
@@ -3188,8 +3209,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -3201,7 +3222,7 @@
       <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>189</v>
       </c>
       <c r="F54" t="s">
@@ -3211,8 +3232,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -3224,7 +3245,7 @@
       <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>188</v>
       </c>
       <c r="F55" t="s">
@@ -3234,8 +3255,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -3247,7 +3268,7 @@
       <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>189</v>
       </c>
       <c r="F56" t="s">
@@ -3257,8 +3278,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -3270,7 +3291,7 @@
       <c r="D57" t="s">
         <v>19</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>189</v>
       </c>
       <c r="F57" t="s">
@@ -3280,8 +3301,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -3293,7 +3314,7 @@
       <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>189</v>
       </c>
       <c r="F58" t="s">
@@ -3303,8 +3324,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -3316,7 +3337,7 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>189</v>
       </c>
       <c r="F59" t="s">
@@ -3326,8 +3347,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -3339,7 +3360,7 @@
       <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>188</v>
       </c>
       <c r="F60" t="s">
@@ -3349,8 +3370,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -3362,7 +3383,7 @@
       <c r="D61" t="s">
         <v>19</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>272</v>
       </c>
       <c r="F61" t="s">
@@ -3372,8 +3393,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3385,7 +3406,7 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>364</v>
       </c>
       <c r="F62" t="s">
@@ -3395,8 +3416,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -3408,7 +3429,7 @@
       <c r="D63" t="s">
         <v>19</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>272</v>
       </c>
       <c r="F63" t="s">
@@ -3418,8 +3439,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -3431,7 +3452,7 @@
       <c r="D64" t="s">
         <v>11</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>363</v>
       </c>
       <c r="F64" t="s">
@@ -3441,8 +3462,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -3454,7 +3475,7 @@
       <c r="D65" t="s">
         <v>19</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>272</v>
       </c>
       <c r="F65" t="s">
@@ -3464,8 +3485,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -3477,7 +3498,7 @@
       <c r="D66" t="s">
         <v>11</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>354</v>
       </c>
       <c r="F66" t="s">
@@ -3487,8 +3508,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -3500,7 +3521,7 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>272</v>
       </c>
       <c r="F67" t="s">
@@ -3510,8 +3531,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -3523,7 +3544,7 @@
       <c r="D68" t="s">
         <v>11</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>363</v>
       </c>
       <c r="F68" t="s">
@@ -3533,8 +3554,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -3546,7 +3567,7 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>272</v>
       </c>
       <c r="F69" t="s">
@@ -3556,8 +3577,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -3569,7 +3590,7 @@
       <c r="D70" t="s">
         <v>11</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>353</v>
       </c>
       <c r="F70" t="s">
@@ -3579,8 +3600,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -3592,7 +3613,7 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>272</v>
       </c>
       <c r="F71" t="s">
@@ -3602,8 +3623,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -3615,7 +3636,7 @@
       <c r="D72" t="s">
         <v>11</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>368</v>
       </c>
       <c r="F72" t="s">
@@ -3625,8 +3646,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -3638,7 +3659,7 @@
       <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>272</v>
       </c>
       <c r="F73" t="s">
@@ -3648,8 +3669,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -3661,7 +3682,7 @@
       <c r="D74" t="s">
         <v>11</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>373</v>
       </c>
       <c r="F74" t="s">
@@ -3671,8 +3692,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -3684,7 +3705,7 @@
       <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>272</v>
       </c>
       <c r="F75" t="s">
@@ -3694,8 +3715,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -3707,7 +3728,7 @@
       <c r="D76" t="s">
         <v>11</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>372</v>
       </c>
       <c r="F76" t="s">
@@ -3717,8 +3738,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -3730,7 +3751,7 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>272</v>
       </c>
       <c r="F77" t="s">
@@ -3740,8 +3761,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3753,7 +3774,7 @@
       <c r="D78" t="s">
         <v>11</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>377</v>
       </c>
       <c r="F78" t="s">
@@ -3763,8 +3784,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3776,7 +3797,7 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>272</v>
       </c>
       <c r="F79" t="s">
@@ -3786,8 +3807,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -3799,7 +3820,7 @@
       <c r="D80" t="s">
         <v>11</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>364</v>
       </c>
       <c r="F80" t="s">
@@ -3809,8 +3830,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -3822,7 +3843,7 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>272</v>
       </c>
       <c r="F81" t="s">
@@ -3832,8 +3853,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -3845,7 +3866,7 @@
       <c r="D82" t="s">
         <v>11</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>348</v>
       </c>
       <c r="F82" t="s">
@@ -3855,8 +3876,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -3868,7 +3889,7 @@
       <c r="D83" t="s">
         <v>19</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>272</v>
       </c>
       <c r="F83" t="s">
@@ -3878,8 +3899,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -3891,7 +3912,7 @@
       <c r="D84" t="s">
         <v>11</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>369</v>
       </c>
       <c r="F84" t="s">
@@ -3901,8 +3922,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -3914,7 +3935,7 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>272</v>
       </c>
       <c r="F85" t="s">
@@ -3924,8 +3945,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -3937,7 +3958,7 @@
       <c r="D86" t="s">
         <v>11</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>372</v>
       </c>
       <c r="F86" t="s">
@@ -3947,8 +3968,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3960,7 +3981,7 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>272</v>
       </c>
       <c r="F87" t="s">
@@ -3970,8 +3991,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -3983,7 +4004,7 @@
       <c r="D88" t="s">
         <v>11</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>365</v>
       </c>
       <c r="F88" t="s">
@@ -3993,8 +4014,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -4006,7 +4027,7 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>272</v>
       </c>
       <c r="F89" t="s">
@@ -4016,8 +4037,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -4029,7 +4050,7 @@
       <c r="D90" t="s">
         <v>11</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>349</v>
       </c>
       <c r="F90" t="s">
@@ -4039,8 +4060,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -4052,7 +4073,7 @@
       <c r="D91" t="s">
         <v>19</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>272</v>
       </c>
       <c r="F91" t="s">
@@ -4062,8 +4083,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -4075,7 +4096,7 @@
       <c r="D92" t="s">
         <v>11</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>372</v>
       </c>
       <c r="F92" t="s">
@@ -4085,8 +4106,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -4098,7 +4119,7 @@
       <c r="D93" t="s">
         <v>19</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>272</v>
       </c>
       <c r="F93" t="s">
@@ -4108,8 +4129,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -4121,7 +4142,7 @@
       <c r="D94" t="s">
         <v>11</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>372</v>
       </c>
       <c r="F94" t="s">
@@ -4131,8 +4152,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -4144,7 +4165,7 @@
       <c r="D95" t="s">
         <v>19</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>270</v>
       </c>
       <c r="F95" t="s">
@@ -4154,8 +4175,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -4167,7 +4188,7 @@
       <c r="D96" t="s">
         <v>11</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>377</v>
       </c>
       <c r="F96" t="s">
@@ -4177,8 +4198,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -4190,7 +4211,7 @@
       <c r="D97" t="s">
         <v>11</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>363</v>
       </c>
       <c r="F97" t="s">
@@ -4200,8 +4221,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -4213,7 +4234,7 @@
       <c r="D98" t="s">
         <v>11</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>371</v>
       </c>
       <c r="F98" t="s">
@@ -4223,8 +4244,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -4236,7 +4257,7 @@
       <c r="D99" t="s">
         <v>19</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>202</v>
       </c>
       <c r="F99" t="s">
@@ -4246,8 +4267,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -4259,7 +4280,7 @@
       <c r="D100" t="s">
         <v>19</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>202</v>
       </c>
       <c r="F100" t="s">
@@ -4269,8 +4290,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -4282,7 +4303,7 @@
       <c r="D101" t="s">
         <v>19</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>202</v>
       </c>
       <c r="F101" t="s">
@@ -4292,8 +4313,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -4305,7 +4326,7 @@
       <c r="D102" t="s">
         <v>19</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>202</v>
       </c>
       <c r="F102" t="s">
@@ -4315,8 +4336,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -4328,7 +4349,7 @@
       <c r="D103" t="s">
         <v>19</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>203</v>
       </c>
       <c r="F103" t="s">
@@ -4338,8 +4359,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -4351,7 +4372,7 @@
       <c r="D104" t="s">
         <v>8</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>204</v>
       </c>
       <c r="F104" t="s">
@@ -4361,8 +4382,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -4374,7 +4395,7 @@
       <c r="D105" t="s">
         <v>11</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>378</v>
       </c>
       <c r="F105" t="s">
@@ -4384,8 +4405,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -4397,7 +4418,7 @@
       <c r="D106" t="s">
         <v>19</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>203</v>
       </c>
       <c r="F106" t="s">
@@ -4407,8 +4428,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -4420,7 +4441,7 @@
       <c r="D107" t="s">
         <v>19</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>202</v>
       </c>
       <c r="F107" t="s">
@@ -4430,8 +4451,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -4443,7 +4464,7 @@
       <c r="D108" t="s">
         <v>19</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>202</v>
       </c>
       <c r="F108" t="s">
@@ -4453,8 +4474,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -4466,7 +4487,7 @@
       <c r="D109" t="s">
         <v>19</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>203</v>
       </c>
       <c r="F109" t="s">
@@ -4476,8 +4497,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -4489,7 +4510,7 @@
       <c r="D110" t="s">
         <v>19</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>203</v>
       </c>
       <c r="F110" t="s">
@@ -4499,8 +4520,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -4512,7 +4533,7 @@
       <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>203</v>
       </c>
       <c r="F111" t="s">
@@ -4522,8 +4543,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -4535,7 +4556,7 @@
       <c r="D112" t="s">
         <v>19</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>205</v>
       </c>
       <c r="F112" t="s">
@@ -4545,8 +4566,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -4558,7 +4579,7 @@
       <c r="D113" t="s">
         <v>19</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>224</v>
       </c>
       <c r="F113" t="s">
@@ -4568,8 +4589,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -4581,7 +4602,7 @@
       <c r="D114" t="s">
         <v>19</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>224</v>
       </c>
       <c r="F114" t="s">
@@ -4591,8 +4612,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -4604,7 +4625,7 @@
       <c r="D115" t="s">
         <v>19</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>224</v>
       </c>
       <c r="F115" t="s">
@@ -4614,8 +4635,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -4627,7 +4648,7 @@
       <c r="D116" t="s">
         <v>19</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>224</v>
       </c>
       <c r="F116" t="s">
@@ -4637,8 +4658,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -4650,7 +4671,7 @@
       <c r="D117" t="s">
         <v>19</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>224</v>
       </c>
       <c r="F117" t="s">
@@ -4660,8 +4681,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -4673,7 +4694,7 @@
       <c r="D118" t="s">
         <v>19</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>224</v>
       </c>
       <c r="F118" t="s">
@@ -4683,8 +4704,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -4696,7 +4717,7 @@
       <c r="D119" t="s">
         <v>19</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>224</v>
       </c>
       <c r="F119" t="s">
@@ -4706,8 +4727,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -4719,7 +4740,7 @@
       <c r="D120" t="s">
         <v>19</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>224</v>
       </c>
       <c r="F120" t="s">
@@ -4729,8 +4750,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -4742,7 +4763,7 @@
       <c r="D121" t="s">
         <v>19</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>224</v>
       </c>
       <c r="F121" t="s">
@@ -4752,8 +4773,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -4765,7 +4786,7 @@
       <c r="D122" t="s">
         <v>19</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>224</v>
       </c>
       <c r="F122" t="s">
@@ -4775,8 +4796,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -4788,7 +4809,7 @@
       <c r="D123" t="s">
         <v>19</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>224</v>
       </c>
       <c r="F123" t="s">
@@ -4798,8 +4819,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -4811,7 +4832,7 @@
       <c r="D124" t="s">
         <v>19</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>214</v>
       </c>
       <c r="F124" t="s">
@@ -4821,8 +4842,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -4834,7 +4855,7 @@
       <c r="D125" t="s">
         <v>11</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>357</v>
       </c>
       <c r="F125" t="s">
@@ -4844,8 +4865,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -4857,7 +4878,7 @@
       <c r="D126" t="s">
         <v>19</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>223</v>
       </c>
       <c r="F126" t="s">
@@ -4867,8 +4888,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -4880,7 +4901,7 @@
       <c r="D127" t="s">
         <v>19</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>223</v>
       </c>
       <c r="F127" t="s">
@@ -4890,8 +4911,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -4903,7 +4924,7 @@
       <c r="D128" t="s">
         <v>19</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>223</v>
       </c>
       <c r="F128" t="s">
@@ -4913,8 +4934,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -4926,7 +4947,7 @@
       <c r="D129" t="s">
         <v>19</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>223</v>
       </c>
       <c r="F129" t="s">
@@ -4936,8 +4957,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -4949,7 +4970,7 @@
       <c r="D130" t="s">
         <v>19</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>223</v>
       </c>
       <c r="F130" t="s">
@@ -4959,8 +4980,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -4972,7 +4993,7 @@
       <c r="D131" t="s">
         <v>19</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>223</v>
       </c>
       <c r="F131" t="s">
@@ -4982,8 +5003,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -4995,7 +5016,7 @@
       <c r="D132" t="s">
         <v>19</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>223</v>
       </c>
       <c r="F132" t="s">
@@ -5005,8 +5026,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -5018,7 +5039,7 @@
       <c r="D133" t="s">
         <v>19</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>223</v>
       </c>
       <c r="F133" t="s">
@@ -5028,8 +5049,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -5041,7 +5062,7 @@
       <c r="D134" t="s">
         <v>19</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>223</v>
       </c>
       <c r="F134" t="s">
@@ -5051,8 +5072,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -5064,7 +5085,7 @@
       <c r="D135" t="s">
         <v>19</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>223</v>
       </c>
       <c r="F135" t="s">
@@ -5074,8 +5095,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -5087,7 +5108,7 @@
       <c r="D136" t="s">
         <v>19</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>223</v>
       </c>
       <c r="F136" t="s">
@@ -5097,8 +5118,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -5110,7 +5131,7 @@
       <c r="D137" t="s">
         <v>19</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>223</v>
       </c>
       <c r="F137" t="s">
@@ -5120,8 +5141,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -5133,7 +5154,7 @@
       <c r="D138" t="s">
         <v>19</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>223</v>
       </c>
       <c r="F138" t="s">
@@ -5143,8 +5164,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -5156,7 +5177,7 @@
       <c r="D139" t="s">
         <v>19</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>223</v>
       </c>
       <c r="F139" t="s">
@@ -5166,8 +5187,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -5179,7 +5200,7 @@
       <c r="D140" t="s">
         <v>19</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>223</v>
       </c>
       <c r="F140" t="s">
@@ -5189,8 +5210,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -5202,7 +5223,7 @@
       <c r="D141" t="s">
         <v>19</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>223</v>
       </c>
       <c r="F141" t="s">
@@ -5212,8 +5233,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -5225,7 +5246,7 @@
       <c r="D142" t="s">
         <v>19</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>223</v>
       </c>
       <c r="F142" t="s">
@@ -5235,8 +5256,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -5248,7 +5269,7 @@
       <c r="D143" t="s">
         <v>19</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>223</v>
       </c>
       <c r="F143" t="s">
@@ -5258,8 +5279,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -5271,7 +5292,7 @@
       <c r="D144" t="s">
         <v>19</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>214</v>
       </c>
       <c r="F144" t="s">
@@ -5281,8 +5302,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -5294,7 +5315,7 @@
       <c r="D145" t="s">
         <v>11</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>363</v>
       </c>
       <c r="F145" t="s">
@@ -5304,8 +5325,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -5317,7 +5338,7 @@
       <c r="D146" t="s">
         <v>19</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>251</v>
       </c>
       <c r="F146" t="s">
@@ -5327,8 +5348,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -5340,7 +5361,7 @@
       <c r="D147" t="s">
         <v>19</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>355</v>
       </c>
       <c r="F147" t="s">
@@ -5350,8 +5371,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -5363,7 +5384,7 @@
       <c r="D148" t="s">
         <v>19</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>334</v>
       </c>
       <c r="F148" t="s">
@@ -5373,8 +5394,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -5386,7 +5407,7 @@
       <c r="D149" t="s">
         <v>19</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>369</v>
       </c>
       <c r="F149" t="s">
@@ -5396,8 +5417,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -5409,7 +5430,7 @@
       <c r="D150" t="s">
         <v>19</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>328</v>
       </c>
       <c r="F150" t="s">
@@ -5419,8 +5440,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -5432,7 +5453,7 @@
       <c r="D151" t="s">
         <v>19</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>344</v>
       </c>
       <c r="F151" t="s">
@@ -5442,8 +5463,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -5455,7 +5476,7 @@
       <c r="D152" t="s">
         <v>19</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>335</v>
       </c>
       <c r="F152" t="s">
@@ -5465,8 +5486,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -5478,7 +5499,7 @@
       <c r="D153" t="s">
         <v>19</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>353</v>
       </c>
       <c r="F153" t="s">
@@ -5488,8 +5509,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -5501,7 +5522,7 @@
       <c r="D154" t="s">
         <v>19</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>269</v>
       </c>
       <c r="F154" t="s">
@@ -5511,8 +5532,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -5524,7 +5545,7 @@
       <c r="D155" t="s">
         <v>19</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>339</v>
       </c>
       <c r="F155" t="s">
@@ -5534,8 +5555,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -5547,7 +5568,7 @@
       <c r="D156" t="s">
         <v>19</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>331</v>
       </c>
       <c r="F156" t="s">
@@ -5557,8 +5578,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -5570,7 +5591,7 @@
       <c r="D157" t="s">
         <v>19</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>351</v>
       </c>
       <c r="F157" t="s">
@@ -5580,8 +5601,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -5593,7 +5614,7 @@
       <c r="D158" t="s">
         <v>19</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>340</v>
       </c>
       <c r="F158" t="s">
@@ -5603,8 +5624,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -5616,7 +5637,7 @@
       <c r="D159" t="s">
         <v>19</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>377</v>
       </c>
       <c r="F159" t="s">
@@ -5626,8 +5647,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -5639,7 +5660,7 @@
       <c r="D160" t="s">
         <v>19</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>317</v>
       </c>
       <c r="F160" t="s">
@@ -5649,8 +5670,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -5662,7 +5683,7 @@
       <c r="D161" t="s">
         <v>19</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>303</v>
       </c>
       <c r="F161" t="s">
@@ -5672,8 +5693,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -5685,7 +5706,7 @@
       <c r="D162" t="s">
         <v>19</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>297</v>
       </c>
       <c r="F162" t="s">
@@ -5695,8 +5716,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -5708,7 +5729,7 @@
       <c r="D163" t="s">
         <v>19</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>378</v>
       </c>
       <c r="F163" t="s">
@@ -5718,8 +5739,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -5731,7 +5752,7 @@
       <c r="D164" t="s">
         <v>19</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>214</v>
       </c>
       <c r="F164" t="s">
@@ -5741,8 +5762,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -5754,7 +5775,7 @@
       <c r="D165" t="s">
         <v>19</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>212</v>
       </c>
       <c r="F165" t="s">
@@ -5764,8 +5785,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -5777,7 +5798,7 @@
       <c r="D166" t="s">
         <v>19</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>212</v>
       </c>
       <c r="F166" t="s">
@@ -5787,8 +5808,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -5800,7 +5821,7 @@
       <c r="D167" t="s">
         <v>19</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>213</v>
       </c>
       <c r="F167" t="s">
@@ -5810,8 +5831,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -5823,7 +5844,7 @@
       <c r="D168" t="s">
         <v>19</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>214</v>
       </c>
       <c r="F168" t="s">
@@ -5833,8 +5854,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -5846,7 +5867,7 @@
       <c r="D169" t="s">
         <v>19</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>215</v>
       </c>
       <c r="F169" t="s">
@@ -5856,8 +5877,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -5869,7 +5890,7 @@
       <c r="D170" t="s">
         <v>19</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>214</v>
       </c>
       <c r="F170" t="s">
@@ -5879,8 +5900,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -5892,7 +5913,7 @@
       <c r="D171" t="s">
         <v>19</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>214</v>
       </c>
       <c r="F171" t="s">
@@ -5902,8 +5923,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -5915,7 +5936,7 @@
       <c r="D172" t="s">
         <v>19</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>214</v>
       </c>
       <c r="F172" t="s">
@@ -5925,8 +5946,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
@@ -5938,7 +5959,7 @@
       <c r="D173" t="s">
         <v>19</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>214</v>
       </c>
       <c r="F173" t="s">
@@ -5948,8 +5969,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -5961,7 +5982,7 @@
       <c r="D174" t="s">
         <v>19</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>214</v>
       </c>
       <c r="F174" t="s">
@@ -5971,8 +5992,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
@@ -5984,7 +6005,7 @@
       <c r="D175" t="s">
         <v>19</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>214</v>
       </c>
       <c r="F175" t="s">
@@ -5994,8 +6015,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -6007,7 +6028,7 @@
       <c r="D176" t="s">
         <v>19</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>214</v>
       </c>
       <c r="F176" t="s">
@@ -6017,8 +6038,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
@@ -6030,7 +6051,7 @@
       <c r="D177" t="s">
         <v>19</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>214</v>
       </c>
       <c r="F177" t="s">
@@ -6040,8 +6061,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
@@ -6053,7 +6074,7 @@
       <c r="D178" t="s">
         <v>19</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>214</v>
       </c>
       <c r="F178" t="s">
@@ -6063,8 +6084,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
@@ -6076,7 +6097,7 @@
       <c r="D179" t="s">
         <v>19</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>214</v>
       </c>
       <c r="F179" t="s">
@@ -6086,8 +6107,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -6099,7 +6120,7 @@
       <c r="D180" t="s">
         <v>19</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>214</v>
       </c>
       <c r="F180" t="s">
@@ -6109,8 +6130,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
@@ -6122,7 +6143,7 @@
       <c r="D181" t="s">
         <v>19</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>214</v>
       </c>
       <c r="F181" t="s">
@@ -6132,8 +6153,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -6145,7 +6166,7 @@
       <c r="D182" t="s">
         <v>19</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>214</v>
       </c>
       <c r="F182" t="s">
@@ -6155,8 +6176,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -6168,7 +6189,7 @@
       <c r="D183" t="s">
         <v>19</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>214</v>
       </c>
       <c r="F183" t="s">
@@ -6178,8 +6199,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -6191,7 +6212,7 @@
       <c r="D184" t="s">
         <v>19</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>214</v>
       </c>
       <c r="F184" t="s">
@@ -6201,8 +6222,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -6214,7 +6235,7 @@
       <c r="D185" t="s">
         <v>11</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>378</v>
       </c>
       <c r="F185" t="s">
@@ -6224,8 +6245,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -6237,7 +6258,7 @@
       <c r="D186" t="s">
         <v>19</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>220</v>
       </c>
       <c r="F186" t="s">
@@ -6247,8 +6268,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -6260,7 +6281,7 @@
       <c r="D187" t="s">
         <v>19</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>220</v>
       </c>
       <c r="F187" t="s">
@@ -6270,8 +6291,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -6283,7 +6304,7 @@
       <c r="D188" t="s">
         <v>19</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>220</v>
       </c>
       <c r="F188" t="s">
@@ -6293,8 +6314,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -6306,7 +6327,7 @@
       <c r="D189" t="s">
         <v>19</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>220</v>
       </c>
       <c r="F189" t="s">
@@ -6316,8 +6337,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -6329,7 +6350,7 @@
       <c r="D190" t="s">
         <v>19</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>220</v>
       </c>
       <c r="F190" t="s">
@@ -6339,8 +6360,8 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -6352,7 +6373,7 @@
       <c r="D191" t="s">
         <v>19</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>221</v>
       </c>
       <c r="F191" t="s">
@@ -6362,8 +6383,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -6375,7 +6396,7 @@
       <c r="D192" t="s">
         <v>19</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>323</v>
       </c>
       <c r="F192" t="s">
@@ -6385,8 +6406,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -6398,7 +6419,7 @@
       <c r="D193" t="s">
         <v>19</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>323</v>
       </c>
       <c r="F193" t="s">
@@ -6408,8 +6429,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -6421,7 +6442,7 @@
       <c r="D194" t="s">
         <v>19</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>323</v>
       </c>
       <c r="F194" t="s">
@@ -6431,8 +6452,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -6444,7 +6465,7 @@
       <c r="D195" t="s">
         <v>19</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>323</v>
       </c>
       <c r="F195" t="s">
@@ -6454,8 +6475,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -6467,7 +6488,7 @@
       <c r="D196" t="s">
         <v>19</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>323</v>
       </c>
       <c r="F196" t="s">
@@ -6477,8 +6498,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -6490,7 +6511,7 @@
       <c r="D197" t="s">
         <v>19</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197">
         <v>323</v>
       </c>
       <c r="F197" t="s">
@@ -6500,8 +6521,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -6513,7 +6534,7 @@
       <c r="D198" t="s">
         <v>19</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>323</v>
       </c>
       <c r="F198" t="s">
@@ -6523,8 +6544,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -6536,7 +6557,7 @@
       <c r="D199" t="s">
         <v>19</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>323</v>
       </c>
       <c r="F199" t="s">
@@ -6546,8 +6567,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -6559,7 +6580,7 @@
       <c r="D200" t="s">
         <v>19</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>323</v>
       </c>
       <c r="F200" t="s">
@@ -6569,8 +6590,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -6582,7 +6603,7 @@
       <c r="D201" t="s">
         <v>11</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201">
         <v>367</v>
       </c>
       <c r="F201" t="s">
@@ -6592,8 +6613,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -6605,7 +6626,7 @@
       <c r="D202" t="s">
         <v>19</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>222</v>
       </c>
       <c r="F202" t="s">
@@ -6615,8 +6636,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -6628,7 +6649,7 @@
       <c r="D203" t="s">
         <v>19</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>283</v>
       </c>
       <c r="F203" t="s">
@@ -6638,8 +6659,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -6651,7 +6672,7 @@
       <c r="D204" t="s">
         <v>11</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>373</v>
       </c>
       <c r="F204" t="s">
@@ -6661,8 +6682,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
@@ -6674,7 +6695,7 @@
       <c r="D205" t="s">
         <v>19</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205">
         <v>222</v>
       </c>
       <c r="F205" t="s">
@@ -6684,8 +6705,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -6697,7 +6718,7 @@
       <c r="D206" t="s">
         <v>8</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206">
         <v>273</v>
       </c>
       <c r="F206" t="s">
@@ -6707,8 +6728,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -6720,7 +6741,7 @@
       <c r="D207" t="s">
         <v>11</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>378</v>
       </c>
       <c r="F207" t="s">
@@ -6730,8 +6751,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -6743,7 +6764,7 @@
       <c r="D208" t="s">
         <v>8</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>339</v>
       </c>
       <c r="F208" t="s">
@@ -6753,8 +6774,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -6766,7 +6787,7 @@
       <c r="D209" t="s">
         <v>19</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>222</v>
       </c>
       <c r="F209" t="s">
@@ -6776,8 +6797,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -6789,7 +6810,7 @@
       <c r="D210" t="s">
         <v>19</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>222</v>
       </c>
       <c r="F210" t="s">
@@ -6799,8 +6820,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -6812,7 +6833,7 @@
       <c r="D211" t="s">
         <v>19</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211">
         <v>236</v>
       </c>
       <c r="F211" t="s">
@@ -6822,8 +6843,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -6835,7 +6856,7 @@
       <c r="D212" t="s">
         <v>19</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>265</v>
       </c>
       <c r="F212" t="s">
@@ -6845,8 +6866,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -6858,7 +6879,7 @@
       <c r="D213" t="s">
         <v>19</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>265</v>
       </c>
       <c r="F213" t="s">
@@ -6868,8 +6889,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -6881,7 +6902,7 @@
       <c r="D214" t="s">
         <v>19</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>265</v>
       </c>
       <c r="F214" t="s">
@@ -6891,8 +6912,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -6904,7 +6925,7 @@
       <c r="D215" t="s">
         <v>19</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215">
         <v>265</v>
       </c>
       <c r="F215" t="s">
@@ -6914,8 +6935,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -6927,7 +6948,7 @@
       <c r="D216" t="s">
         <v>19</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216">
         <v>265</v>
       </c>
       <c r="F216" t="s">
@@ -6937,8 +6958,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -6950,7 +6971,7 @@
       <c r="D217" t="s">
         <v>19</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>265</v>
       </c>
       <c r="F217" t="s">
@@ -6960,8 +6981,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -6973,7 +6994,7 @@
       <c r="D218" t="s">
         <v>19</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218">
         <v>265</v>
       </c>
       <c r="F218" t="s">
@@ -6983,8 +7004,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -6996,7 +7017,7 @@
       <c r="D219" t="s">
         <v>19</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>265</v>
       </c>
       <c r="F219" t="s">
@@ -7006,8 +7027,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -7019,7 +7040,7 @@
       <c r="D220" t="s">
         <v>19</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220">
         <v>265</v>
       </c>
       <c r="F220" t="s">
@@ -7029,8 +7050,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -7042,7 +7063,7 @@
       <c r="D221" t="s">
         <v>19</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>251</v>
       </c>
       <c r="F221" t="s">
@@ -7052,8 +7073,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -7065,7 +7086,7 @@
       <c r="D222" t="s">
         <v>11</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>359</v>
       </c>
       <c r="F222" t="s">
@@ -7075,8 +7096,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -7088,7 +7109,7 @@
       <c r="D223" t="s">
         <v>19</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>224</v>
       </c>
       <c r="F223" t="s">
@@ -7098,8 +7119,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -7111,7 +7132,7 @@
       <c r="D224" t="s">
         <v>19</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224">
         <v>224</v>
       </c>
       <c r="F224" t="s">
@@ -7121,8 +7142,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -7134,7 +7155,7 @@
       <c r="D225" t="s">
         <v>19</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>224</v>
       </c>
       <c r="F225" t="s">
@@ -7144,8 +7165,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -7157,7 +7178,7 @@
       <c r="D226" t="s">
         <v>19</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>224</v>
       </c>
       <c r="F226" t="s">
@@ -7167,8 +7188,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
@@ -7180,7 +7201,7 @@
       <c r="D227" t="s">
         <v>19</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>224</v>
       </c>
       <c r="F227" t="s">
@@ -7190,8 +7211,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -7203,7 +7224,7 @@
       <c r="D228" t="s">
         <v>19</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>224</v>
       </c>
       <c r="F228" t="s">
@@ -7213,8 +7234,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
@@ -7226,7 +7247,7 @@
       <c r="D229" t="s">
         <v>19</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229">
         <v>224</v>
       </c>
       <c r="F229" t="s">
@@ -7236,8 +7257,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -7249,7 +7270,7 @@
       <c r="D230" t="s">
         <v>19</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>224</v>
       </c>
       <c r="F230" t="s">
@@ -7259,8 +7280,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
@@ -7272,7 +7293,7 @@
       <c r="D231" t="s">
         <v>19</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231">
         <v>224</v>
       </c>
       <c r="F231" t="s">
@@ -7282,8 +7303,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
@@ -7295,7 +7316,7 @@
       <c r="D232" t="s">
         <v>19</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>224</v>
       </c>
       <c r="F232" t="s">
@@ -7305,8 +7326,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
@@ -7318,7 +7339,7 @@
       <c r="D233" t="s">
         <v>19</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>224</v>
       </c>
       <c r="F233" t="s">
@@ -7328,8 +7349,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
@@ -7341,7 +7362,7 @@
       <c r="D234" t="s">
         <v>19</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>224</v>
       </c>
       <c r="F234" t="s">
@@ -7351,8 +7372,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
@@ -7364,7 +7385,7 @@
       <c r="D235" t="s">
         <v>19</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>224</v>
       </c>
       <c r="F235" t="s">
@@ -7374,8 +7395,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
@@ -7387,7 +7408,7 @@
       <c r="D236" t="s">
         <v>19</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>224</v>
       </c>
       <c r="F236" t="s">
@@ -7397,8 +7418,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
@@ -7410,7 +7431,7 @@
       <c r="D237" t="s">
         <v>19</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>224</v>
       </c>
       <c r="F237" t="s">
@@ -7420,8 +7441,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
@@ -7433,7 +7454,7 @@
       <c r="D238" t="s">
         <v>19</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>227</v>
       </c>
       <c r="F238" t="s">
@@ -7443,8 +7464,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
@@ -7456,7 +7477,7 @@
       <c r="D239" t="s">
         <v>11</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>324</v>
       </c>
       <c r="F239" t="s">
@@ -7466,8 +7487,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -7479,7 +7500,7 @@
       <c r="D240" t="s">
         <v>19</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>359</v>
       </c>
       <c r="F240" t="s">
@@ -7489,8 +7510,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -7502,7 +7523,7 @@
       <c r="D241" t="s">
         <v>19</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241">
         <v>363</v>
       </c>
       <c r="F241" t="s">
@@ -7512,8 +7533,8 @@
         <v>520</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -7525,7 +7546,7 @@
       <c r="D242" t="s">
         <v>11</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>378</v>
       </c>
       <c r="F242" t="s">
@@ -7535,8 +7556,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -7548,7 +7569,7 @@
       <c r="D243" t="s">
         <v>19</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>363</v>
       </c>
       <c r="F243" t="s">
@@ -7558,8 +7579,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
@@ -7571,7 +7592,7 @@
       <c r="D244" t="s">
         <v>8</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>363</v>
       </c>
       <c r="F244" t="s">
@@ -7581,8 +7602,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
@@ -7594,7 +7615,7 @@
       <c r="D245" t="s">
         <v>8</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245">
         <v>363</v>
       </c>
       <c r="F245" t="s">
@@ -7604,8 +7625,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
@@ -7617,7 +7638,7 @@
       <c r="D246" t="s">
         <v>19</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>363</v>
       </c>
       <c r="F246" t="s">
@@ -7627,8 +7648,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
@@ -7640,7 +7661,7 @@
       <c r="D247" t="s">
         <v>19</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>363</v>
       </c>
       <c r="F247" t="s">
@@ -7650,8 +7671,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
@@ -7663,7 +7684,7 @@
       <c r="D248" t="s">
         <v>19</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>230</v>
       </c>
       <c r="F248" t="s">
@@ -7673,8 +7694,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
@@ -7686,7 +7707,7 @@
       <c r="D249" t="s">
         <v>11</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>312</v>
       </c>
       <c r="F249" t="s">
@@ -7696,8 +7717,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
@@ -7709,7 +7730,7 @@
       <c r="D250" t="s">
         <v>11</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250">
         <v>312</v>
       </c>
       <c r="F250" t="s">
@@ -7719,8 +7740,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
@@ -7732,7 +7753,7 @@
       <c r="D251" t="s">
         <v>11</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251">
         <v>312</v>
       </c>
       <c r="F251" t="s">
@@ -7742,8 +7763,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
@@ -7755,7 +7776,7 @@
       <c r="D252" t="s">
         <v>11</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>378</v>
       </c>
       <c r="F252" t="s">
@@ -7767,6 +7788,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133728\Desktop\NEED-GQ\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED514E4A-C89F-4471-9C27-40359A7B2910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE96167-1779-4560-A36A-236C6BF3D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133728\Desktop\NEED-GQ\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE96167-1779-4560-A36A-236C6BF3D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFE8D3-E68A-45C9-8A77-77B8038FDE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -1,1658 +1,1651 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133728\Desktop\NEED-GQ\data\metadata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFE8D3-E68A-45C9-8A77-77B8038FDE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FR" sheetId="1" r:id="rId1"/>
+    <sheet name="FR" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="542">
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>col_type</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>levels</t>
-  </si>
-  <si>
-    <t>value_labels</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>dbl</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>submitdate</t>
-  </si>
-  <si>
-    <t>chr</t>
-  </si>
-  <si>
-    <t>lastpage</t>
-  </si>
-  <si>
-    <t>startlanguage</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>startdate</t>
-  </si>
-  <si>
-    <t>datestamp</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Vous remplissez ce questionnaire</t>
-  </si>
-  <si>
-    <t>dbl+lbl</t>
-  </si>
-  <si>
-    <t>[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
-  </si>
-  <si>
-    <t>D1b</t>
-  </si>
-  <si>
-    <t>A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>À quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
-    <t>[1] Homme; [2] Femme; [3] Autre</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Quelle est votre année de naissance ?</t>
-  </si>
-  <si>
-    <t>END0</t>
-  </si>
-  <si>
-    <t>Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Dans quelle province habitez-vous ?</t>
-  </si>
-  <si>
-    <t>[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>END1</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D5_other</t>
-  </si>
-  <si>
-    <t>[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>Vous vivez …</t>
-  </si>
-  <si>
-    <t>[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D6_other</t>
-  </si>
-  <si>
-    <t>[Autre] Vous vivez …</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>Quel est votre pays de naissance ?</t>
-  </si>
-  <si>
-    <t>[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>Sélectionnez le pays concerné</t>
-  </si>
-  <si>
-    <t>[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D8_other</t>
-  </si>
-  <si>
-    <t>[Autre] Sélectionnez le pays concerné</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
-  </si>
-  <si>
-    <t>[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D9_other</t>
-  </si>
-  <si>
-    <t>[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
-  </si>
-  <si>
-    <t>[1] Oui; [2] Non; [3] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>Actuellement, quel est votre principal statut professionnel?</t>
-  </si>
-  <si>
-    <t>D11_other</t>
-  </si>
-  <si>
-    <t>[Autre] Actuellement, quel est votre principal statut professionnel?</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
-  </si>
-  <si>
-    <t>[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
-  </si>
-  <si>
-    <t>[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>D13b</t>
-  </si>
-  <si>
-    <t>Indiquez approximativement le nombre d'années:</t>
-  </si>
-  <si>
-    <t>DSHC1</t>
-  </si>
-  <si>
-    <t>Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
-  </si>
-  <si>
-    <t>[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>HC1</t>
-  </si>
-  <si>
-    <t>Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
-  </si>
-  <si>
-    <t>[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>DSD1_A1</t>
-  </si>
-  <si>
-    <t>[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>[1] Oui; [2] Non sélectionné</t>
-  </si>
-  <si>
-    <t>DSD1_A2</t>
-  </si>
-  <si>
-    <t>[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A3</t>
-  </si>
-  <si>
-    <t>[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A4</t>
-  </si>
-  <si>
-    <t>[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A5</t>
-  </si>
-  <si>
-    <t>[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A6</t>
-  </si>
-  <si>
-    <t>[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A7</t>
-  </si>
-  <si>
-    <t>[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A8</t>
-  </si>
-  <si>
-    <t>[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A9</t>
-  </si>
-  <si>
-    <t>[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A10</t>
-  </si>
-  <si>
-    <t>[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A11</t>
-  </si>
-  <si>
-    <t>[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_A12</t>
-  </si>
-  <si>
-    <t>[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>DSD1_other</t>
-  </si>
-  <si>
-    <t>[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t>END3</t>
-  </si>
-  <si>
-    <t>Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
-  </si>
-  <si>
-    <t>DSD2</t>
-  </si>
-  <si>
-    <t>Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
-  </si>
-  <si>
-    <t>G00Q10</t>
-  </si>
-  <si>
-    <t>{if(((is_empty(DSD1_A1.NAOK)) and (is_empty(DSD1_A2.NAOK)) and (is_empty(DSD1_A3.NAOK)) and (is_empty(DSD1_A4.NAOK)) and (is_empty(DSD1_A5.NAOK)) and (is_empty(DSD1_A6.NAOK)) and (is_empty(DSD1_A7.NAOK)) and (is_empty(DSD1_A9.NAOK)) and (is_empty(DSD1_A10.NAOK)) and (is_empty(DSD1_A11.NAOK)) and (is_empty(DSD1_A12.NAOK)) and (is_empty(DSD1_other)) and (DSD1_A8.NAOK == "Y")),'uitgesloten','in')}</t>
-  </si>
-  <si>
-    <t>DSD3_SQ1</t>
-  </si>
-  <si>
-    <t>[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ2</t>
-  </si>
-  <si>
-    <t>[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ3</t>
-  </si>
-  <si>
-    <t>[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ4</t>
-  </si>
-  <si>
-    <t>[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ5</t>
-  </si>
-  <si>
-    <t>[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ9</t>
-  </si>
-  <si>
-    <t>[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ6</t>
-  </si>
-  <si>
-    <t>[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ7</t>
-  </si>
-  <si>
-    <t>[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ8</t>
-  </si>
-  <si>
-    <t>[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ10</t>
-  </si>
-  <si>
-    <t>[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>DSD3_SQ11</t>
-  </si>
-  <si>
-    <t>[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>Avez-vous également d’ autre(s) problème(s) de santé ?</t>
-  </si>
-  <si>
-    <t>D15_2</t>
-  </si>
-  <si>
-    <t>[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_2comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_3</t>
-  </si>
-  <si>
-    <t>[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_3comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_4</t>
-  </si>
-  <si>
-    <t>[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_4comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_5</t>
-  </si>
-  <si>
-    <t>[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_5comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_6</t>
-  </si>
-  <si>
-    <t>[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_6comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_7</t>
-  </si>
-  <si>
-    <t>[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_7comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_17</t>
-  </si>
-  <si>
-    <t>[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_17comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_11</t>
-  </si>
-  <si>
-    <t>[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_11comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_8</t>
-  </si>
-  <si>
-    <t>[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_8comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_9</t>
-  </si>
-  <si>
-    <t>[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_9comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_10</t>
-  </si>
-  <si>
-    <t>[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_10comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_12</t>
-  </si>
-  <si>
-    <t>[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_12comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_13</t>
-  </si>
-  <si>
-    <t>[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_13comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_14</t>
-  </si>
-  <si>
-    <t>[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_14comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_18</t>
-  </si>
-  <si>
-    <t>[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_18comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_15</t>
-  </si>
-  <si>
-    <t>[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_15comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_19</t>
-  </si>
-  <si>
-    <t>[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_19comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_16</t>
-  </si>
-  <si>
-    <t>[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_16comment</t>
-  </si>
-  <si>
-    <t>[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_other</t>
-  </si>
-  <si>
-    <t>[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>D15_othercomment</t>
-  </si>
-  <si>
-    <t>[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t>[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t>[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
-  </si>
-  <si>
-    <t>[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t>[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t>[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
-  </si>
-  <si>
-    <t>TXT</t>
-  </si>
-  <si>
-    <t>Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>Votre mobilité aujourd'hui</t>
-  </si>
-  <si>
-    <t>[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>Votre autonomie aujourd'hui</t>
-  </si>
-  <si>
-    <t>[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
-  </si>
-  <si>
-    <t>[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>Votre douleur ou gêne aujourd'hui</t>
-  </si>
-  <si>
-    <t>[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>Votre anxiété ou dépression aujourd'hui</t>
-  </si>
-  <si>
-    <t>[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
-  </si>
-  <si>
-    <t>HC2</t>
-  </si>
-  <si>
-    <t>Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
-  </si>
-  <si>
-    <t>HC3_SQ005</t>
-  </si>
-  <si>
-    <t>[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ006</t>
-  </si>
-  <si>
-    <t>[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ007</t>
-  </si>
-  <si>
-    <t>[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ008</t>
-  </si>
-  <si>
-    <t>[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ001</t>
-  </si>
-  <si>
-    <t>[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ002</t>
-  </si>
-  <si>
-    <t>[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ003</t>
-  </si>
-  <si>
-    <t>[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ012</t>
-  </si>
-  <si>
-    <t>[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ013</t>
-  </si>
-  <si>
-    <t>[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ011</t>
-  </si>
-  <si>
-    <t>[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ010</t>
-  </si>
-  <si>
-    <t>[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_SQ004</t>
-  </si>
-  <si>
-    <t>[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC3_other</t>
-  </si>
-  <si>
-    <t>[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
-  </si>
-  <si>
-    <t>HC4_SQ001</t>
-  </si>
-  <si>
-    <t>[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ002</t>
-  </si>
-  <si>
-    <t>[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ003</t>
-  </si>
-  <si>
-    <t>[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ004</t>
-  </si>
-  <si>
-    <t>[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ019</t>
-  </si>
-  <si>
-    <t>[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ005</t>
-  </si>
-  <si>
-    <t>[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ006</t>
-  </si>
-  <si>
-    <t>[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ007</t>
-  </si>
-  <si>
-    <t>[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ008</t>
-  </si>
-  <si>
-    <t>[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ009</t>
-  </si>
-  <si>
-    <t>[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ010</t>
-  </si>
-  <si>
-    <t>[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ011</t>
-  </si>
-  <si>
-    <t>[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ012</t>
-  </si>
-  <si>
-    <t>[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ013</t>
-  </si>
-  <si>
-    <t>[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ014</t>
-  </si>
-  <si>
-    <t>[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ015</t>
-  </si>
-  <si>
-    <t>[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ016</t>
-  </si>
-  <si>
-    <t>[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ017</t>
-  </si>
-  <si>
-    <t>[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_SQ018</t>
-  </si>
-  <si>
-    <t>[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC4_other</t>
-  </si>
-  <si>
-    <t>[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
-  </si>
-  <si>
-    <t>HC5_SQ001</t>
-  </si>
-  <si>
-    <t>[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>HC5_SQ002</t>
-  </si>
-  <si>
-    <t>[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ003</t>
-  </si>
-  <si>
-    <t>[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ004</t>
-  </si>
-  <si>
-    <t>[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ005</t>
-  </si>
-  <si>
-    <t>[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ006</t>
-  </si>
-  <si>
-    <t>[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ007</t>
-  </si>
-  <si>
-    <t>[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ008</t>
-  </si>
-  <si>
-    <t>[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ009</t>
-  </si>
-  <si>
-    <t>[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ010</t>
-  </si>
-  <si>
-    <t>[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ011</t>
-  </si>
-  <si>
-    <t>[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ012</t>
-  </si>
-  <si>
-    <t>[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ013</t>
-  </si>
-  <si>
-    <t>[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ014</t>
-  </si>
-  <si>
-    <t>[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ015</t>
-  </si>
-  <si>
-    <t>[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ016</t>
-  </si>
-  <si>
-    <t>[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ017</t>
-  </si>
-  <si>
-    <t>[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC5_SQ018</t>
-  </si>
-  <si>
-    <t>[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t>HC6</t>
-  </si>
-  <si>
-    <t>En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
-  </si>
-  <si>
-    <t>H13_SQ013</t>
-  </si>
-  <si>
-    <t>[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>H13_SQ014</t>
-  </si>
-  <si>
-    <t>[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ016</t>
-  </si>
-  <si>
-    <t>[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ017</t>
-  </si>
-  <si>
-    <t>[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ018</t>
-  </si>
-  <si>
-    <t>[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ019</t>
-  </si>
-  <si>
-    <t>[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ020</t>
-  </si>
-  <si>
-    <t>[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ021</t>
-  </si>
-  <si>
-    <t>[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ002</t>
-  </si>
-  <si>
-    <t>[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ004</t>
-  </si>
-  <si>
-    <t>[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ008</t>
-  </si>
-  <si>
-    <t>[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ009</t>
-  </si>
-  <si>
-    <t>[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ015</t>
-  </si>
-  <si>
-    <t>[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ003</t>
-  </si>
-  <si>
-    <t>[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ005</t>
-  </si>
-  <si>
-    <t>[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ010</t>
-  </si>
-  <si>
-    <t>[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ011</t>
-  </si>
-  <si>
-    <t>[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H13_SQ022</t>
-  </si>
-  <si>
-    <t>[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
-  </si>
-  <si>
-    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
-  </si>
-  <si>
-    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
-  </si>
-  <si>
-    <t>HC7</t>
-  </si>
-  <si>
-    <t>Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
-  </si>
-  <si>
-    <t>[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>HC8</t>
-  </si>
-  <si>
-    <t>Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
-  </si>
-  <si>
-    <t>[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
-  </si>
-  <si>
-    <t>HC9</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
-  </si>
-  <si>
-    <t>HC10</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
-  </si>
-  <si>
-    <t>HC11</t>
-  </si>
-  <si>
-    <t>Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
-  </si>
-  <si>
-    <t>[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>HC12</t>
-  </si>
-  <si>
-    <t>Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
-  </si>
-  <si>
-    <t>HC13_SQ001</t>
-  </si>
-  <si>
-    <t>[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ002</t>
-  </si>
-  <si>
-    <t>[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ003</t>
-  </si>
-  <si>
-    <t>[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ004</t>
-  </si>
-  <si>
-    <t>[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ005</t>
-  </si>
-  <si>
-    <t>[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ006</t>
-  </si>
-  <si>
-    <t>[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ007</t>
-  </si>
-  <si>
-    <t>[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ009</t>
-  </si>
-  <si>
-    <t>[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_SQ008</t>
-  </si>
-  <si>
-    <t>[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>HC13_other</t>
-  </si>
-  <si>
-    <t>[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
-  </si>
-  <si>
-    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
-  </si>
-  <si>
-    <t>[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>S2_other</t>
-  </si>
-  <si>
-    <t>[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
-  </si>
-  <si>
-    <t>[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>S3b</t>
-  </si>
-  <si>
-    <t>Veuillez indiquez approximativement le nombre d’années:  </t>
-  </si>
-  <si>
-    <t>TXT1</t>
-  </si>
-  <si>
-    <t>La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
-  </si>
-  <si>
-    <t>S4_SQ001</t>
-  </si>
-  <si>
-    <t>[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
-  </si>
-  <si>
-    <t>[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
-  </si>
-  <si>
-    <t>S7_SQ001</t>
-  </si>
-  <si>
-    <t>[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ002</t>
-  </si>
-  <si>
-    <t>[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ003</t>
-  </si>
-  <si>
-    <t>[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ004</t>
-  </si>
-  <si>
-    <t>[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ005</t>
-  </si>
-  <si>
-    <t>[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ006</t>
-  </si>
-  <si>
-    <t>[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ011</t>
-  </si>
-  <si>
-    <t>[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ007</t>
-  </si>
-  <si>
-    <t>[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ008</t>
-  </si>
-  <si>
-    <t>[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ009</t>
-  </si>
-  <si>
-    <t>[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_SQ010</t>
-  </si>
-  <si>
-    <t>[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>S7_other</t>
-  </si>
-  <si>
-    <t>[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t>P1_SQ001</t>
-  </si>
-  <si>
-    <t>[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
-  </si>
-  <si>
-    <t>P1_SQ002</t>
-  </si>
-  <si>
-    <t>[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ003</t>
-  </si>
-  <si>
-    <t>[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ004</t>
-  </si>
-  <si>
-    <t>[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ005</t>
-  </si>
-  <si>
-    <t>[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ006</t>
-  </si>
-  <si>
-    <t>[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ007</t>
-  </si>
-  <si>
-    <t>[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ008</t>
-  </si>
-  <si>
-    <t>[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ009</t>
-  </si>
-  <si>
-    <t>[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ010</t>
-  </si>
-  <si>
-    <t>[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ011</t>
-  </si>
-  <si>
-    <t>[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ012</t>
-  </si>
-  <si>
-    <t>[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ013</t>
-  </si>
-  <si>
-    <t>[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ014</t>
-  </si>
-  <si>
-    <t>[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>P1_SQ015</t>
-  </si>
-  <si>
-    <t>[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
-  </si>
-  <si>
-    <t>[1] Oui; [2] Non</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
-  </si>
-  <si>
-    <t>CG1</t>
-  </si>
-  <si>
-    <t>En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
-  </si>
-  <si>
-    <t>CG2</t>
-  </si>
-  <si>
-    <t>Par rapport à la personne que vous aidez, vous êtes :</t>
-  </si>
-  <si>
-    <t>[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
-  </si>
-  <si>
-    <t>CG2_other</t>
-  </si>
-  <si>
-    <t>[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
-  </si>
-  <si>
-    <t>CG3</t>
-  </si>
-  <si>
-    <t>A quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
-    <t>CG4</t>
-  </si>
-  <si>
-    <t>CG5</t>
-  </si>
-  <si>
-    <t>La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
-  </si>
-  <si>
-    <t>CG6</t>
-  </si>
-  <si>
-    <t>Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
-  </si>
-  <si>
-    <t>CG7</t>
-  </si>
-  <si>
-    <t>Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
-  </si>
-  <si>
-    <t>Follow</t>
-  </si>
-  <si>
-    <t>Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
-  </si>
-  <si>
-    <t>NOM_Email</t>
-  </si>
-  <si>
-    <t>[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t>NOM_Cemail</t>
-  </si>
-  <si>
-    <t>[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t>NOM_GSM1</t>
-  </si>
-  <si>
-    <t>[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t>TXS</t>
-  </si>
-  <si>
-    <t>Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
+  <si>
+    <t xml:space="preserve">pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">submitdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startlanguage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous remplissez ce questionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbl+lbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À quel genre vous identifiez-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Homme; [2] Femme; [3] Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est votre année de naissance ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle province habitez-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous vivez …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Vous vivez …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est votre pays de naissance ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez le pays concerné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Sélectionnez le pays concerné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actuellement, quel est votre principal statut professionnel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Actuellement, quel est votre principal statut professionnel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiquez approximativement le nombre d'années:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSHC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non sélectionné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD1_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G00Q10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{if(((is_empty(DSD1_A1.NAOK)) and (is_empty(DSD1_A2.NAOK)) and (is_empty(DSD1_A3.NAOK)) and (is_empty(DSD1_A4.NAOK)) and (is_empty(DSD1_A5.NAOK)) and (is_empty(DSD1_A6.NAOK)) and (is_empty(DSD1_A7.NAOK)) and (is_empty(DSD1_A9.NAOK)) and (is_empty(DSD1_A10.NAOK)) and (is_empty(DSD1_A11.NAOK)) and (is_empty(DSD1_A12.NAOK)) and (is_empty(DSD1_other)) and (DSD1_A8.NAOK == "Y")),'uitgesloten','in')}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSD3_SQ11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous également d’ autre(s) problème(s) de santé ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_2comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_3comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_4comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_5comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_6comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_7comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_17comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_11comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_8comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_9comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_10comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_12comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_13comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_14comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_18comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_15comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_19comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_16comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D15_othercomment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre mobilité aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre autonomie aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre douleur ou gêne aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votre anxiété ou dépression aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC3_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_SQ018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC4_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5_SQ018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13_SQ022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC13_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez indiquez approximativement le nombre d’années:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_SQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1_SQ015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par rapport à la personne que vous aidez, vous êtes :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG2_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quel genre vous identifiez-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_Cemail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOM_GSM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1688,15 +1681,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1978,19 +1962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2013,8 +1992,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2026,7 +2005,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -2036,8 +2015,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2049,7 +2028,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>210</v>
       </c>
       <c r="F3" t="s">
@@ -2059,8 +2038,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2072,7 +2051,7 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="s">
@@ -2082,8 +2061,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2095,7 +2074,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="s">
@@ -2105,8 +2084,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2118,7 +2097,7 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="s">
@@ -2128,8 +2107,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2141,7 +2120,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -2151,8 +2130,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2164,7 +2143,7 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="s">
@@ -2174,8 +2153,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2187,7 +2166,7 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>93</v>
       </c>
       <c r="F9" t="s">
@@ -2197,8 +2176,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2210,7 +2189,7 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>378</v>
       </c>
       <c r="F10" t="s">
@@ -2220,8 +2199,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2233,7 +2212,7 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>93</v>
       </c>
       <c r="F11" t="s">
@@ -2243,8 +2222,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2256,7 +2235,7 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>93</v>
       </c>
       <c r="F12" t="s">
@@ -2266,8 +2245,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2279,7 +2258,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>378</v>
       </c>
       <c r="F13" t="s">
@@ -2289,8 +2268,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2302,7 +2281,7 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>95</v>
       </c>
       <c r="F14" t="s">
@@ -2312,8 +2291,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2325,7 +2304,7 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>378</v>
       </c>
       <c r="F15" t="s">
@@ -2335,8 +2314,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2348,7 +2327,7 @@
       <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>153</v>
       </c>
       <c r="F16" t="s">
@@ -2358,8 +2337,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2371,7 +2350,7 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>346</v>
       </c>
       <c r="F17" t="s">
@@ -2381,8 +2360,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2394,7 +2373,7 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>148</v>
       </c>
       <c r="F18" t="s">
@@ -2404,8 +2383,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2417,7 +2396,7 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>372</v>
       </c>
       <c r="F19" t="s">
@@ -2427,8 +2406,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2440,7 +2419,7 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>141</v>
       </c>
       <c r="F20" t="s">
@@ -2450,8 +2429,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2463,7 +2442,7 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>354</v>
       </c>
       <c r="F21" t="s">
@@ -2473,8 +2452,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2486,7 +2465,7 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>377</v>
       </c>
       <c r="F22" t="s">
@@ -2496,8 +2475,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2509,7 +2488,7 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>155</v>
       </c>
       <c r="F23" t="s">
@@ -2519,8 +2498,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2532,7 +2511,7 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>368</v>
       </c>
       <c r="F24" t="s">
@@ -2542,8 +2521,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2555,7 +2534,7 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>144</v>
       </c>
       <c r="F25" t="s">
@@ -2565,8 +2544,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2578,7 +2557,7 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>166</v>
       </c>
       <c r="F26" t="s">
@@ -2588,8 +2567,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2601,7 +2580,7 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>357</v>
       </c>
       <c r="F27" t="s">
@@ -2611,8 +2590,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2624,7 +2603,7 @@
       <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>144</v>
       </c>
       <c r="F28" t="s">
@@ -2634,8 +2613,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2647,7 +2626,7 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>162</v>
       </c>
       <c r="F29" t="s">
@@ -2657,8 +2636,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2670,7 +2649,7 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>260</v>
       </c>
       <c r="F30" t="s">
@@ -2680,8 +2659,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -2693,7 +2672,7 @@
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>163</v>
       </c>
       <c r="F31" t="s">
@@ -2703,8 +2682,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -2716,7 +2695,7 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>163</v>
       </c>
       <c r="F32" t="s">
@@ -2726,8 +2705,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -2739,7 +2718,7 @@
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>185</v>
       </c>
       <c r="F33" t="s">
@@ -2749,8 +2728,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -2762,7 +2741,7 @@
       <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>185</v>
       </c>
       <c r="F34" t="s">
@@ -2772,8 +2751,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -2785,7 +2764,7 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>185</v>
       </c>
       <c r="F35" t="s">
@@ -2795,8 +2774,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2808,7 +2787,7 @@
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>185</v>
       </c>
       <c r="F36" t="s">
@@ -2818,8 +2797,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2831,7 +2810,7 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>185</v>
       </c>
       <c r="F37" t="s">
@@ -2841,8 +2820,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -2854,7 +2833,7 @@
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>185</v>
       </c>
       <c r="F38" t="s">
@@ -2864,8 +2843,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -2877,7 +2856,7 @@
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>185</v>
       </c>
       <c r="F39" t="s">
@@ -2887,8 +2866,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -2900,7 +2879,7 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>185</v>
       </c>
       <c r="F40" t="s">
@@ -2910,8 +2889,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -2923,7 +2902,7 @@
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>185</v>
       </c>
       <c r="F41" t="s">
@@ -2933,8 +2912,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -2946,7 +2925,7 @@
       <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>185</v>
       </c>
       <c r="F42" t="s">
@@ -2956,8 +2935,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -2969,7 +2948,7 @@
       <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>172</v>
       </c>
       <c r="F43" t="s">
@@ -2979,8 +2958,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -2992,7 +2971,7 @@
       <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>175</v>
       </c>
       <c r="F44" t="s">
@@ -3002,8 +2981,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -3015,7 +2994,7 @@
       <c r="D45" t="s">
         <v>11</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>341</v>
       </c>
       <c r="F45" t="s">
@@ -3025,8 +3004,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -3038,7 +3017,7 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>378</v>
       </c>
       <c r="F46" t="s">
@@ -3048,8 +3027,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -3061,7 +3040,7 @@
       <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>182</v>
       </c>
       <c r="F47" t="s">
@@ -3071,8 +3050,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -3084,7 +3063,7 @@
       <c r="D48" t="s">
         <v>11</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>154</v>
       </c>
       <c r="F48" t="s">
@@ -3094,8 +3073,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -3107,7 +3086,7 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>189</v>
       </c>
       <c r="F49" t="s">
@@ -3117,8 +3096,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -3130,7 +3109,7 @@
       <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>189</v>
       </c>
       <c r="F50" t="s">
@@ -3140,8 +3119,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -3153,7 +3132,7 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>189</v>
       </c>
       <c r="F51" t="s">
@@ -3163,8 +3142,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -3176,7 +3155,7 @@
       <c r="D52" t="s">
         <v>19</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>189</v>
       </c>
       <c r="F52" t="s">
@@ -3186,8 +3165,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -3199,7 +3178,7 @@
       <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>189</v>
       </c>
       <c r="F53" t="s">
@@ -3209,8 +3188,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -3222,7 +3201,7 @@
       <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>189</v>
       </c>
       <c r="F54" t="s">
@@ -3232,8 +3211,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -3245,7 +3224,7 @@
       <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>188</v>
       </c>
       <c r="F55" t="s">
@@ -3255,8 +3234,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -3268,7 +3247,7 @@
       <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>189</v>
       </c>
       <c r="F56" t="s">
@@ -3278,8 +3257,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -3291,7 +3270,7 @@
       <c r="D57" t="s">
         <v>19</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>189</v>
       </c>
       <c r="F57" t="s">
@@ -3301,8 +3280,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -3314,7 +3293,7 @@
       <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>189</v>
       </c>
       <c r="F58" t="s">
@@ -3324,8 +3303,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -3337,7 +3316,7 @@
       <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>189</v>
       </c>
       <c r="F59" t="s">
@@ -3347,8 +3326,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -3360,7 +3339,7 @@
       <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>188</v>
       </c>
       <c r="F60" t="s">
@@ -3370,8 +3349,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -3383,7 +3362,7 @@
       <c r="D61" t="s">
         <v>19</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>272</v>
       </c>
       <c r="F61" t="s">
@@ -3393,8 +3372,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3406,7 +3385,7 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>364</v>
       </c>
       <c r="F62" t="s">
@@ -3416,8 +3395,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -3429,7 +3408,7 @@
       <c r="D63" t="s">
         <v>19</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>272</v>
       </c>
       <c r="F63" t="s">
@@ -3439,8 +3418,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -3452,7 +3431,7 @@
       <c r="D64" t="s">
         <v>11</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>363</v>
       </c>
       <c r="F64" t="s">
@@ -3462,8 +3441,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -3475,7 +3454,7 @@
       <c r="D65" t="s">
         <v>19</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>272</v>
       </c>
       <c r="F65" t="s">
@@ -3485,8 +3464,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -3498,7 +3477,7 @@
       <c r="D66" t="s">
         <v>11</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>354</v>
       </c>
       <c r="F66" t="s">
@@ -3508,8 +3487,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -3521,7 +3500,7 @@
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>272</v>
       </c>
       <c r="F67" t="s">
@@ -3531,8 +3510,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -3544,7 +3523,7 @@
       <c r="D68" t="s">
         <v>11</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>363</v>
       </c>
       <c r="F68" t="s">
@@ -3554,8 +3533,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -3567,7 +3546,7 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>272</v>
       </c>
       <c r="F69" t="s">
@@ -3577,8 +3556,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -3590,7 +3569,7 @@
       <c r="D70" t="s">
         <v>11</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>353</v>
       </c>
       <c r="F70" t="s">
@@ -3600,8 +3579,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -3613,7 +3592,7 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>272</v>
       </c>
       <c r="F71" t="s">
@@ -3623,8 +3602,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -3636,7 +3615,7 @@
       <c r="D72" t="s">
         <v>11</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>368</v>
       </c>
       <c r="F72" t="s">
@@ -3646,8 +3625,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -3659,7 +3638,7 @@
       <c r="D73" t="s">
         <v>19</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>272</v>
       </c>
       <c r="F73" t="s">
@@ -3669,8 +3648,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -3682,7 +3661,7 @@
       <c r="D74" t="s">
         <v>11</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>373</v>
       </c>
       <c r="F74" t="s">
@@ -3692,8 +3671,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -3705,7 +3684,7 @@
       <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>272</v>
       </c>
       <c r="F75" t="s">
@@ -3715,8 +3694,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -3728,7 +3707,7 @@
       <c r="D76" t="s">
         <v>11</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>372</v>
       </c>
       <c r="F76" t="s">
@@ -3738,8 +3717,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -3751,7 +3730,7 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>272</v>
       </c>
       <c r="F77" t="s">
@@ -3761,8 +3740,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3774,7 +3753,7 @@
       <c r="D78" t="s">
         <v>11</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>377</v>
       </c>
       <c r="F78" t="s">
@@ -3784,8 +3763,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3797,7 +3776,7 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>272</v>
       </c>
       <c r="F79" t="s">
@@ -3807,8 +3786,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -3820,7 +3799,7 @@
       <c r="D80" t="s">
         <v>11</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>364</v>
       </c>
       <c r="F80" t="s">
@@ -3830,8 +3809,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -3843,7 +3822,7 @@
       <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>272</v>
       </c>
       <c r="F81" t="s">
@@ -3853,8 +3832,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -3866,7 +3845,7 @@
       <c r="D82" t="s">
         <v>11</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>348</v>
       </c>
       <c r="F82" t="s">
@@ -3876,8 +3855,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -3889,7 +3868,7 @@
       <c r="D83" t="s">
         <v>19</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>272</v>
       </c>
       <c r="F83" t="s">
@@ -3899,8 +3878,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -3912,7 +3891,7 @@
       <c r="D84" t="s">
         <v>11</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>369</v>
       </c>
       <c r="F84" t="s">
@@ -3922,8 +3901,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -3935,7 +3914,7 @@
       <c r="D85" t="s">
         <v>19</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>272</v>
       </c>
       <c r="F85" t="s">
@@ -3945,8 +3924,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -3958,7 +3937,7 @@
       <c r="D86" t="s">
         <v>11</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>372</v>
       </c>
       <c r="F86" t="s">
@@ -3968,8 +3947,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3981,7 +3960,7 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>272</v>
       </c>
       <c r="F87" t="s">
@@ -3991,8 +3970,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -4004,7 +3983,7 @@
       <c r="D88" t="s">
         <v>11</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>365</v>
       </c>
       <c r="F88" t="s">
@@ -4014,8 +3993,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -4027,7 +4006,7 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>272</v>
       </c>
       <c r="F89" t="s">
@@ -4037,8 +4016,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -4050,7 +4029,7 @@
       <c r="D90" t="s">
         <v>11</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>349</v>
       </c>
       <c r="F90" t="s">
@@ -4060,8 +4039,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -4073,7 +4052,7 @@
       <c r="D91" t="s">
         <v>19</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>272</v>
       </c>
       <c r="F91" t="s">
@@ -4083,8 +4062,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -4096,7 +4075,7 @@
       <c r="D92" t="s">
         <v>11</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>372</v>
       </c>
       <c r="F92" t="s">
@@ -4106,8 +4085,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -4119,7 +4098,7 @@
       <c r="D93" t="s">
         <v>19</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>272</v>
       </c>
       <c r="F93" t="s">
@@ -4129,8 +4108,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -4142,7 +4121,7 @@
       <c r="D94" t="s">
         <v>11</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>372</v>
       </c>
       <c r="F94" t="s">
@@ -4152,8 +4131,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -4165,7 +4144,7 @@
       <c r="D95" t="s">
         <v>19</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>270</v>
       </c>
       <c r="F95" t="s">
@@ -4175,8 +4154,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -4188,7 +4167,7 @@
       <c r="D96" t="s">
         <v>11</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>377</v>
       </c>
       <c r="F96" t="s">
@@ -4198,8 +4177,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -4211,7 +4190,7 @@
       <c r="D97" t="s">
         <v>11</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>363</v>
       </c>
       <c r="F97" t="s">
@@ -4221,8 +4200,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -4234,7 +4213,7 @@
       <c r="D98" t="s">
         <v>11</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>371</v>
       </c>
       <c r="F98" t="s">
@@ -4244,8 +4223,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -4257,7 +4236,7 @@
       <c r="D99" t="s">
         <v>19</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>202</v>
       </c>
       <c r="F99" t="s">
@@ -4267,8 +4246,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -4280,7 +4259,7 @@
       <c r="D100" t="s">
         <v>19</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>202</v>
       </c>
       <c r="F100" t="s">
@@ -4290,8 +4269,8 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -4303,7 +4282,7 @@
       <c r="D101" t="s">
         <v>19</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>202</v>
       </c>
       <c r="F101" t="s">
@@ -4313,8 +4292,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -4326,7 +4305,7 @@
       <c r="D102" t="s">
         <v>19</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>202</v>
       </c>
       <c r="F102" t="s">
@@ -4336,8 +4315,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -4349,7 +4328,7 @@
       <c r="D103" t="s">
         <v>19</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>203</v>
       </c>
       <c r="F103" t="s">
@@ -4359,8 +4338,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -4372,7 +4351,7 @@
       <c r="D104" t="s">
         <v>8</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>204</v>
       </c>
       <c r="F104" t="s">
@@ -4382,8 +4361,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -4395,7 +4374,7 @@
       <c r="D105" t="s">
         <v>11</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>378</v>
       </c>
       <c r="F105" t="s">
@@ -4405,8 +4384,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -4418,7 +4397,7 @@
       <c r="D106" t="s">
         <v>19</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>203</v>
       </c>
       <c r="F106" t="s">
@@ -4428,8 +4407,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -4441,7 +4420,7 @@
       <c r="D107" t="s">
         <v>19</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>202</v>
       </c>
       <c r="F107" t="s">
@@ -4451,8 +4430,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -4464,7 +4443,7 @@
       <c r="D108" t="s">
         <v>19</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>202</v>
       </c>
       <c r="F108" t="s">
@@ -4474,8 +4453,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -4487,7 +4466,7 @@
       <c r="D109" t="s">
         <v>19</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>203</v>
       </c>
       <c r="F109" t="s">
@@ -4497,8 +4476,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -4510,7 +4489,7 @@
       <c r="D110" t="s">
         <v>19</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>203</v>
       </c>
       <c r="F110" t="s">
@@ -4520,8 +4499,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -4533,7 +4512,7 @@
       <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>203</v>
       </c>
       <c r="F111" t="s">
@@ -4543,8 +4522,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -4556,7 +4535,7 @@
       <c r="D112" t="s">
         <v>19</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>205</v>
       </c>
       <c r="F112" t="s">
@@ -4566,8 +4545,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -4579,7 +4558,7 @@
       <c r="D113" t="s">
         <v>19</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>224</v>
       </c>
       <c r="F113" t="s">
@@ -4589,8 +4568,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114">
+      <c r="A114" t="n">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -4602,7 +4581,7 @@
       <c r="D114" t="s">
         <v>19</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>224</v>
       </c>
       <c r="F114" t="s">
@@ -4612,8 +4591,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115">
+      <c r="A115" t="n">
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -4625,7 +4604,7 @@
       <c r="D115" t="s">
         <v>19</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>224</v>
       </c>
       <c r="F115" t="s">
@@ -4635,8 +4614,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116">
+      <c r="A116" t="n">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -4648,7 +4627,7 @@
       <c r="D116" t="s">
         <v>19</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>224</v>
       </c>
       <c r="F116" t="s">
@@ -4658,8 +4637,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117">
+      <c r="A117" t="n">
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -4671,7 +4650,7 @@
       <c r="D117" t="s">
         <v>19</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>224</v>
       </c>
       <c r="F117" t="s">
@@ -4681,8 +4660,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118">
+      <c r="A118" t="n">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -4694,7 +4673,7 @@
       <c r="D118" t="s">
         <v>19</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>224</v>
       </c>
       <c r="F118" t="s">
@@ -4704,8 +4683,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119">
+      <c r="A119" t="n">
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -4717,7 +4696,7 @@
       <c r="D119" t="s">
         <v>19</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>224</v>
       </c>
       <c r="F119" t="s">
@@ -4727,8 +4706,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120">
+      <c r="A120" t="n">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -4740,7 +4719,7 @@
       <c r="D120" t="s">
         <v>19</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>224</v>
       </c>
       <c r="F120" t="s">
@@ -4750,8 +4729,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121">
+      <c r="A121" t="n">
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -4763,7 +4742,7 @@
       <c r="D121" t="s">
         <v>19</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>224</v>
       </c>
       <c r="F121" t="s">
@@ -4773,8 +4752,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122">
+      <c r="A122" t="n">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -4786,7 +4765,7 @@
       <c r="D122" t="s">
         <v>19</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>224</v>
       </c>
       <c r="F122" t="s">
@@ -4796,8 +4775,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123">
+      <c r="A123" t="n">
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -4809,7 +4788,7 @@
       <c r="D123" t="s">
         <v>19</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>224</v>
       </c>
       <c r="F123" t="s">
@@ -4819,8 +4798,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124">
+      <c r="A124" t="n">
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -4832,7 +4811,7 @@
       <c r="D124" t="s">
         <v>19</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>214</v>
       </c>
       <c r="F124" t="s">
@@ -4842,8 +4821,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125">
+      <c r="A125" t="n">
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -4855,7 +4834,7 @@
       <c r="D125" t="s">
         <v>11</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>357</v>
       </c>
       <c r="F125" t="s">
@@ -4865,8 +4844,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126">
+      <c r="A126" t="n">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -4878,7 +4857,7 @@
       <c r="D126" t="s">
         <v>19</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>223</v>
       </c>
       <c r="F126" t="s">
@@ -4888,8 +4867,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127">
+      <c r="A127" t="n">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -4901,7 +4880,7 @@
       <c r="D127" t="s">
         <v>19</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>223</v>
       </c>
       <c r="F127" t="s">
@@ -4911,8 +4890,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128">
+      <c r="A128" t="n">
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -4924,7 +4903,7 @@
       <c r="D128" t="s">
         <v>19</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>223</v>
       </c>
       <c r="F128" t="s">
@@ -4934,8 +4913,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129">
+      <c r="A129" t="n">
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -4947,7 +4926,7 @@
       <c r="D129" t="s">
         <v>19</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>223</v>
       </c>
       <c r="F129" t="s">
@@ -4957,8 +4936,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130">
+      <c r="A130" t="n">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -4970,7 +4949,7 @@
       <c r="D130" t="s">
         <v>19</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>223</v>
       </c>
       <c r="F130" t="s">
@@ -4980,8 +4959,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131">
+      <c r="A131" t="n">
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -4993,7 +4972,7 @@
       <c r="D131" t="s">
         <v>19</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>223</v>
       </c>
       <c r="F131" t="s">
@@ -5003,8 +4982,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132">
+      <c r="A132" t="n">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -5016,7 +4995,7 @@
       <c r="D132" t="s">
         <v>19</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>223</v>
       </c>
       <c r="F132" t="s">
@@ -5026,8 +5005,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133">
+      <c r="A133" t="n">
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -5039,7 +5018,7 @@
       <c r="D133" t="s">
         <v>19</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>223</v>
       </c>
       <c r="F133" t="s">
@@ -5049,8 +5028,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134">
+      <c r="A134" t="n">
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -5062,7 +5041,7 @@
       <c r="D134" t="s">
         <v>19</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>223</v>
       </c>
       <c r="F134" t="s">
@@ -5072,8 +5051,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135">
+      <c r="A135" t="n">
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -5085,7 +5064,7 @@
       <c r="D135" t="s">
         <v>19</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>223</v>
       </c>
       <c r="F135" t="s">
@@ -5095,8 +5074,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136">
+      <c r="A136" t="n">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -5108,7 +5087,7 @@
       <c r="D136" t="s">
         <v>19</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>223</v>
       </c>
       <c r="F136" t="s">
@@ -5118,8 +5097,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137">
+      <c r="A137" t="n">
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -5131,7 +5110,7 @@
       <c r="D137" t="s">
         <v>19</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>223</v>
       </c>
       <c r="F137" t="s">
@@ -5141,8 +5120,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138">
+      <c r="A138" t="n">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -5154,7 +5133,7 @@
       <c r="D138" t="s">
         <v>19</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>223</v>
       </c>
       <c r="F138" t="s">
@@ -5164,8 +5143,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139">
+      <c r="A139" t="n">
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -5177,7 +5156,7 @@
       <c r="D139" t="s">
         <v>19</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>223</v>
       </c>
       <c r="F139" t="s">
@@ -5187,8 +5166,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140">
+      <c r="A140" t="n">
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -5200,7 +5179,7 @@
       <c r="D140" t="s">
         <v>19</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>223</v>
       </c>
       <c r="F140" t="s">
@@ -5210,8 +5189,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141">
+      <c r="A141" t="n">
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -5223,7 +5202,7 @@
       <c r="D141" t="s">
         <v>19</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>223</v>
       </c>
       <c r="F141" t="s">
@@ -5233,8 +5212,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142">
+      <c r="A142" t="n">
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -5246,7 +5225,7 @@
       <c r="D142" t="s">
         <v>19</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>223</v>
       </c>
       <c r="F142" t="s">
@@ -5256,8 +5235,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143">
+      <c r="A143" t="n">
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -5269,7 +5248,7 @@
       <c r="D143" t="s">
         <v>19</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>223</v>
       </c>
       <c r="F143" t="s">
@@ -5279,8 +5258,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144">
+      <c r="A144" t="n">
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -5292,7 +5271,7 @@
       <c r="D144" t="s">
         <v>19</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>214</v>
       </c>
       <c r="F144" t="s">
@@ -5302,8 +5281,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145">
+      <c r="A145" t="n">
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -5315,7 +5294,7 @@
       <c r="D145" t="s">
         <v>11</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>363</v>
       </c>
       <c r="F145" t="s">
@@ -5325,8 +5304,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146">
+      <c r="A146" t="n">
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -5338,7 +5317,7 @@
       <c r="D146" t="s">
         <v>19</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>251</v>
       </c>
       <c r="F146" t="s">
@@ -5348,8 +5327,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147">
+      <c r="A147" t="n">
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -5361,7 +5340,7 @@
       <c r="D147" t="s">
         <v>19</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>355</v>
       </c>
       <c r="F147" t="s">
@@ -5371,8 +5350,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148">
+      <c r="A148" t="n">
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -5384,7 +5363,7 @@
       <c r="D148" t="s">
         <v>19</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>334</v>
       </c>
       <c r="F148" t="s">
@@ -5394,8 +5373,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149">
+      <c r="A149" t="n">
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -5407,7 +5386,7 @@
       <c r="D149" t="s">
         <v>19</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>369</v>
       </c>
       <c r="F149" t="s">
@@ -5417,8 +5396,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150">
+      <c r="A150" t="n">
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -5430,7 +5409,7 @@
       <c r="D150" t="s">
         <v>19</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>328</v>
       </c>
       <c r="F150" t="s">
@@ -5440,8 +5419,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151">
+      <c r="A151" t="n">
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -5453,7 +5432,7 @@
       <c r="D151" t="s">
         <v>19</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>344</v>
       </c>
       <c r="F151" t="s">
@@ -5463,8 +5442,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152">
+      <c r="A152" t="n">
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -5476,7 +5455,7 @@
       <c r="D152" t="s">
         <v>19</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>335</v>
       </c>
       <c r="F152" t="s">
@@ -5486,8 +5465,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153">
+      <c r="A153" t="n">
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -5499,7 +5478,7 @@
       <c r="D153" t="s">
         <v>19</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>353</v>
       </c>
       <c r="F153" t="s">
@@ -5509,8 +5488,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154">
+      <c r="A154" t="n">
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -5522,7 +5501,7 @@
       <c r="D154" t="s">
         <v>19</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>269</v>
       </c>
       <c r="F154" t="s">
@@ -5532,8 +5511,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155">
+      <c r="A155" t="n">
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -5545,7 +5524,7 @@
       <c r="D155" t="s">
         <v>19</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>339</v>
       </c>
       <c r="F155" t="s">
@@ -5555,8 +5534,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156">
+      <c r="A156" t="n">
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -5568,7 +5547,7 @@
       <c r="D156" t="s">
         <v>19</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>331</v>
       </c>
       <c r="F156" t="s">
@@ -5578,8 +5557,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157">
+      <c r="A157" t="n">
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -5591,7 +5570,7 @@
       <c r="D157" t="s">
         <v>19</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>351</v>
       </c>
       <c r="F157" t="s">
@@ -5601,8 +5580,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158">
+      <c r="A158" t="n">
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -5614,7 +5593,7 @@
       <c r="D158" t="s">
         <v>19</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>340</v>
       </c>
       <c r="F158" t="s">
@@ -5624,8 +5603,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159">
+      <c r="A159" t="n">
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -5637,7 +5616,7 @@
       <c r="D159" t="s">
         <v>19</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>377</v>
       </c>
       <c r="F159" t="s">
@@ -5647,8 +5626,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160">
+      <c r="A160" t="n">
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -5660,7 +5639,7 @@
       <c r="D160" t="s">
         <v>19</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>317</v>
       </c>
       <c r="F160" t="s">
@@ -5670,8 +5649,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161">
+      <c r="A161" t="n">
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -5683,7 +5662,7 @@
       <c r="D161" t="s">
         <v>19</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>303</v>
       </c>
       <c r="F161" t="s">
@@ -5693,8 +5672,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162">
+      <c r="A162" t="n">
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -5706,7 +5685,7 @@
       <c r="D162" t="s">
         <v>19</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>297</v>
       </c>
       <c r="F162" t="s">
@@ -5716,8 +5695,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163">
+      <c r="A163" t="n">
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -5729,7 +5708,7 @@
       <c r="D163" t="s">
         <v>19</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>378</v>
       </c>
       <c r="F163" t="s">
@@ -5739,8 +5718,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164">
+      <c r="A164" t="n">
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -5752,7 +5731,7 @@
       <c r="D164" t="s">
         <v>19</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>214</v>
       </c>
       <c r="F164" t="s">
@@ -5762,8 +5741,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165">
+      <c r="A165" t="n">
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -5775,7 +5754,7 @@
       <c r="D165" t="s">
         <v>19</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>212</v>
       </c>
       <c r="F165" t="s">
@@ -5785,8 +5764,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166">
+      <c r="A166" t="n">
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -5798,7 +5777,7 @@
       <c r="D166" t="s">
         <v>19</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>212</v>
       </c>
       <c r="F166" t="s">
@@ -5808,8 +5787,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167">
+      <c r="A167" t="n">
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -5821,7 +5800,7 @@
       <c r="D167" t="s">
         <v>19</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>213</v>
       </c>
       <c r="F167" t="s">
@@ -5831,8 +5810,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168">
+      <c r="A168" t="n">
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -5844,7 +5823,7 @@
       <c r="D168" t="s">
         <v>19</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>214</v>
       </c>
       <c r="F168" t="s">
@@ -5854,8 +5833,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169">
+      <c r="A169" t="n">
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -5867,7 +5846,7 @@
       <c r="D169" t="s">
         <v>19</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>215</v>
       </c>
       <c r="F169" t="s">
@@ -5877,8 +5856,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170">
+      <c r="A170" t="n">
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -5890,7 +5869,7 @@
       <c r="D170" t="s">
         <v>19</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>214</v>
       </c>
       <c r="F170" t="s">
@@ -5900,8 +5879,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171">
+      <c r="A171" t="n">
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -5913,7 +5892,7 @@
       <c r="D171" t="s">
         <v>19</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>214</v>
       </c>
       <c r="F171" t="s">
@@ -5923,8 +5902,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172">
+      <c r="A172" t="n">
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -5936,7 +5915,7 @@
       <c r="D172" t="s">
         <v>19</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>214</v>
       </c>
       <c r="F172" t="s">
@@ -5946,8 +5925,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173">
+      <c r="A173" t="n">
         <v>172</v>
       </c>
       <c r="B173" t="s">
@@ -5959,7 +5938,7 @@
       <c r="D173" t="s">
         <v>19</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>214</v>
       </c>
       <c r="F173" t="s">
@@ -5969,8 +5948,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174">
+      <c r="A174" t="n">
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -5982,7 +5961,7 @@
       <c r="D174" t="s">
         <v>19</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>214</v>
       </c>
       <c r="F174" t="s">
@@ -5992,8 +5971,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175">
+      <c r="A175" t="n">
         <v>174</v>
       </c>
       <c r="B175" t="s">
@@ -6005,7 +5984,7 @@
       <c r="D175" t="s">
         <v>19</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>214</v>
       </c>
       <c r="F175" t="s">
@@ -6015,8 +5994,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176">
+      <c r="A176" t="n">
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -6028,7 +6007,7 @@
       <c r="D176" t="s">
         <v>19</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>214</v>
       </c>
       <c r="F176" t="s">
@@ -6038,8 +6017,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177">
+      <c r="A177" t="n">
         <v>176</v>
       </c>
       <c r="B177" t="s">
@@ -6051,7 +6030,7 @@
       <c r="D177" t="s">
         <v>19</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="n">
         <v>214</v>
       </c>
       <c r="F177" t="s">
@@ -6061,8 +6040,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178">
+      <c r="A178" t="n">
         <v>177</v>
       </c>
       <c r="B178" t="s">
@@ -6074,7 +6053,7 @@
       <c r="D178" t="s">
         <v>19</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>214</v>
       </c>
       <c r="F178" t="s">
@@ -6084,8 +6063,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179">
+      <c r="A179" t="n">
         <v>178</v>
       </c>
       <c r="B179" t="s">
@@ -6097,7 +6076,7 @@
       <c r="D179" t="s">
         <v>19</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>214</v>
       </c>
       <c r="F179" t="s">
@@ -6107,8 +6086,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180">
+      <c r="A180" t="n">
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -6120,7 +6099,7 @@
       <c r="D180" t="s">
         <v>19</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>214</v>
       </c>
       <c r="F180" t="s">
@@ -6130,8 +6109,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181">
+      <c r="A181" t="n">
         <v>180</v>
       </c>
       <c r="B181" t="s">
@@ -6143,7 +6122,7 @@
       <c r="D181" t="s">
         <v>19</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>214</v>
       </c>
       <c r="F181" t="s">
@@ -6153,8 +6132,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182">
+      <c r="A182" t="n">
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -6166,7 +6145,7 @@
       <c r="D182" t="s">
         <v>19</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>214</v>
       </c>
       <c r="F182" t="s">
@@ -6176,8 +6155,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183">
+      <c r="A183" t="n">
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -6189,7 +6168,7 @@
       <c r="D183" t="s">
         <v>19</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>214</v>
       </c>
       <c r="F183" t="s">
@@ -6199,8 +6178,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184">
+      <c r="A184" t="n">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -6212,7 +6191,7 @@
       <c r="D184" t="s">
         <v>19</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>214</v>
       </c>
       <c r="F184" t="s">
@@ -6222,8 +6201,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185">
+      <c r="A185" t="n">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -6235,7 +6214,7 @@
       <c r="D185" t="s">
         <v>11</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>378</v>
       </c>
       <c r="F185" t="s">
@@ -6245,8 +6224,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186">
+      <c r="A186" t="n">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -6258,7 +6237,7 @@
       <c r="D186" t="s">
         <v>19</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>220</v>
       </c>
       <c r="F186" t="s">
@@ -6268,8 +6247,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187">
+      <c r="A187" t="n">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -6281,7 +6260,7 @@
       <c r="D187" t="s">
         <v>19</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>220</v>
       </c>
       <c r="F187" t="s">
@@ -6291,8 +6270,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188">
+      <c r="A188" t="n">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -6304,7 +6283,7 @@
       <c r="D188" t="s">
         <v>19</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>220</v>
       </c>
       <c r="F188" t="s">
@@ -6314,8 +6293,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189">
+      <c r="A189" t="n">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -6327,7 +6306,7 @@
       <c r="D189" t="s">
         <v>19</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="n">
         <v>220</v>
       </c>
       <c r="F189" t="s">
@@ -6337,8 +6316,8 @@
         <v>401</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190">
+      <c r="A190" t="n">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -6350,7 +6329,7 @@
       <c r="D190" t="s">
         <v>19</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>220</v>
       </c>
       <c r="F190" t="s">
@@ -6360,8 +6339,8 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191">
+      <c r="A191" t="n">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -6373,7 +6352,7 @@
       <c r="D191" t="s">
         <v>19</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>221</v>
       </c>
       <c r="F191" t="s">
@@ -6383,8 +6362,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192">
+      <c r="A192" t="n">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -6396,7 +6375,7 @@
       <c r="D192" t="s">
         <v>19</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="n">
         <v>323</v>
       </c>
       <c r="F192" t="s">
@@ -6406,8 +6385,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193">
+      <c r="A193" t="n">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -6419,7 +6398,7 @@
       <c r="D193" t="s">
         <v>19</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>323</v>
       </c>
       <c r="F193" t="s">
@@ -6429,8 +6408,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194">
+      <c r="A194" t="n">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -6442,7 +6421,7 @@
       <c r="D194" t="s">
         <v>19</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>323</v>
       </c>
       <c r="F194" t="s">
@@ -6452,8 +6431,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195">
+      <c r="A195" t="n">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -6465,7 +6444,7 @@
       <c r="D195" t="s">
         <v>19</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>323</v>
       </c>
       <c r="F195" t="s">
@@ -6475,8 +6454,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196">
+      <c r="A196" t="n">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -6488,7 +6467,7 @@
       <c r="D196" t="s">
         <v>19</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>323</v>
       </c>
       <c r="F196" t="s">
@@ -6498,8 +6477,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197">
+      <c r="A197" t="n">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -6511,7 +6490,7 @@
       <c r="D197" t="s">
         <v>19</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>323</v>
       </c>
       <c r="F197" t="s">
@@ -6521,8 +6500,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198">
+      <c r="A198" t="n">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -6534,7 +6513,7 @@
       <c r="D198" t="s">
         <v>19</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="n">
         <v>323</v>
       </c>
       <c r="F198" t="s">
@@ -6544,8 +6523,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199">
+      <c r="A199" t="n">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -6557,7 +6536,7 @@
       <c r="D199" t="s">
         <v>19</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>323</v>
       </c>
       <c r="F199" t="s">
@@ -6567,8 +6546,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200">
+      <c r="A200" t="n">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -6580,7 +6559,7 @@
       <c r="D200" t="s">
         <v>19</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="n">
         <v>323</v>
       </c>
       <c r="F200" t="s">
@@ -6590,8 +6569,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201">
+      <c r="A201" t="n">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -6603,7 +6582,7 @@
       <c r="D201" t="s">
         <v>11</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>367</v>
       </c>
       <c r="F201" t="s">
@@ -6613,8 +6592,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202">
+      <c r="A202" t="n">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -6626,7 +6605,7 @@
       <c r="D202" t="s">
         <v>19</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="n">
         <v>222</v>
       </c>
       <c r="F202" t="s">
@@ -6636,8 +6615,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203">
+      <c r="A203" t="n">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -6649,7 +6628,7 @@
       <c r="D203" t="s">
         <v>19</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="n">
         <v>283</v>
       </c>
       <c r="F203" t="s">
@@ -6659,8 +6638,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204">
+      <c r="A204" t="n">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -6672,7 +6651,7 @@
       <c r="D204" t="s">
         <v>11</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>373</v>
       </c>
       <c r="F204" t="s">
@@ -6682,8 +6661,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205">
+      <c r="A205" t="n">
         <v>204</v>
       </c>
       <c r="B205" t="s">
@@ -6695,7 +6674,7 @@
       <c r="D205" t="s">
         <v>19</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>222</v>
       </c>
       <c r="F205" t="s">
@@ -6705,8 +6684,8 @@
         <v>444</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206">
+      <c r="A206" t="n">
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -6718,7 +6697,7 @@
       <c r="D206" t="s">
         <v>8</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>273</v>
       </c>
       <c r="F206" t="s">
@@ -6728,8 +6707,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207">
+      <c r="A207" t="n">
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -6741,7 +6720,7 @@
       <c r="D207" t="s">
         <v>11</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>378</v>
       </c>
       <c r="F207" t="s">
@@ -6751,8 +6730,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208">
+      <c r="A208" t="n">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -6764,7 +6743,7 @@
       <c r="D208" t="s">
         <v>8</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>339</v>
       </c>
       <c r="F208" t="s">
@@ -6774,8 +6753,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209">
+      <c r="A209" t="n">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -6787,7 +6766,7 @@
       <c r="D209" t="s">
         <v>19</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>222</v>
       </c>
       <c r="F209" t="s">
@@ -6797,8 +6776,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210">
+      <c r="A210" t="n">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -6810,7 +6789,7 @@
       <c r="D210" t="s">
         <v>19</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>222</v>
       </c>
       <c r="F210" t="s">
@@ -6820,8 +6799,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211">
+      <c r="A211" t="n">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -6833,7 +6812,7 @@
       <c r="D211" t="s">
         <v>19</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>236</v>
       </c>
       <c r="F211" t="s">
@@ -6843,8 +6822,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212">
+      <c r="A212" t="n">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -6856,7 +6835,7 @@
       <c r="D212" t="s">
         <v>19</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>265</v>
       </c>
       <c r="F212" t="s">
@@ -6866,8 +6845,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213">
+      <c r="A213" t="n">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -6879,7 +6858,7 @@
       <c r="D213" t="s">
         <v>19</v>
       </c>
-      <c r="E213">
+      <c r="E213" t="n">
         <v>265</v>
       </c>
       <c r="F213" t="s">
@@ -6889,8 +6868,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214">
+      <c r="A214" t="n">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -6902,7 +6881,7 @@
       <c r="D214" t="s">
         <v>19</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="n">
         <v>265</v>
       </c>
       <c r="F214" t="s">
@@ -6912,8 +6891,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215">
+      <c r="A215" t="n">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -6925,7 +6904,7 @@
       <c r="D215" t="s">
         <v>19</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="n">
         <v>265</v>
       </c>
       <c r="F215" t="s">
@@ -6935,8 +6914,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216">
+      <c r="A216" t="n">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -6948,7 +6927,7 @@
       <c r="D216" t="s">
         <v>19</v>
       </c>
-      <c r="E216">
+      <c r="E216" t="n">
         <v>265</v>
       </c>
       <c r="F216" t="s">
@@ -6958,8 +6937,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217">
+      <c r="A217" t="n">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -6971,7 +6950,7 @@
       <c r="D217" t="s">
         <v>19</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="n">
         <v>265</v>
       </c>
       <c r="F217" t="s">
@@ -6981,8 +6960,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218">
+      <c r="A218" t="n">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -6994,7 +6973,7 @@
       <c r="D218" t="s">
         <v>19</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="n">
         <v>265</v>
       </c>
       <c r="F218" t="s">
@@ -7004,8 +6983,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219">
+      <c r="A219" t="n">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -7017,7 +6996,7 @@
       <c r="D219" t="s">
         <v>19</v>
       </c>
-      <c r="E219">
+      <c r="E219" t="n">
         <v>265</v>
       </c>
       <c r="F219" t="s">
@@ -7027,8 +7006,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220">
+      <c r="A220" t="n">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -7040,7 +7019,7 @@
       <c r="D220" t="s">
         <v>19</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="n">
         <v>265</v>
       </c>
       <c r="F220" t="s">
@@ -7050,8 +7029,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221">
+      <c r="A221" t="n">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -7063,7 +7042,7 @@
       <c r="D221" t="s">
         <v>19</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="n">
         <v>251</v>
       </c>
       <c r="F221" t="s">
@@ -7073,8 +7052,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222">
+      <c r="A222" t="n">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -7086,7 +7065,7 @@
       <c r="D222" t="s">
         <v>11</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="n">
         <v>359</v>
       </c>
       <c r="F222" t="s">
@@ -7096,8 +7075,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223">
+      <c r="A223" t="n">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -7109,7 +7088,7 @@
       <c r="D223" t="s">
         <v>19</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="n">
         <v>224</v>
       </c>
       <c r="F223" t="s">
@@ -7119,8 +7098,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224">
+      <c r="A224" t="n">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -7132,7 +7111,7 @@
       <c r="D224" t="s">
         <v>19</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="n">
         <v>224</v>
       </c>
       <c r="F224" t="s">
@@ -7142,8 +7121,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225">
+      <c r="A225" t="n">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -7155,7 +7134,7 @@
       <c r="D225" t="s">
         <v>19</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="n">
         <v>224</v>
       </c>
       <c r="F225" t="s">
@@ -7165,8 +7144,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226">
+      <c r="A226" t="n">
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -7178,7 +7157,7 @@
       <c r="D226" t="s">
         <v>19</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>224</v>
       </c>
       <c r="F226" t="s">
@@ -7188,8 +7167,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227">
+      <c r="A227" t="n">
         <v>226</v>
       </c>
       <c r="B227" t="s">
@@ -7201,7 +7180,7 @@
       <c r="D227" t="s">
         <v>19</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="n">
         <v>224</v>
       </c>
       <c r="F227" t="s">
@@ -7211,8 +7190,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228">
+      <c r="A228" t="n">
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -7224,7 +7203,7 @@
       <c r="D228" t="s">
         <v>19</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="n">
         <v>224</v>
       </c>
       <c r="F228" t="s">
@@ -7234,8 +7213,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229">
+      <c r="A229" t="n">
         <v>228</v>
       </c>
       <c r="B229" t="s">
@@ -7247,7 +7226,7 @@
       <c r="D229" t="s">
         <v>19</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="n">
         <v>224</v>
       </c>
       <c r="F229" t="s">
@@ -7257,8 +7236,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230">
+      <c r="A230" t="n">
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -7270,7 +7249,7 @@
       <c r="D230" t="s">
         <v>19</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="n">
         <v>224</v>
       </c>
       <c r="F230" t="s">
@@ -7280,8 +7259,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231">
+      <c r="A231" t="n">
         <v>230</v>
       </c>
       <c r="B231" t="s">
@@ -7293,7 +7272,7 @@
       <c r="D231" t="s">
         <v>19</v>
       </c>
-      <c r="E231">
+      <c r="E231" t="n">
         <v>224</v>
       </c>
       <c r="F231" t="s">
@@ -7303,8 +7282,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232">
+      <c r="A232" t="n">
         <v>231</v>
       </c>
       <c r="B232" t="s">
@@ -7316,7 +7295,7 @@
       <c r="D232" t="s">
         <v>19</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="n">
         <v>224</v>
       </c>
       <c r="F232" t="s">
@@ -7326,8 +7305,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233">
+      <c r="A233" t="n">
         <v>232</v>
       </c>
       <c r="B233" t="s">
@@ -7339,7 +7318,7 @@
       <c r="D233" t="s">
         <v>19</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="n">
         <v>224</v>
       </c>
       <c r="F233" t="s">
@@ -7349,8 +7328,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234">
+      <c r="A234" t="n">
         <v>233</v>
       </c>
       <c r="B234" t="s">
@@ -7362,7 +7341,7 @@
       <c r="D234" t="s">
         <v>19</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="n">
         <v>224</v>
       </c>
       <c r="F234" t="s">
@@ -7372,8 +7351,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235">
+      <c r="A235" t="n">
         <v>234</v>
       </c>
       <c r="B235" t="s">
@@ -7385,7 +7364,7 @@
       <c r="D235" t="s">
         <v>19</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="n">
         <v>224</v>
       </c>
       <c r="F235" t="s">
@@ -7395,8 +7374,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236">
+      <c r="A236" t="n">
         <v>235</v>
       </c>
       <c r="B236" t="s">
@@ -7408,7 +7387,7 @@
       <c r="D236" t="s">
         <v>19</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="n">
         <v>224</v>
       </c>
       <c r="F236" t="s">
@@ -7418,8 +7397,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237">
+      <c r="A237" t="n">
         <v>236</v>
       </c>
       <c r="B237" t="s">
@@ -7431,7 +7410,7 @@
       <c r="D237" t="s">
         <v>19</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="n">
         <v>224</v>
       </c>
       <c r="F237" t="s">
@@ -7441,8 +7420,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238">
+      <c r="A238" t="n">
         <v>237</v>
       </c>
       <c r="B238" t="s">
@@ -7454,7 +7433,7 @@
       <c r="D238" t="s">
         <v>19</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="n">
         <v>227</v>
       </c>
       <c r="F238" t="s">
@@ -7464,8 +7443,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239">
+      <c r="A239" t="n">
         <v>238</v>
       </c>
       <c r="B239" t="s">
@@ -7477,7 +7456,7 @@
       <c r="D239" t="s">
         <v>11</v>
       </c>
-      <c r="E239">
+      <c r="E239" t="n">
         <v>324</v>
       </c>
       <c r="F239" t="s">
@@ -7487,8 +7466,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240">
+      <c r="A240" t="n">
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -7500,7 +7479,7 @@
       <c r="D240" t="s">
         <v>19</v>
       </c>
-      <c r="E240">
+      <c r="E240" t="n">
         <v>359</v>
       </c>
       <c r="F240" t="s">
@@ -7510,8 +7489,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241">
+      <c r="A241" t="n">
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -7523,7 +7502,7 @@
       <c r="D241" t="s">
         <v>19</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="n">
         <v>363</v>
       </c>
       <c r="F241" t="s">
@@ -7533,8 +7512,8 @@
         <v>520</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242">
+      <c r="A242" t="n">
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -7546,7 +7525,7 @@
       <c r="D242" t="s">
         <v>11</v>
       </c>
-      <c r="E242">
+      <c r="E242" t="n">
         <v>378</v>
       </c>
       <c r="F242" t="s">
@@ -7556,8 +7535,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243">
+      <c r="A243" t="n">
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -7569,7 +7548,7 @@
       <c r="D243" t="s">
         <v>19</v>
       </c>
-      <c r="E243">
+      <c r="E243" t="n">
         <v>363</v>
       </c>
       <c r="F243" t="s">
@@ -7579,8 +7558,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244">
+      <c r="A244" t="n">
         <v>243</v>
       </c>
       <c r="B244" t="s">
@@ -7592,7 +7571,7 @@
       <c r="D244" t="s">
         <v>8</v>
       </c>
-      <c r="E244">
+      <c r="E244" t="n">
         <v>363</v>
       </c>
       <c r="F244" t="s">
@@ -7602,8 +7581,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245">
+      <c r="A245" t="n">
         <v>244</v>
       </c>
       <c r="B245" t="s">
@@ -7615,7 +7594,7 @@
       <c r="D245" t="s">
         <v>8</v>
       </c>
-      <c r="E245">
+      <c r="E245" t="n">
         <v>363</v>
       </c>
       <c r="F245" t="s">
@@ -7625,8 +7604,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246">
+      <c r="A246" t="n">
         <v>245</v>
       </c>
       <c r="B246" t="s">
@@ -7638,7 +7617,7 @@
       <c r="D246" t="s">
         <v>19</v>
       </c>
-      <c r="E246">
+      <c r="E246" t="n">
         <v>363</v>
       </c>
       <c r="F246" t="s">
@@ -7648,8 +7627,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247">
+      <c r="A247" t="n">
         <v>246</v>
       </c>
       <c r="B247" t="s">
@@ -7661,7 +7640,7 @@
       <c r="D247" t="s">
         <v>19</v>
       </c>
-      <c r="E247">
+      <c r="E247" t="n">
         <v>363</v>
       </c>
       <c r="F247" t="s">
@@ -7671,8 +7650,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248">
+      <c r="A248" t="n">
         <v>247</v>
       </c>
       <c r="B248" t="s">
@@ -7684,7 +7663,7 @@
       <c r="D248" t="s">
         <v>19</v>
       </c>
-      <c r="E248">
+      <c r="E248" t="n">
         <v>230</v>
       </c>
       <c r="F248" t="s">
@@ -7694,8 +7673,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249">
+      <c r="A249" t="n">
         <v>248</v>
       </c>
       <c r="B249" t="s">
@@ -7707,7 +7686,7 @@
       <c r="D249" t="s">
         <v>11</v>
       </c>
-      <c r="E249">
+      <c r="E249" t="n">
         <v>312</v>
       </c>
       <c r="F249" t="s">
@@ -7717,8 +7696,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250">
+      <c r="A250" t="n">
         <v>249</v>
       </c>
       <c r="B250" t="s">
@@ -7730,7 +7709,7 @@
       <c r="D250" t="s">
         <v>11</v>
       </c>
-      <c r="E250">
+      <c r="E250" t="n">
         <v>312</v>
       </c>
       <c r="F250" t="s">
@@ -7740,8 +7719,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251">
+      <c r="A251" t="n">
         <v>250</v>
       </c>
       <c r="B251" t="s">
@@ -7753,7 +7732,7 @@
       <c r="D251" t="s">
         <v>11</v>
       </c>
-      <c r="E251">
+      <c r="E251" t="n">
         <v>312</v>
       </c>
       <c r="F251" t="s">
@@ -7763,8 +7742,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252">
+      <c r="A252" t="n">
         <v>251</v>
       </c>
       <c r="B252" t="s">
@@ -7776,7 +7755,7 @@
       <c r="D252" t="s">
         <v>11</v>
       </c>
-      <c r="E252">
+      <c r="E252" t="n">
         <v>378</v>
       </c>
       <c r="F252" t="s">
@@ -7788,6 +7767,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EN" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
   <si>
     <t xml:space="preserve">pos</t>
   </si>
@@ -68,49 +68,49 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous remplissez ce questionnaire</t>
+    <t xml:space="preserve">You are completing this questionnaire</t>
   </si>
   <si>
     <t xml:space="preserve">dbl+lbl</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
+    <t xml:space="preserve">[1] For yourself; [2] For another person for whom you are the legal representative. (The person you represent is not able to answer themselves)</t>
   </si>
   <si>
     <t xml:space="preserve">D1b</t>
   </si>
   <si>
-    <t xml:space="preserve">A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
+    <t xml:space="preserve">From now on, please answer all questions as if you were the person with the psychotic disorder. Indicate "I don't know" if you do not know how the person would respond.</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">À quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Homme; [2] Femme; [3] Autre</t>
+    <t xml:space="preserve">Which gender do you identify with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Man; [2] Woman; [3] Other</t>
   </si>
   <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
-    <t xml:space="preserve">Quelle est votre année de naissance ?</t>
+    <t xml:space="preserve">What is your year of birth?</t>
   </si>
   <si>
     <t xml:space="preserve">END0</t>
   </si>
   <si>
-    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
+    <t xml:space="preserve">Thank you for your participation. Unfortunately, you do not meet the conditions to continue this study.</t>
   </si>
   <si>
     <t xml:space="preserve">D4</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle province habitez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
+    <t xml:space="preserve">In which province do you live?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Antwerp; [2] Walloon Brabant; [3] Brussels; [4] Hainaut; [5] Liège; [6] Limburg; [7] Luxembourg; [8] Namur; [9] East Flanders; [10] Flemish Brabant; [11] West Flanders; [12] I do not live in Belgium; [13] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">END1</t>
@@ -119,226 +119,223 @@
     <t xml:space="preserve">D5</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
+    <t xml:space="preserve">What is the highest diploma or level of education you have obtained so far?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] No diploma or primary education; [2] Lower secondary education; [3] Upper secondary education; [4] Short-cycle higher education (e.g., Bachelor); [5] Long-cycle higher education (e.g., Master); [6] Doctorate; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D5_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Other] What is the highest diploma or level of education you have obtained so far?</t>
   </si>
   <si>
     <t xml:space="preserve">D6</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous vivez …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
+    <t xml:space="preserve">You live …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Alone; [2] Alone with child(ren); [3] With a partner (no children); [4] With a partner (with children); [5] With one or both parents; [6] In shared housing / flat share; [7] In a psychiatric nursing home; [8] In protected housing; [9] In supervised housing; [10] In hospital (temporarily); [11] In a nursing home; [12] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D6_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Vous vivez …</t>
+    <t xml:space="preserve">[Other] You live …</t>
   </si>
   <si>
     <t xml:space="preserve">D7</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel est votre pays de naissance ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
+    <t xml:space="preserve">What is your country of birth?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Belgium; [2] Another country; [3] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D8</t>
   </si>
   <si>
-    <t xml:space="preserve">Sélectionnez le pays concerné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
+    <t xml:space="preserve">Select the relevant country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Afghanistan; [2] South Africa; [3] Albania; [4] Algeria; [5] Germany; [6] Andorra; [7] Angola; [8] Anguilla; [9] Antarctica; [10] Antigua and Barbuda; [11] Saudi Arabia; [12] Argentina; [13] Armenia; [14] Aruba; [15] Australia; [16] Austria; [17] Azerbaijan; [18] The Bahamas; [19] Bahrain; [20] Bangladesh; [21] Barbados; [22] Belize; [23] Benin; [24] Bermuda; [25] Bhutan; [26] Belarus; [27] Bolivia; [28] Bonaire; [29] Bosnia and Herzegovina; [30] Botswana; [31] Brazil; [32] Brunei; [33] Bulgaria; [34] Burkina Faso; [35] Burundi; [36] Cambodia; [37] Cameroon; [38] Canada; [39] Cabo Verde; [40] Chile; [41] China; [42] Cyprus; [43] Colombia; [44] Comoros; [45] Congo (Brazzaville); [46] Congo (Democratic Republic); [47] North Korea; [48] South Korea (Republic of Korea); [49] Costa Rica; [50] Côte d’Ivoire; [51] Croatia; [52] Cuba; [53] Curaçao; [54] Denmark and the Faroe Islands; [55] Djibouti; [56] Dominica; [57] Egypt; [58] El Salvador; [59] United Arab Emirates; [60] Ecuador; [61] Eritrea; [62] Spain and the Canary Islands; [63] Estonia; [64] Eswatini (Swaziland); [65] United States of America; [66] Ethiopia; [67] Fiji; [68] Finland; [69] France; [70] Gabon; [71] Gambia; [72] Georgia; [73] Ghana; [74] Gibraltar; [75] Greece; [76] Grenada; [77] Greenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinea-Bissau; [82] Guinea (Conakry); [83] Equatorial Guinea; [84] Guyana; [85] French Guiana; [86] Haiti; [87] Honduras; [88] Hong Kong; [89] Hungary; [90] Christmas Island; [91] Cayman Islands; [92] Cook Islands; [93] Falkland Islands; [94] Marshall Islands; [95] Solomon Islands; [96] U.S. Virgin Islands; [97] British Virgin Islands; [98] India; [99] Indonesia; [100] Iraq; [101] Iran; [102] Ireland; [103] Iceland; [104] Israel; [105] Italy; [106] Jamaica; [107] Japan; [108] Jordan; [109] Kazakhstan; [110] Kenya; [111] Kyrgyzstan; [112] Kiribati; [113] Kosovo; [114] Kuwait; [115] Laos; [116] Lesotho; [117] Latvia; [118] Lebanon; [119] Liberia; [120] Libya; [121] Liechtenstein; [122] Lithuania; [123] Luxembourg; [124] Macao (China); [125] North Macedonia; [126] Madagascar; [127] Malaysia; [128] Malawi; [129] Maldives; [130] Mali; [131] Malta; [132] Northern Mariana Islands (U.S.); [133] Morocco; [134] Martinique; [135] Mauritius; [136] Mauritania; [137] Mayotte; [138] Mexico; [139] Micronesia; [140] Moldova; [141] Monaco; [142] Mongolia; [143] Montenegro; [144] Montserrat; [145] Mozambique; [146] Myanmar; [147] Namibia; [148] Nauru; [149] Nepal; [150] Nicaragua; [151] Niger; [152] Nigeria; [153] Niue; [154] Norway; [155] New Caledonia; [156] New Zealand; [157] Oman; [158] Uganda; [159] Uzbekistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papua New Guinea; [165] Paraguay; [166] Netherlands; [167] Peru; [168] Philippines; [169] Pitcairn; [170] Poland; [171] French Polynesia; [172] Puerto Rico; [173] Portugal, Azores, Madeira; [174] Qatar; [175] Central African Republic; [176] Dominican Republic; [177] Czech Republic; [178] Réunion; [179] Romania; [180] United Kingdom; [181] Russia; [182] Rwanda; [183] Western Sahara; [184] Saint Barthélemy; [185] Saint Kitts and Nevis; [186] Sint Eustatius and Saba; [187] San Marino; [188] Saint Martin (France); [189] Sint Maarten (Netherlands); [190] Saint Pierre and Miquelon; [191] Saint Vincent and the Grenadines; [192] Saint Helena – Tristan da Cunha – Ascension; [193] Saint Lucia; [194] Samoa; [195] American Samoa; [196] São Tomé and Príncipe; [197] Senegal; [198] Serbia; [199] Seychelles; [200] Sierra Leone; [201] Singapore; [202] Slovakia; [203] Slovenia; [204] Somalia; [205] Sudan; [206] South Sudan; [207] Sri Lanka; [208] Sweden; [209] Switzerland; [210] Suriname; [211] Syria; [212] Tajikistan; [213] Taiwan; [214] Tanzania; [215] Chad; [216] Thailand; [217] Timor-Leste; [218] Togo; [219] Tokelau (New Zealand); [220] Tonga; [221] Trinidad and Tobago; [222] Tunisia; [223] Turkmenistan; [224] Turks and Caicos Islands; [225] Türkiye; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis and Futuna; [233] Yemen; [234] Zambia; [235] Zimbabwe; [236] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D8_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Sélectionnez le pays concerné</t>
+    <t xml:space="preserve">[Other] Select the relevant country</t>
   </si>
   <si>
     <t xml:space="preserve">D9</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
+    <t xml:space="preserve">What was your main employment status just before the onset of your psychotic disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Paid employment (employee or self-employed); [2] Job seeker, unemployed, social assistance; [3] Homemaker, no income; [4] Student; [5] Retired; [6] Disability; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D9_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+    <t xml:space="preserve">[Other] What was your main employment status just before the onset of your psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">D10</t>
   </si>
   <si>
-    <t xml:space="preserve">Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas</t>
+    <t xml:space="preserve">Since the onset of your first psychotic symptoms, have you had paid employment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] No; [3] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D11</t>
   </si>
   <si>
-    <t xml:space="preserve">Actuellement, quel est votre principal statut professionnel?</t>
+    <t xml:space="preserve">What is your current main employment status?</t>
   </si>
   <si>
     <t xml:space="preserve">D11_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Actuellement, quel est votre principal statut professionnel?</t>
+    <t xml:space="preserve">[Other] What is your current main employment status?</t>
   </si>
   <si>
     <t xml:space="preserve">D12</t>
   </si>
   <si>
-    <t xml:space="preserve">En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
+    <t xml:space="preserve">Considering all income in your household, how easy or difficult is it to make ends meet at the end of each month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Very easily; [2] Easily; [3] Fairly easily; [4] With some difficulty; [5] With difficulty; [6] With great difficulty; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D13</t>
   </si>
   <si>
-    <t xml:space="preserve">Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
+    <t xml:space="preserve">Approximately how long ago were you diagnosed with a psychotic disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Less than 6 months; [2] 6 months to 2 years; [3] 2 to 5 years; [4] 5 to 10 years; [5] More than 10 years; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D13b</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiquez approximativement le nombre d'années:</t>
+    <t xml:space="preserve">Please indicate the approximate number of years:</t>
   </si>
   <si>
     <t xml:space="preserve">DSHC1</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
+    <t xml:space="preserve">How much time passed between your first psychotic symptoms and your first contact with a psychiatrist?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Less than 1 month; [2] Between 1 month and 6 months; [3] Between 6 months and 1 year; [4] Between 1 year and 2 years; [5] More than 2 years; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC1</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
+    <t xml:space="preserve">How much time passed between your first medical appointment for the psychotic disorder and the diagnosis?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non sélectionné</t>
+    <t xml:space="preserve">[Schizophrenia] Which diagnosis(es) have you received?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] Not selected</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Schizoaffective disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Schizophreniform disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A4</t>
   </si>
   <si>
-    <t xml:space="preserve">[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Delusional disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Brief psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Shared psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Substance-induced psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Psychotic disorder due to another medical condition] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Unspecified psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Bipolar disorder with psychotic features] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[I don't know] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A12</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[I prefer not to answer] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Other] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">END3</t>
   </si>
   <si>
-    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
+    <t xml:space="preserve">Thank you for your participation. Unfortunately, you are not eligible to continue this study because we do not include psychotic disorders due to another medical condition.</t>
   </si>
   <si>
     <t xml:space="preserve">DSD2</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
+    <t xml:space="preserve">Have you ever been hospitalized because of the psychotic disorder? Consider only hospitalizations with overnight stay(s).</t>
   </si>
   <si>
     <t xml:space="preserve">G00Q10</t>
@@ -350,1294 +347,1288 @@
     <t xml:space="preserve">DSD3_SQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Obsessive–compulsive disorder (OCD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Depression] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Bipolar disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Alcohol use disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Substance use disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Anxiety disorder or panic disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Post-traumatic stress disorder (PTSD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Personality disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Autism spectrum disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Attention-deficit/hyperactivity disorder (ADHD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Eating disorder (e.g., anorexia, bulimia)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">D14</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous également d’ autre(s) problème(s) de santé ?</t>
+    <t xml:space="preserve">Do you also have any other health problem(s)?</t>
   </si>
   <si>
     <t xml:space="preserve">D15_2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the heart or blood vessels (e.g., hypertension)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_2comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the heart or blood vessels (e.g., hypertension)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the respiratory system (e.g., asthma)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_3comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the respiratory system (e.g., asthma)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the digestive system (e.g., irritable bowel syndrome)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_4comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the digestive system (e.g., irritable bowel syndrome)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Skin disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_5comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Skin disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of bones, joints, or muscles (e.g., osteoarthritis, rheumatoid arthritis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_6comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of bones, joints, or muscles (e.g., osteoarthritis, rheumatoid arthritis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Other mental or psychological disorder not mentioned in the previous question] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_7comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Other mental or psychological disorder not mentioned in the previous question] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_17</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Neurodevelopmental disorder (e.g., developmental delay)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_17comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Neurodevelopmental disorder (e.g., developmental delay)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the nervous system (neurological) (e.g., dementia, multiple sclerosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_11comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the nervous system (neurological) (e.g., dementia, multiple sclerosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the blood (hematological) (e.g., anemia)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_8comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the blood (hematological) (e.g., anemia)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Immune disease (e.g., allergies, autoinflammatory diseases)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_9comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Immune disease (e.g., allergies, autoinflammatory diseases)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Endocrine, nutritional, or metabolic disease (e.g., diabetes, high cholesterol, obesity, hypothyroidism)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_10comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Endocrine, nutritional, or metabolic disease (e.g., diabetes, high cholesterol, obesity, hypothyroidism)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_12</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Eye disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_12comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Eye disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_13</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Ear or vestibular system disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_13comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Ear or vestibular system disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_14</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the reproductive organs or urinary system (e.g., kidney failure, endometriosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_14comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the reproductive organs or urinary system (e.g., kidney failure, endometriosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_18</t>
   </si>
   <si>
-    <t xml:space="preserve">[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Sleep disorders (e.g., obstructive sleep apnea)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_18comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Sleep disorders (e.g., obstructive sleep apnea)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_15</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease affecting multiple systems (e.g., psoriasis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_15comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease affecting multiple systems (e.g., psoriasis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_19</t>
   </si>
   <si>
-    <t xml:space="preserve">[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[No known diagnosis] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_19comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [No known diagnosis] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_16</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[I don't know] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_16comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [I don't know] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Other] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_othercomment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment for other] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">H1</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your mobility before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no problems walking.; [2] I had slight problems walking.; [3] I had moderate problems walking.; [4] I had severe problems walking.; [5] I was unable to walk.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your self-care before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no problems washing or dressing by myself.; [2] I had slight problems washing or dressing by myself.; [3] I had moderate problems washing or dressing by myself.; [4] I had severe problems washing or dressing by myself.; [5] I was unable to wash or dress by myself.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H3</t>
   </si>
   <si>
-    <t xml:space="preserve">Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your usual activities before your first psychotic symptoms (e.g., work, study, shopping, housework, using public transport, activities with family or seeing friends, leisure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no problems performing my usual activities.; [2] I had slight problems performing my usual activities.; [3] I had moderate problems performing my usual activities.; [4] I had severe problems performing my usual activities.; [5] I was unable to perform my usual activities.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H4</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your pain or discomfort before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no pain or discomfort.; [2] I had slight pain or discomfort.; [3] I had moderate pain or discomfort.; [4] I had severe pain or discomfort.; [5] I had extreme pain or discomfort.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H5</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your anxiety or depression before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I was not anxious or depressed.; [2] I was slightly anxious or depressed.; [3] I was moderately anxious or depressed.; [4] I was severely anxious or depressed.; [5] I was extremely anxious or depressed.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H6</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
+    <t xml:space="preserve">We would like to know how good or bad your health was BEFORE your first psychotic symptoms on a scale from 0 to 100. 100 means the best health you can imagine; 0 means the worst health you can imagine. Please enter a number between 0 and 100 to indicate your health BEFORE your first psychotic symptoms.</t>
   </si>
   <si>
     <t xml:space="preserve">TXT</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
+    <t xml:space="preserve">We would like to know your current health status, as you experience it today. Please tick the box next to the statement that best describes your health TODAY.</t>
   </si>
   <si>
     <t xml:space="preserve">H7</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre mobilité aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your mobility today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no problems walking.; [2] I have slight problems walking.; [3] I have moderate problems walking.; [4] I have severe problems walking.; [5] I am unable to walk.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H8</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre autonomie aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your self-care today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no problems washing or dressing by myself.; [2] I have slight problems washing or dressing by myself.; [3] I have moderate problems washing or dressing by myself.; [4] I have severe problems washing or dressing by myself.; [5] I am unable to wash or dress by myself.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H9</t>
   </si>
   <si>
-    <t xml:space="preserve">Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your usual activities today (e.g., work, study, shopping, housework, using public transport, activities with family or seeing friends, leisure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no problems performing my usual activities.; [2] I have slight problems performing my usual activities.; [3] I have moderate problems performing my usual activities.; [4] I have severe problems performing my usual activities.; [5] I am unable to perform my usual activities.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H10</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre douleur ou gêne aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your pain or discomfort today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no pain or discomfort.; [2] I have slight pain or discomfort.; [3] I have moderate pain or discomfort.; [4] I have severe pain or discomfort.; [5] I have extreme pain or discomfort.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H11</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre anxiété ou dépression aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your anxiety or depression today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I am not anxious or depressed.; [2] I am slightly anxious or depressed.; [3] I am moderately anxious or depressed.; [4] I am severely anxious or depressed.; [5] I am extremely anxious or depressed.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H12</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
+    <t xml:space="preserve">We would like to know how good or bad your health is TODAY on a scale from 0 to 100. 100 means the best health you can imagine; 0 means the worst health you can imagine. Please enter a number between 0 and 100 to indicate your health TODAY.</t>
   </si>
   <si>
     <t xml:space="preserve">HC2</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
+    <t xml:space="preserve">Have you received treatment related to your psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Atypical (second-generation) antipsychotics (e.g., Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quetiapine, Risperidone, Serdolect)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Typical (first-generation) antipsychotics (e.g., Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Clozapine (e.g., Clozapine Sandoz, Leponex)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Antidepressants used to treat depression, obsessive–compulsive disorder, or panic disorder (e.g., Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Tranquilizers (e.g., Diazepam, Valium, Lormetazepam, Lorazepam)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Psychotherapy (e.g., cognitive behavioral therapy, psychoeducation, etc.)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Electroconvulsive therapy (ECT)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Other non-invasive brain stimulation: transcranial direct current stimulation (tDCS) or repetitive transcranial magnetic stimulation (rTMS)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Deep brain stimulation] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Physical exercise] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Peer support] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[I don't know] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Other] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Weight gain] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Hyperglycemia (high blood sugar) or diabetes] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[High cholesterol (excess blood lipids)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Low white blood cell count] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ019</t>
   </si>
   <si>
-    <t xml:space="preserve">[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Movement disorders] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Agitation, difficulty staying still, urge to move] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Involuntary, sometimes painful, muscle contractions] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Tremors and/or facial rigidity] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Involuntary facial movements, such as chewing, tongue protrusion, or eye blinking] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Fatigue or drowsiness] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Dizziness] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Dry mouth or eyes] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Nausea] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Constipation] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Myocarditis (inflammation of the heart muscle)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Sexual dysfunction (e.g., decreased libido)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Memory problems or “brain fog”] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Affective blunting (lack of motivation, lack of interest)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[No side effects] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Other] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
+    <t xml:space="preserve">[Weight gain] Indicate how burdensome each side effect was for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all burdensome; [2] Slightly burdensome; [3] Moderately burdensome; [4] Very burdensome; [5] Extremely burdensome; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Hyperglycemia (high blood sugar) or diabetes] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[High cholesterol (excess blood lipids)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Low white blood cell count] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Agitation, difficulty staying still, urge to move] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Involuntary and sometimes painful muscle contractions] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Tremors and/or facial rigidity] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Involuntary facial movements, such as chewing, sticking out the tongue, or blinking] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Fatigue or drowsiness] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Dizziness] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Dry mouth or eyes] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Nausea] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Constipation] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Myocarditis (inflammation of the heart muscle)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Sexual dysfunction (e.g., decreased libido)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Memory problems or “brain fog”] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Affective blunting (lack of motivation, lack of interest)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[No side effects] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC6</t>
   </si>
   <si>
-    <t xml:space="preserve">En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
+    <t xml:space="preserve">Apart from side effects, how burdensome was the treatment you received for the psychotic disorder in the past 5 years? For example, due to injections, needing to go to the hospital to receive treatment, a strict dosing schedule, the need to keep the medication refrigerated, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
+    <t xml:space="preserve">[The feeling that things are said on TV or written in newspapers especially about you; that people are deliberately trying to harm you; that there is a conspiracy against you; the feeling of hearing your thoughts repeated like an echo; or other altered perceptions of reality.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have not had this symptom; [2] Not at all burdensome; [3] Slightly burdensome; [4] Moderately burdensome; [5] Very burdensome; [6] Extremely burdensome; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Hearing, seeing, or feeling something that is not there. For example, hearing one or more voices when you are alone; seeing objects, people, or animals that others do not see.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Feelings of influence, control, or passivity. For example, the impression of having thoughts in your head that you do not recognize as your own; the feeling of being controlled by a force or power outside yourself.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Disorganized thinking, such as feeling that your mind is blank, the impression that your thoughts have been taken out of your head, or having thoughts in your head that you do not recognize as your own.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Disorganized behavior. For example, feeling you neglect your appearance or personal hygiene, or feeling you never manage to finish what you start.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ019</t>
   </si>
   <si>
-    <t xml:space="preserve">[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Inability to feel interest or pleasure, lack of motivation or enthusiasm, feeling that your emotions are blunted.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ020</t>
   </si>
   <si>
-    <t xml:space="preserve">[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Social isolation, or feeling you have no interest in being with other people.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ021</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Agitation or feeling tense] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Problems with concentration] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Fatigue or exhaustion] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Fear or anxiety] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Feeling down, depressed, or sad] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Stress] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Self-harm behaviors or urges] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Feeling that you no longer want to live] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Stigma or feeling discriminated against] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
     <t xml:space="preserve">H13_SQ022</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Other] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H14</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
+    <t xml:space="preserve">To what extent has the psychotic disorder interfered with your sexual life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable; [8] I prefer not to answer</t>
   </si>
   <si>
     <t xml:space="preserve">H15</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
+    <t xml:space="preserve">To what extent has the psychotic disorder interfered with your reproductive life, i.e., with your ability or decision to conceive children naturally or to carry a pregnancy to term? For example: IVF, genetic screening, sperm/egg donation, needing to delay a pregnancy, or giving up having biological children because of the psychotic disorder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable (e.g., you have not yet considered having children, or you were not affected by the disorder ; [8] I prefer not to answer</t>
   </si>
   <si>
     <t xml:space="preserve">INFO</t>
   </si>
   <si>
-    <t xml:space="preserve">Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
+    <t xml:space="preserve">By ‘care’ we mean all appointments, treatments, and supports offered by health professionals to manage and improve your health related to the psychotic disorder.</t>
   </si>
   <si>
     <t xml:space="preserve">HC7</t>
   </si>
   <si>
-    <t xml:space="preserve">Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
+    <t xml:space="preserve">Do you consider that your care has been well organized and planned over time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Always; [2] Often; [3] Sometimes; [4] Rarely; [5] Never; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC8</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
+    <t xml:space="preserve">Do you have one or more health professionals who are responsible for coordinating the different medical services you need?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] No; [3] I don't know; [4] Not applicable: follow-up is only in one service, with no need for coordination</t>
   </si>
   <si>
     <t xml:space="preserve">HC9</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
+    <t xml:space="preserve">To what extent do you see the same health professional(s) during your regular appointments or examinations?</t>
   </si>
   <si>
     <t xml:space="preserve">HC10</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
+    <t xml:space="preserve">To what extent do you receive enough useful and understandable information from your health professionals?</t>
   </si>
   <si>
     <t xml:space="preserve">HC11</t>
   </si>
   <si>
-    <t xml:space="preserve">Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
+    <t xml:space="preserve">Are you involved as much as you wish in decisions about your care or treatment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes, definitely; [2] Yes, to some extent; [3] No, not really; [4] No, definitely not; [5] No, but I did not want to be involved anyway; [6] Not applicable: no decisions were made about treatment; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC12</t>
   </si>
   <si>
-    <t xml:space="preserve">Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
+    <t xml:space="preserve">In the past 12 months, was there any care for the psychotic disorder that you did not receive even though you needed it? This could be a consultation, treatment, medical tests, rehabilitation, or other.</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Distance between home and place of care] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Transport problem (e.g., no nearby public transport, no personal vehicle, unable to drive your own vehicle, no one to take you to your care location)] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Lack of qualified staff to provide the care you need] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Very long waiting times] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Difficulties paying for care] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Fear of medical tests, the hospital, or something else] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Lack of time because of work, children, or other] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Lack of information] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Language difficulties] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Other] For what main reason(s) did you not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
+    <t xml:space="preserve">To what extent has your schooling or studies been affected by the psychotic disorder, in terms of attendance, performance, achievement, or choice of studies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable: the psychotic disorder occurred after schooling/studies were completed</t>
   </si>
   <si>
     <t xml:space="preserve">S2</t>
   </si>
   <si>
-    <t xml:space="preserve">En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
+    <t xml:space="preserve">Because of the psychotic disorder, have you reduced your working time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes, I work less than before because of my psychotic disorder; [2] Yes, I stopped working because of my psychotic disorder; [3] No, the psychotic disorder did not affect my working time; [4] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">S2_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+    <t xml:space="preserve">[Other] Because of the psychotic disorder, have you reduced your working time?</t>
   </si>
   <si>
     <t xml:space="preserve">S3</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
+    <t xml:space="preserve">Approximately how long were you unable to work because of your psychotic disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Less than 1 month; [2] 1 to 3 months; [3] 4 months to 1 year; [4] More than 1 year; [5] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">S3b</t>
   </si>
   <si>
-    <t xml:space="preserve">Veuillez indiquez approximativement le nombre d’années:  </t>
+    <t xml:space="preserve">Please indicate approximately the number of years:</t>
   </si>
   <si>
     <t xml:space="preserve">TXT1</t>
   </si>
   <si>
-    <t xml:space="preserve">La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
+    <t xml:space="preserve">The next question concerns the past seven days, not including today.</t>
   </si>
   <si>
     <t xml:space="preserve">S4_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
+    <t xml:space="preserve">[| 0 = The psychotic disorder had no effect on my work | 10 = Because of the psychotic disorder, I was not able to work at all] Over the past seven days, to what extent has the psychotic disorder affected your productivity while working? Think of days when you were limited in the amount or type of work you could do, days when you accomplished less than you would have liked, or days when you could not do your work as carefully as usual. Choose a low number if the psychotic disorder had little impact on your work. Choose a high number if it had a strong impact.</t>
   </si>
   <si>
     <t xml:space="preserve">S5</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
+    <t xml:space="preserve">To what extent has your psychotic disorder or medical treatment caused you financial difficulties?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">S6</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
+    <t xml:space="preserve">To what extent does your psychotic disorder interfere with your relationships with family, your partner, friends, or neighbors?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[No additional support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Practical help (e.g., cleaning, cooking, shopping, transport, childcare)] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Talking to other patients with a psychotic disorder] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Psychological support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Medical support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Administrative or social assistance] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Support for environmental adaptations or assistive equipment] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Return-to-work support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[School or study support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Spiritual or religious support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[I don't know] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Other] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
+    <t xml:space="preserve">[Impact of the psychotic disorder on overall quality of life (impact on mobility, self-care, ability to dress and wash independently, pain/discomfort, anxiety or depression; years lived with disability)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all a priority; [2] Slight priority; [3] Moderate priority; [4] High priority; [5] Extremely high priority; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your physical health (physical symptoms, pain or discomfort related to the psychotic disorder)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your psychological health (psychological symptoms, anxiety, or depression related to the psychotic disorder)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your independence (impact on mobility, ability to wash and dress independently; ability to carry out usual activities such as work, studies, housework, family activities, or leisure)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your sexual and reproductive life] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on life expectancy] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your schooling or studies] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your work] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Financial impact] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your social life (relationships with family, your partner, or friends; need for additional support—administrative, social, etc.)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Quality of your care (speed of diagnosis, coordination and continuity of care, information received from healthcare professionals, involvement in decisions about your care or treatments)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Access to healthcare (obtaining care when needed, availability of treatment)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Scientific knowledge (e.g., regarding diagnosis, treatment, or prognosis)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Treatment effectiveness (ability of the treatment to control symptoms and improve quality of life)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Treatment burden (in terms of side effects or in terms of logistics/administration of the treatment)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">G1</t>
   </si>
   <si>
-    <t xml:space="preserve">Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non</t>
+    <t xml:space="preserve">Would you like to tell us about any other important needs that you were not able to express in the questionnaire?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] No</t>
   </si>
   <si>
     <t xml:space="preserve">G2</t>
   </si>
   <si>
-    <t xml:space="preserve">Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
+    <t xml:space="preserve">Which needs were not addressed in the questionnaire?</t>
   </si>
   <si>
     <t xml:space="preserve">CG1</t>
   </si>
   <si>
-    <t xml:space="preserve">En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
+    <t xml:space="preserve">As the person completing the questionnaire for someone with a psychotic disorder: do you consider yourself an 'informal caregiver'? That is, someone who helps this person because of their psychotic disorder, on a regular basis and not as a professional. For example, a parent helping their child, or a family member or friend helping a loved one.</t>
   </si>
   <si>
     <t xml:space="preserve">CG2</t>
   </si>
   <si>
-    <t xml:space="preserve">Par rapport à la personne que vous aidez, vous êtes :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
+    <t xml:space="preserve">In relation to the person you help, you are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] A family member (e.g., parent, child, grandparent...); [2] A close relation (e.g., friend, neighbor...)</t>
   </si>
   <si>
     <t xml:space="preserve">CG2_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
+    <t xml:space="preserve">[Other] In relation to the person you help, you are:</t>
   </si>
   <si>
     <t xml:space="preserve">CG3</t>
   </si>
   <si>
-    <t xml:space="preserve">A quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">CG4</t>
   </si>
   <si>
     <t xml:space="preserve">CG5</t>
   </si>
   <si>
-    <t xml:space="preserve">La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
+    <t xml:space="preserve">Last week, how much time did you spend helping the person with activities they would normally have done themselves if they were in good health? For example, personal care (such as dressing/undressing, going to the toilet), household tasks (such as preparing meals, cleaning), or practical support (such as accompanying them to medical or other appointments).</t>
   </si>
   <si>
     <t xml:space="preserve">CG6</t>
   </si>
   <si>
-    <t xml:space="preserve">Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
+    <t xml:space="preserve">In your opinion, to what extent is your physical and/or mental health impacted because of your role as an informal caregiver?</t>
   </si>
   <si>
     <t xml:space="preserve">CG7</t>
   </si>
   <si>
-    <t xml:space="preserve">Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
+    <t xml:space="preserve">In your opinion, to what extent is your social life impacted because of your role as an informal caregiver?</t>
   </si>
   <si>
     <t xml:space="preserve">Follow</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
+    <t xml:space="preserve">We would like to know more about the needs and difficulties you experience or have experienced in the context of your psychotic disorder. If you wish, you can take part in an individual interview (online or face-to-face with a researcher) to discuss your experiences and needs in more detail. This interview will be conducted confidentially and independently of the care you receive from healthcare providers. We plan to interview 24 patients. This individual interview will last about an hour and a half. Would you like to take part in an individual interview?</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_Email</t>
   </si>
   <si>
-    <t xml:space="preserve">[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+    <t xml:space="preserve">[Email address] If you are interested in the individual interview, please provide your contact details (phone number and email address) so that we can contact you.</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_Cemail</t>
   </si>
   <si>
-    <t xml:space="preserve">[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+    <t xml:space="preserve">[Confirm email address] If you are interested in the individual interview, please provide your contact details (phone number and email address) so that we can contact you.</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_GSM1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
+    <t xml:space="preserve">[Mobile phone number] If you are interested in the individual interview, please provide your contact details (phone number and email address) so that we can contact you.</t>
   </si>
   <si>
     <t xml:space="preserve">TXS</t>
   </si>
   <si>
-    <t xml:space="preserve">Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
+    <t xml:space="preserve">Thank you very much for your cooperation! A member of the research team will contact you within a few weeks to inform you about your possible participation in an interview.</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -2710,10 +2701,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2725,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -2733,10 +2724,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2748,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -2756,10 +2747,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2771,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -2779,10 +2770,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2794,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -2802,10 +2793,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2817,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -2825,10 +2816,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -2840,7 +2831,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -2848,10 +2839,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -2863,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2871,10 +2862,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -2886,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -2894,10 +2885,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2909,7 +2900,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -2917,10 +2908,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2932,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
@@ -2940,10 +2931,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2955,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -2963,10 +2954,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2978,7 +2969,7 @@
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -2986,10 +2977,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3009,10 +3000,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>106</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -3032,10 +3023,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3055,10 +3046,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -3078,10 +3069,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -3101,10 +3092,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -3124,10 +3115,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -3147,10 +3138,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -3170,10 +3161,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -3193,10 +3184,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
         <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -3216,10 +3207,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>124</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -3239,10 +3230,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -3262,10 +3253,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
         <v>127</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -3285,10 +3276,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
         <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>130</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -3308,10 +3299,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
         <v>131</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -3331,10 +3322,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
         <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -3354,10 +3345,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
         <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -3369,7 +3360,7 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -3377,10 +3368,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -3400,10 +3391,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" t="s">
-        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3415,7 +3406,7 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
@@ -3423,10 +3414,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
         <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -3446,10 +3437,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
         <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -3461,7 +3452,7 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -3469,10 +3460,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
         <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -3492,10 +3483,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
         <v>147</v>
-      </c>
-      <c r="C67" t="s">
-        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3507,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
@@ -3515,10 +3506,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
         <v>149</v>
-      </c>
-      <c r="C68" t="s">
-        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -3538,10 +3529,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
         <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3553,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -3561,10 +3552,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
         <v>153</v>
-      </c>
-      <c r="C70" t="s">
-        <v>154</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -3584,10 +3575,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
         <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3599,7 +3590,7 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -3607,10 +3598,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -3630,10 +3621,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
         <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3645,7 +3636,7 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -3653,10 +3644,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
         <v>161</v>
-      </c>
-      <c r="C74" t="s">
-        <v>162</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -3676,10 +3667,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
         <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>164</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3691,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
@@ -3699,10 +3690,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
         <v>165</v>
-      </c>
-      <c r="C76" t="s">
-        <v>166</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -3722,10 +3713,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
         <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>168</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3737,7 +3728,7 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
@@ -3745,10 +3736,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
@@ -3768,10 +3759,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
         <v>171</v>
-      </c>
-      <c r="C79" t="s">
-        <v>172</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3783,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
@@ -3791,10 +3782,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
         <v>173</v>
-      </c>
-      <c r="C80" t="s">
-        <v>174</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -3814,10 +3805,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" t="s">
-        <v>176</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3829,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
@@ -3837,10 +3828,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -3860,10 +3851,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3875,7 +3866,7 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
@@ -3883,10 +3874,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>182</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -3906,10 +3897,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" t="s">
-        <v>184</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3921,7 +3912,7 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -3929,10 +3920,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
         <v>185</v>
-      </c>
-      <c r="C86" t="s">
-        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
@@ -3952,10 +3943,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
         <v>187</v>
-      </c>
-      <c r="C87" t="s">
-        <v>188</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3967,7 +3958,7 @@
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
@@ -3975,10 +3966,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
         <v>189</v>
-      </c>
-      <c r="C88" t="s">
-        <v>190</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -3998,10 +3989,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
         <v>191</v>
-      </c>
-      <c r="C89" t="s">
-        <v>192</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -4013,7 +4004,7 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
@@ -4021,10 +4012,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" t="s">
         <v>193</v>
-      </c>
-      <c r="C90" t="s">
-        <v>194</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -4044,10 +4035,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
         <v>195</v>
-      </c>
-      <c r="C91" t="s">
-        <v>196</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -4059,7 +4050,7 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -4067,10 +4058,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
         <v>197</v>
-      </c>
-      <c r="C92" t="s">
-        <v>198</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -4090,10 +4081,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
-      </c>
-      <c r="C93" t="s">
-        <v>200</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4105,7 +4096,7 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
@@ -4113,10 +4104,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
         <v>201</v>
-      </c>
-      <c r="C94" t="s">
-        <v>202</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -4136,10 +4127,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="s">
         <v>203</v>
-      </c>
-      <c r="C95" t="s">
-        <v>204</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4151,7 +4142,7 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96">
@@ -4159,10 +4150,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
         <v>205</v>
-      </c>
-      <c r="C96" t="s">
-        <v>206</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -4182,10 +4173,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
         <v>207</v>
-      </c>
-      <c r="C97" t="s">
-        <v>208</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4205,10 +4196,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
         <v>209</v>
-      </c>
-      <c r="C98" t="s">
-        <v>210</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -4228,10 +4219,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
         <v>211</v>
-      </c>
-      <c r="C99" t="s">
-        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4243,7 +4234,7 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100">
@@ -4251,10 +4242,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" t="s">
         <v>214</v>
-      </c>
-      <c r="C100" t="s">
-        <v>215</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4266,7 +4257,7 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101">
@@ -4274,10 +4265,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" t="s">
         <v>217</v>
-      </c>
-      <c r="C101" t="s">
-        <v>218</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -4289,7 +4280,7 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102">
@@ -4297,10 +4288,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
         <v>220</v>
-      </c>
-      <c r="C102" t="s">
-        <v>221</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4312,7 +4303,7 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103">
@@ -4320,10 +4311,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
         <v>223</v>
-      </c>
-      <c r="C103" t="s">
-        <v>224</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -4335,7 +4326,7 @@
         <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
@@ -4343,10 +4334,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
         <v>226</v>
-      </c>
-      <c r="C104" t="s">
-        <v>227</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -4366,10 +4357,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
         <v>228</v>
-      </c>
-      <c r="C105" t="s">
-        <v>229</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -4389,10 +4380,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
         <v>230</v>
-      </c>
-      <c r="C106" t="s">
-        <v>231</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4404,7 +4395,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107">
@@ -4412,10 +4403,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
         <v>233</v>
-      </c>
-      <c r="C107" t="s">
-        <v>234</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
@@ -4427,7 +4418,7 @@
         <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108">
@@ -4435,10 +4426,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
         <v>236</v>
-      </c>
-      <c r="C108" t="s">
-        <v>237</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -4450,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109">
@@ -4458,10 +4449,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
         <v>239</v>
-      </c>
-      <c r="C109" t="s">
-        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -4473,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110">
@@ -4481,10 +4472,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" t="s">
         <v>242</v>
-      </c>
-      <c r="C110" t="s">
-        <v>243</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -4496,7 +4487,7 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111">
@@ -4504,10 +4495,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" t="s">
         <v>245</v>
-      </c>
-      <c r="C111" t="s">
-        <v>246</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -4527,10 +4518,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" t="s">
         <v>247</v>
-      </c>
-      <c r="C112" t="s">
-        <v>248</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4550,10 +4541,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" t="s">
         <v>249</v>
-      </c>
-      <c r="C113" t="s">
-        <v>250</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4565,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114">
@@ -4573,10 +4564,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" t="s">
         <v>251</v>
-      </c>
-      <c r="C114" t="s">
-        <v>252</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4588,7 +4579,7 @@
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115">
@@ -4596,10 +4587,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" t="s">
         <v>253</v>
-      </c>
-      <c r="C115" t="s">
-        <v>254</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4611,7 +4602,7 @@
         <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116">
@@ -4619,10 +4610,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" t="s">
         <v>255</v>
-      </c>
-      <c r="C116" t="s">
-        <v>256</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4634,7 +4625,7 @@
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117">
@@ -4642,10 +4633,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" t="s">
         <v>257</v>
-      </c>
-      <c r="C117" t="s">
-        <v>258</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4657,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118">
@@ -4665,10 +4656,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" t="s">
         <v>259</v>
-      </c>
-      <c r="C118" t="s">
-        <v>260</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -4680,7 +4671,7 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119">
@@ -4688,10 +4679,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s">
         <v>261</v>
-      </c>
-      <c r="C119" t="s">
-        <v>262</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -4703,7 +4694,7 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
@@ -4711,10 +4702,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" t="s">
         <v>263</v>
-      </c>
-      <c r="C120" t="s">
-        <v>264</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -4726,7 +4717,7 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121">
@@ -4734,10 +4725,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" t="s">
         <v>265</v>
-      </c>
-      <c r="C121" t="s">
-        <v>266</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -4749,7 +4740,7 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122">
@@ -4757,10 +4748,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" t="s">
         <v>267</v>
-      </c>
-      <c r="C122" t="s">
-        <v>268</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -4772,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123">
@@ -4780,10 +4771,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" t="s">
         <v>269</v>
-      </c>
-      <c r="C123" t="s">
-        <v>270</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -4795,7 +4786,7 @@
         <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
@@ -4803,10 +4794,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
         <v>271</v>
-      </c>
-      <c r="C124" t="s">
-        <v>272</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -4818,7 +4809,7 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125">
@@ -4826,10 +4817,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" t="s">
         <v>273</v>
-      </c>
-      <c r="C125" t="s">
-        <v>274</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
@@ -4849,10 +4840,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" t="s">
         <v>275</v>
-      </c>
-      <c r="C126" t="s">
-        <v>276</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
@@ -4864,7 +4855,7 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127">
@@ -4872,10 +4863,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" t="s">
         <v>277</v>
-      </c>
-      <c r="C127" t="s">
-        <v>278</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
@@ -4887,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128">
@@ -4895,10 +4886,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" t="s">
         <v>279</v>
-      </c>
-      <c r="C128" t="s">
-        <v>280</v>
       </c>
       <c r="D128" t="s">
         <v>19</v>
@@ -4910,7 +4901,7 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129">
@@ -4918,10 +4909,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" t="s">
         <v>281</v>
-      </c>
-      <c r="C129" t="s">
-        <v>282</v>
       </c>
       <c r="D129" t="s">
         <v>19</v>
@@ -4933,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130">
@@ -4941,10 +4932,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" t="s">
         <v>283</v>
-      </c>
-      <c r="C130" t="s">
-        <v>284</v>
       </c>
       <c r="D130" t="s">
         <v>19</v>
@@ -4956,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131">
@@ -4964,10 +4955,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" t="s">
         <v>285</v>
-      </c>
-      <c r="C131" t="s">
-        <v>286</v>
       </c>
       <c r="D131" t="s">
         <v>19</v>
@@ -4979,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132">
@@ -4987,10 +4978,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" t="s">
         <v>287</v>
-      </c>
-      <c r="C132" t="s">
-        <v>288</v>
       </c>
       <c r="D132" t="s">
         <v>19</v>
@@ -5002,7 +4993,7 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133">
@@ -5010,10 +5001,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" t="s">
         <v>289</v>
-      </c>
-      <c r="C133" t="s">
-        <v>290</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
@@ -5025,7 +5016,7 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134">
@@ -5033,10 +5024,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" t="s">
         <v>291</v>
-      </c>
-      <c r="C134" t="s">
-        <v>292</v>
       </c>
       <c r="D134" t="s">
         <v>19</v>
@@ -5048,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135">
@@ -5056,10 +5047,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" t="s">
         <v>293</v>
-      </c>
-      <c r="C135" t="s">
-        <v>294</v>
       </c>
       <c r="D135" t="s">
         <v>19</v>
@@ -5071,7 +5062,7 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136">
@@ -5079,10 +5070,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" t="s">
         <v>295</v>
-      </c>
-      <c r="C136" t="s">
-        <v>296</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
@@ -5094,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137">
@@ -5102,10 +5093,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" t="s">
         <v>297</v>
-      </c>
-      <c r="C137" t="s">
-        <v>298</v>
       </c>
       <c r="D137" t="s">
         <v>19</v>
@@ -5117,7 +5108,7 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138">
@@ -5125,10 +5116,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" t="s">
         <v>299</v>
-      </c>
-      <c r="C138" t="s">
-        <v>300</v>
       </c>
       <c r="D138" t="s">
         <v>19</v>
@@ -5140,7 +5131,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139">
@@ -5148,10 +5139,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" t="s">
         <v>301</v>
-      </c>
-      <c r="C139" t="s">
-        <v>302</v>
       </c>
       <c r="D139" t="s">
         <v>19</v>
@@ -5163,7 +5154,7 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140">
@@ -5171,10 +5162,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" t="s">
         <v>303</v>
-      </c>
-      <c r="C140" t="s">
-        <v>304</v>
       </c>
       <c r="D140" t="s">
         <v>19</v>
@@ -5186,7 +5177,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141">
@@ -5194,10 +5185,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" t="s">
         <v>305</v>
-      </c>
-      <c r="C141" t="s">
-        <v>306</v>
       </c>
       <c r="D141" t="s">
         <v>19</v>
@@ -5209,7 +5200,7 @@
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142">
@@ -5217,10 +5208,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" t="s">
         <v>307</v>
-      </c>
-      <c r="C142" t="s">
-        <v>308</v>
       </c>
       <c r="D142" t="s">
         <v>19</v>
@@ -5232,7 +5223,7 @@
         <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143">
@@ -5240,10 +5231,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
         <v>309</v>
-      </c>
-      <c r="C143" t="s">
-        <v>310</v>
       </c>
       <c r="D143" t="s">
         <v>19</v>
@@ -5255,7 +5246,7 @@
         <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144">
@@ -5263,10 +5254,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" t="s">
         <v>311</v>
-      </c>
-      <c r="C144" t="s">
-        <v>312</v>
       </c>
       <c r="D144" t="s">
         <v>19</v>
@@ -5278,7 +5269,7 @@
         <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145">
@@ -5286,10 +5277,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" t="s">
         <v>313</v>
-      </c>
-      <c r="C145" t="s">
-        <v>314</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
@@ -5309,10 +5300,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" t="s">
         <v>315</v>
-      </c>
-      <c r="C146" t="s">
-        <v>316</v>
       </c>
       <c r="D146" t="s">
         <v>19</v>
@@ -5324,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147">
@@ -5332,10 +5323,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" t="s">
         <v>318</v>
-      </c>
-      <c r="C147" t="s">
-        <v>319</v>
       </c>
       <c r="D147" t="s">
         <v>19</v>
@@ -5347,7 +5338,7 @@
         <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148">
@@ -5355,10 +5346,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" t="s">
         <v>320</v>
-      </c>
-      <c r="C148" t="s">
-        <v>321</v>
       </c>
       <c r="D148" t="s">
         <v>19</v>
@@ -5370,7 +5361,7 @@
         <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149">
@@ -5378,10 +5369,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" t="s">
         <v>322</v>
-      </c>
-      <c r="C149" t="s">
-        <v>323</v>
       </c>
       <c r="D149" t="s">
         <v>19</v>
@@ -5393,7 +5384,7 @@
         <v>9</v>
       </c>
       <c r="G149" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150">
@@ -5401,10 +5392,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
         <v>324</v>
-      </c>
-      <c r="C150" t="s">
-        <v>325</v>
       </c>
       <c r="D150" t="s">
         <v>19</v>
@@ -5416,7 +5407,7 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151">
@@ -5424,10 +5415,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>325</v>
+      </c>
+      <c r="C151" t="s">
         <v>326</v>
-      </c>
-      <c r="C151" t="s">
-        <v>327</v>
       </c>
       <c r="D151" t="s">
         <v>19</v>
@@ -5439,7 +5430,7 @@
         <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152">
@@ -5447,10 +5438,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" t="s">
         <v>328</v>
-      </c>
-      <c r="C152" t="s">
-        <v>329</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -5462,7 +5453,7 @@
         <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153">
@@ -5470,10 +5461,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" t="s">
         <v>330</v>
-      </c>
-      <c r="C153" t="s">
-        <v>331</v>
       </c>
       <c r="D153" t="s">
         <v>19</v>
@@ -5485,7 +5476,7 @@
         <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154">
@@ -5493,10 +5484,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" t="s">
         <v>332</v>
-      </c>
-      <c r="C154" t="s">
-        <v>333</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -5508,7 +5499,7 @@
         <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155">
@@ -5516,10 +5507,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
         <v>334</v>
-      </c>
-      <c r="C155" t="s">
-        <v>335</v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
@@ -5531,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156">
@@ -5539,10 +5530,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" t="s">
         <v>336</v>
-      </c>
-      <c r="C156" t="s">
-        <v>337</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -5554,7 +5545,7 @@
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157">
@@ -5562,10 +5553,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" t="s">
         <v>338</v>
-      </c>
-      <c r="C157" t="s">
-        <v>339</v>
       </c>
       <c r="D157" t="s">
         <v>19</v>
@@ -5577,7 +5568,7 @@
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158">
@@ -5585,10 +5576,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" t="s">
         <v>340</v>
-      </c>
-      <c r="C158" t="s">
-        <v>341</v>
       </c>
       <c r="D158" t="s">
         <v>19</v>
@@ -5600,7 +5591,7 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159">
@@ -5608,10 +5599,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" t="s">
         <v>342</v>
-      </c>
-      <c r="C159" t="s">
-        <v>343</v>
       </c>
       <c r="D159" t="s">
         <v>19</v>
@@ -5623,7 +5614,7 @@
         <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160">
@@ -5631,10 +5622,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
         <v>344</v>
-      </c>
-      <c r="C160" t="s">
-        <v>345</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -5646,7 +5637,7 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161">
@@ -5654,10 +5645,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
         <v>346</v>
-      </c>
-      <c r="C161" t="s">
-        <v>347</v>
       </c>
       <c r="D161" t="s">
         <v>19</v>
@@ -5669,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162">
@@ -5677,10 +5668,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
         <v>348</v>
-      </c>
-      <c r="C162" t="s">
-        <v>349</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -5692,7 +5683,7 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163">
@@ -5700,10 +5691,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" t="s">
         <v>350</v>
-      </c>
-      <c r="C163" t="s">
-        <v>351</v>
       </c>
       <c r="D163" t="s">
         <v>19</v>
@@ -5715,7 +5706,7 @@
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164">
@@ -5723,10 +5714,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" t="s">
         <v>352</v>
-      </c>
-      <c r="C164" t="s">
-        <v>353</v>
       </c>
       <c r="D164" t="s">
         <v>19</v>
@@ -5738,7 +5729,7 @@
         <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165">
@@ -5746,10 +5737,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" t="s">
         <v>354</v>
-      </c>
-      <c r="C165" t="s">
-        <v>355</v>
       </c>
       <c r="D165" t="s">
         <v>19</v>
@@ -5761,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166">
@@ -5769,10 +5760,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" t="s">
         <v>357</v>
-      </c>
-      <c r="C166" t="s">
-        <v>358</v>
       </c>
       <c r="D166" t="s">
         <v>19</v>
@@ -5784,7 +5775,7 @@
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167">
@@ -5792,10 +5783,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" t="s">
         <v>359</v>
-      </c>
-      <c r="C167" t="s">
-        <v>360</v>
       </c>
       <c r="D167" t="s">
         <v>19</v>
@@ -5807,7 +5798,7 @@
         <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168">
@@ -5815,10 +5806,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" t="s">
         <v>361</v>
-      </c>
-      <c r="C168" t="s">
-        <v>362</v>
       </c>
       <c r="D168" t="s">
         <v>19</v>
@@ -5830,7 +5821,7 @@
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169">
@@ -5838,10 +5829,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" t="s">
         <v>363</v>
-      </c>
-      <c r="C169" t="s">
-        <v>364</v>
       </c>
       <c r="D169" t="s">
         <v>19</v>
@@ -5853,7 +5844,7 @@
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170">
@@ -5861,10 +5852,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
         <v>365</v>
-      </c>
-      <c r="C170" t="s">
-        <v>366</v>
       </c>
       <c r="D170" t="s">
         <v>19</v>
@@ -5876,7 +5867,7 @@
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171">
@@ -5884,10 +5875,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" t="s">
         <v>367</v>
-      </c>
-      <c r="C171" t="s">
-        <v>368</v>
       </c>
       <c r="D171" t="s">
         <v>19</v>
@@ -5899,7 +5890,7 @@
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172">
@@ -5907,10 +5898,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" t="s">
         <v>369</v>
-      </c>
-      <c r="C172" t="s">
-        <v>370</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -5922,7 +5913,7 @@
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173">
@@ -5930,10 +5921,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
         <v>371</v>
-      </c>
-      <c r="C173" t="s">
-        <v>372</v>
       </c>
       <c r="D173" t="s">
         <v>19</v>
@@ -5945,7 +5936,7 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174">
@@ -5953,10 +5944,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" t="s">
         <v>373</v>
-      </c>
-      <c r="C174" t="s">
-        <v>374</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -5968,7 +5959,7 @@
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175">
@@ -5976,10 +5967,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" t="s">
         <v>375</v>
-      </c>
-      <c r="C175" t="s">
-        <v>376</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
@@ -5991,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176">
@@ -5999,10 +5990,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" t="s">
         <v>377</v>
-      </c>
-      <c r="C176" t="s">
-        <v>378</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -6014,7 +6005,7 @@
         <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177">
@@ -6022,10 +6013,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" t="s">
         <v>379</v>
-      </c>
-      <c r="C177" t="s">
-        <v>380</v>
       </c>
       <c r="D177" t="s">
         <v>19</v>
@@ -6037,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178">
@@ -6045,10 +6036,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" t="s">
         <v>381</v>
-      </c>
-      <c r="C178" t="s">
-        <v>382</v>
       </c>
       <c r="D178" t="s">
         <v>19</v>
@@ -6060,7 +6051,7 @@
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179">
@@ -6068,10 +6059,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>382</v>
+      </c>
+      <c r="C179" t="s">
         <v>383</v>
-      </c>
-      <c r="C179" t="s">
-        <v>384</v>
       </c>
       <c r="D179" t="s">
         <v>19</v>
@@ -6083,7 +6074,7 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180">
@@ -6091,10 +6082,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" t="s">
         <v>385</v>
-      </c>
-      <c r="C180" t="s">
-        <v>386</v>
       </c>
       <c r="D180" t="s">
         <v>19</v>
@@ -6106,7 +6097,7 @@
         <v>9</v>
       </c>
       <c r="G180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181">
@@ -6114,11 +6105,9 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
-      </c>
-      <c r="C181" t="s">
-        <v>388</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C181"/>
       <c r="D181" t="s">
         <v>19</v>
       </c>
@@ -6129,7 +6118,7 @@
         <v>9</v>
       </c>
       <c r="G181" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182">
@@ -6137,10 +6126,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D182" t="s">
         <v>19</v>
@@ -6152,7 +6141,7 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183">
@@ -6160,10 +6149,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C183" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
@@ -6175,7 +6164,7 @@
         <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184">
@@ -6183,10 +6172,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C184" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D184" t="s">
         <v>19</v>
@@ -6198,7 +6187,7 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185">
@@ -6206,10 +6195,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C185" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -6229,10 +6218,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C186" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D186" t="s">
         <v>19</v>
@@ -6244,7 +6233,7 @@
         <v>9</v>
       </c>
       <c r="G186" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="187">
@@ -6252,10 +6241,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C187" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D187" t="s">
         <v>19</v>
@@ -6267,7 +6256,7 @@
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="188">
@@ -6275,10 +6264,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C188" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -6290,7 +6279,7 @@
         <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="189">
@@ -6298,10 +6287,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C189" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D189" t="s">
         <v>19</v>
@@ -6313,7 +6302,7 @@
         <v>9</v>
       </c>
       <c r="G189" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190">
@@ -6321,10 +6310,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C190" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
@@ -6336,7 +6325,7 @@
         <v>9</v>
       </c>
       <c r="G190" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="191">
@@ -6344,10 +6333,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C191" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
         <v>19</v>
@@ -6367,10 +6356,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C192" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
@@ -6382,7 +6371,7 @@
         <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193">
@@ -6390,10 +6379,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C193" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D193" t="s">
         <v>19</v>
@@ -6405,7 +6394,7 @@
         <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194">
@@ -6413,10 +6402,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C194" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
@@ -6428,7 +6417,7 @@
         <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195">
@@ -6436,10 +6425,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C195" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D195" t="s">
         <v>19</v>
@@ -6451,7 +6440,7 @@
         <v>9</v>
       </c>
       <c r="G195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196">
@@ -6459,10 +6448,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C196" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D196" t="s">
         <v>19</v>
@@ -6474,7 +6463,7 @@
         <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197">
@@ -6482,10 +6471,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C197" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D197" t="s">
         <v>19</v>
@@ -6497,7 +6486,7 @@
         <v>9</v>
       </c>
       <c r="G197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198">
@@ -6505,10 +6494,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C198" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D198" t="s">
         <v>19</v>
@@ -6520,7 +6509,7 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199">
@@ -6528,10 +6517,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C199" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D199" t="s">
         <v>19</v>
@@ -6543,7 +6532,7 @@
         <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200">
@@ -6551,10 +6540,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -6566,7 +6555,7 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201">
@@ -6574,10 +6563,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C201" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
@@ -6597,10 +6586,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C202" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -6612,7 +6601,7 @@
         <v>9</v>
       </c>
       <c r="G202" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="203">
@@ -6620,10 +6609,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C203" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D203" t="s">
         <v>19</v>
@@ -6635,7 +6624,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="204">
@@ -6643,10 +6632,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C204" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -6666,10 +6655,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C205" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D205" t="s">
         <v>19</v>
@@ -6681,7 +6670,7 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206">
@@ -6689,10 +6678,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C206" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
@@ -6712,10 +6701,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C207" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
@@ -6735,10 +6724,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C208" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D208" t="s">
         <v>8</v>
@@ -6758,10 +6747,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C209" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D209" t="s">
         <v>19</v>
@@ -6773,7 +6762,7 @@
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210">
@@ -6781,10 +6770,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C210" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D210" t="s">
         <v>19</v>
@@ -6796,7 +6785,7 @@
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211">
@@ -6804,10 +6793,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C211" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D211" t="s">
         <v>19</v>
@@ -6819,7 +6808,7 @@
         <v>9</v>
       </c>
       <c r="G211" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212">
@@ -6827,10 +6816,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C212" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D212" t="s">
         <v>19</v>
@@ -6842,7 +6831,7 @@
         <v>9</v>
       </c>
       <c r="G212" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213">
@@ -6850,10 +6839,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C213" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
@@ -6865,7 +6854,7 @@
         <v>9</v>
       </c>
       <c r="G213" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214">
@@ -6873,10 +6862,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C214" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D214" t="s">
         <v>19</v>
@@ -6888,7 +6877,7 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215">
@@ -6896,10 +6885,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C215" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D215" t="s">
         <v>19</v>
@@ -6911,7 +6900,7 @@
         <v>9</v>
       </c>
       <c r="G215" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216">
@@ -6919,10 +6908,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C216" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -6934,7 +6923,7 @@
         <v>9</v>
       </c>
       <c r="G216" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217">
@@ -6942,10 +6931,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C217" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D217" t="s">
         <v>19</v>
@@ -6957,7 +6946,7 @@
         <v>9</v>
       </c>
       <c r="G217" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218">
@@ -6965,10 +6954,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C218" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D218" t="s">
         <v>19</v>
@@ -6980,7 +6969,7 @@
         <v>9</v>
       </c>
       <c r="G218" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219">
@@ -6988,10 +6977,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C219" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D219" t="s">
         <v>19</v>
@@ -7003,7 +6992,7 @@
         <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220">
@@ -7011,10 +7000,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C220" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D220" t="s">
         <v>19</v>
@@ -7026,7 +7015,7 @@
         <v>9</v>
       </c>
       <c r="G220" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221">
@@ -7034,10 +7023,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C221" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D221" t="s">
         <v>19</v>
@@ -7049,7 +7038,7 @@
         <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222">
@@ -7057,10 +7046,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C222" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
@@ -7080,10 +7069,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C223" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
@@ -7095,7 +7084,7 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224">
@@ -7103,10 +7092,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C224" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
@@ -7118,7 +7107,7 @@
         <v>9</v>
       </c>
       <c r="G224" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225">
@@ -7126,10 +7115,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C225" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
@@ -7141,7 +7130,7 @@
         <v>9</v>
       </c>
       <c r="G225" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="226">
@@ -7149,10 +7138,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C226" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D226" t="s">
         <v>19</v>
@@ -7164,7 +7153,7 @@
         <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="227">
@@ -7172,10 +7161,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C227" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D227" t="s">
         <v>19</v>
@@ -7187,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="G227" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228">
@@ -7195,10 +7184,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C228" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D228" t="s">
         <v>19</v>
@@ -7210,7 +7199,7 @@
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="229">
@@ -7218,10 +7207,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C229" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -7233,7 +7222,7 @@
         <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230">
@@ -7241,10 +7230,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C230" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D230" t="s">
         <v>19</v>
@@ -7256,7 +7245,7 @@
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="231">
@@ -7264,10 +7253,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C231" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D231" t="s">
         <v>19</v>
@@ -7279,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232">
@@ -7287,10 +7276,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C232" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D232" t="s">
         <v>19</v>
@@ -7302,7 +7291,7 @@
         <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="233">
@@ -7310,10 +7299,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C233" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D233" t="s">
         <v>19</v>
@@ -7325,7 +7314,7 @@
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234">
@@ -7333,10 +7322,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C234" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D234" t="s">
         <v>19</v>
@@ -7348,7 +7337,7 @@
         <v>9</v>
       </c>
       <c r="G234" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235">
@@ -7356,10 +7345,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C235" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D235" t="s">
         <v>19</v>
@@ -7371,7 +7360,7 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="236">
@@ -7379,10 +7368,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C236" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -7394,7 +7383,7 @@
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237">
@@ -7402,10 +7391,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C237" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D237" t="s">
         <v>19</v>
@@ -7417,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238">
@@ -7425,10 +7414,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C238" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D238" t="s">
         <v>19</v>
@@ -7440,7 +7429,7 @@
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239">
@@ -7448,10 +7437,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C239" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -7471,10 +7460,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C240" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D240" t="s">
         <v>19</v>
@@ -7486,7 +7475,7 @@
         <v>9</v>
       </c>
       <c r="G240" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="241">
@@ -7494,10 +7483,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C241" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D241" t="s">
         <v>19</v>
@@ -7509,7 +7498,7 @@
         <v>9</v>
       </c>
       <c r="G241" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242">
@@ -7517,10 +7506,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C242" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
@@ -7540,10 +7529,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C243" t="s">
-        <v>524</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
         <v>19</v>
@@ -7563,7 +7552,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -7586,10 +7575,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C245" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D245" t="s">
         <v>8</v>
@@ -7609,10 +7598,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C246" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D246" t="s">
         <v>19</v>
@@ -7624,7 +7613,7 @@
         <v>9</v>
       </c>
       <c r="G246" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247">
@@ -7632,10 +7621,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C247" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D247" t="s">
         <v>19</v>
@@ -7647,7 +7636,7 @@
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248">
@@ -7655,10 +7644,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C248" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D248" t="s">
         <v>19</v>
@@ -7670,7 +7659,7 @@
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="249">
@@ -7678,10 +7667,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C249" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
@@ -7701,10 +7690,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C250" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D250" t="s">
         <v>11</v>
@@ -7724,10 +7713,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C251" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D251" t="s">
         <v>11</v>
@@ -7747,10 +7736,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C252" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D252" t="s">
         <v>11</v>

--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="EN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FR" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
   <si>
     <t xml:space="preserve">pos</t>
   </si>
@@ -68,49 +68,49 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">You are completing this questionnaire</t>
+    <t xml:space="preserve">Vous remplissez ce questionnaire</t>
   </si>
   <si>
     <t xml:space="preserve">dbl+lbl</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] For yourself; [2] For another person for whom you are the legal representative. (The person you represent is not able to answer themselves)</t>
+    <t xml:space="preserve">[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
   </si>
   <si>
     <t xml:space="preserve">D1b</t>
   </si>
   <si>
-    <t xml:space="preserve">From now on, please answer all questions as if you were the person with the psychotic disorder. Indicate "I don't know" if you do not know how the person would respond.</t>
+    <t xml:space="preserve">A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">Which gender do you identify with?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Man; [2] Woman; [3] Other</t>
+    <t xml:space="preserve">À quel genre vous identifiez-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Homme; [2] Femme; [3] Autre</t>
   </si>
   <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
-    <t xml:space="preserve">What is your year of birth?</t>
+    <t xml:space="preserve">Quelle est votre année de naissance ?</t>
   </si>
   <si>
     <t xml:space="preserve">END0</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you for your participation. Unfortunately, you do not meet the conditions to continue this study.</t>
+    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
   </si>
   <si>
     <t xml:space="preserve">D4</t>
   </si>
   <si>
-    <t xml:space="preserve">In which province do you live?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Antwerp; [2] Walloon Brabant; [3] Brussels; [4] Hainaut; [5] Liège; [6] Limburg; [7] Luxembourg; [8] Namur; [9] East Flanders; [10] Flemish Brabant; [11] West Flanders; [12] I do not live in Belgium; [13] I don't know</t>
+    <t xml:space="preserve">Dans quelle province habitez-vous ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">END1</t>
@@ -119,223 +119,226 @@
     <t xml:space="preserve">D5</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the highest diploma or level of education you have obtained so far?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] No diploma or primary education; [2] Lower secondary education; [3] Upper secondary education; [4] Short-cycle higher education (e.g., Bachelor); [5] Long-cycle higher education (e.g., Master); [6] Doctorate; [7] I don't know</t>
+    <t xml:space="preserve">Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D5_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] What is the highest diploma or level of education you have obtained so far?</t>
+    <t xml:space="preserve">[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">D6</t>
   </si>
   <si>
-    <t xml:space="preserve">You live …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Alone; [2] Alone with child(ren); [3] With a partner (no children); [4] With a partner (with children); [5] With one or both parents; [6] In shared housing / flat share; [7] In a psychiatric nursing home; [8] In protected housing; [9] In supervised housing; [10] In hospital (temporarily); [11] In a nursing home; [12] I don't know</t>
+    <t xml:space="preserve">Vous vivez …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D6_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] You live …</t>
+    <t xml:space="preserve">[Autre] Vous vivez …</t>
   </si>
   <si>
     <t xml:space="preserve">D7</t>
   </si>
   <si>
-    <t xml:space="preserve">What is your country of birth?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Belgium; [2] Another country; [3] I don't know</t>
+    <t xml:space="preserve">Quel est votre pays de naissance ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D8</t>
   </si>
   <si>
-    <t xml:space="preserve">Select the relevant country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Afghanistan; [2] South Africa; [3] Albania; [4] Algeria; [5] Germany; [6] Andorra; [7] Angola; [8] Anguilla; [9] Antarctica; [10] Antigua and Barbuda; [11] Saudi Arabia; [12] Argentina; [13] Armenia; [14] Aruba; [15] Australia; [16] Austria; [17] Azerbaijan; [18] The Bahamas; [19] Bahrain; [20] Bangladesh; [21] Barbados; [22] Belize; [23] Benin; [24] Bermuda; [25] Bhutan; [26] Belarus; [27] Bolivia; [28] Bonaire; [29] Bosnia and Herzegovina; [30] Botswana; [31] Brazil; [32] Brunei; [33] Bulgaria; [34] Burkina Faso; [35] Burundi; [36] Cambodia; [37] Cameroon; [38] Canada; [39] Cabo Verde; [40] Chile; [41] China; [42] Cyprus; [43] Colombia; [44] Comoros; [45] Congo (Brazzaville); [46] Congo (Democratic Republic); [47] North Korea; [48] South Korea (Republic of Korea); [49] Costa Rica; [50] Côte d’Ivoire; [51] Croatia; [52] Cuba; [53] Curaçao; [54] Denmark and the Faroe Islands; [55] Djibouti; [56] Dominica; [57] Egypt; [58] El Salvador; [59] United Arab Emirates; [60] Ecuador; [61] Eritrea; [62] Spain and the Canary Islands; [63] Estonia; [64] Eswatini (Swaziland); [65] United States of America; [66] Ethiopia; [67] Fiji; [68] Finland; [69] France; [70] Gabon; [71] Gambia; [72] Georgia; [73] Ghana; [74] Gibraltar; [75] Greece; [76] Grenada; [77] Greenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinea-Bissau; [82] Guinea (Conakry); [83] Equatorial Guinea; [84] Guyana; [85] French Guiana; [86] Haiti; [87] Honduras; [88] Hong Kong; [89] Hungary; [90] Christmas Island; [91] Cayman Islands; [92] Cook Islands; [93] Falkland Islands; [94] Marshall Islands; [95] Solomon Islands; [96] U.S. Virgin Islands; [97] British Virgin Islands; [98] India; [99] Indonesia; [100] Iraq; [101] Iran; [102] Ireland; [103] Iceland; [104] Israel; [105] Italy; [106] Jamaica; [107] Japan; [108] Jordan; [109] Kazakhstan; [110] Kenya; [111] Kyrgyzstan; [112] Kiribati; [113] Kosovo; [114] Kuwait; [115] Laos; [116] Lesotho; [117] Latvia; [118] Lebanon; [119] Liberia; [120] Libya; [121] Liechtenstein; [122] Lithuania; [123] Luxembourg; [124] Macao (China); [125] North Macedonia; [126] Madagascar; [127] Malaysia; [128] Malawi; [129] Maldives; [130] Mali; [131] Malta; [132] Northern Mariana Islands (U.S.); [133] Morocco; [134] Martinique; [135] Mauritius; [136] Mauritania; [137] Mayotte; [138] Mexico; [139] Micronesia; [140] Moldova; [141] Monaco; [142] Mongolia; [143] Montenegro; [144] Montserrat; [145] Mozambique; [146] Myanmar; [147] Namibia; [148] Nauru; [149] Nepal; [150] Nicaragua; [151] Niger; [152] Nigeria; [153] Niue; [154] Norway; [155] New Caledonia; [156] New Zealand; [157] Oman; [158] Uganda; [159] Uzbekistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papua New Guinea; [165] Paraguay; [166] Netherlands; [167] Peru; [168] Philippines; [169] Pitcairn; [170] Poland; [171] French Polynesia; [172] Puerto Rico; [173] Portugal, Azores, Madeira; [174] Qatar; [175] Central African Republic; [176] Dominican Republic; [177] Czech Republic; [178] Réunion; [179] Romania; [180] United Kingdom; [181] Russia; [182] Rwanda; [183] Western Sahara; [184] Saint Barthélemy; [185] Saint Kitts and Nevis; [186] Sint Eustatius and Saba; [187] San Marino; [188] Saint Martin (France); [189] Sint Maarten (Netherlands); [190] Saint Pierre and Miquelon; [191] Saint Vincent and the Grenadines; [192] Saint Helena – Tristan da Cunha – Ascension; [193] Saint Lucia; [194] Samoa; [195] American Samoa; [196] São Tomé and Príncipe; [197] Senegal; [198] Serbia; [199] Seychelles; [200] Sierra Leone; [201] Singapore; [202] Slovakia; [203] Slovenia; [204] Somalia; [205] Sudan; [206] South Sudan; [207] Sri Lanka; [208] Sweden; [209] Switzerland; [210] Suriname; [211] Syria; [212] Tajikistan; [213] Taiwan; [214] Tanzania; [215] Chad; [216] Thailand; [217] Timor-Leste; [218] Togo; [219] Tokelau (New Zealand); [220] Tonga; [221] Trinidad and Tobago; [222] Tunisia; [223] Turkmenistan; [224] Turks and Caicos Islands; [225] Türkiye; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis and Futuna; [233] Yemen; [234] Zambia; [235] Zimbabwe; [236] I don't know</t>
+    <t xml:space="preserve">Sélectionnez le pays concerné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D8_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Select the relevant country</t>
+    <t xml:space="preserve">[Autre] Sélectionnez le pays concerné</t>
   </si>
   <si>
     <t xml:space="preserve">D9</t>
   </si>
   <si>
-    <t xml:space="preserve">What was your main employment status just before the onset of your psychotic disorder?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Paid employment (employee or self-employed); [2] Job seeker, unemployed, social assistance; [3] Homemaker, no income; [4] Student; [5] Retired; [6] Disability; [7] I don't know</t>
+    <t xml:space="preserve">Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D9_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] What was your main employment status just before the onset of your psychotic disorder?</t>
+    <t xml:space="preserve">[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
   </si>
   <si>
     <t xml:space="preserve">D10</t>
   </si>
   <si>
-    <t xml:space="preserve">Since the onset of your first psychotic symptoms, have you had paid employment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Yes; [2] No; [3] I don't know</t>
+    <t xml:space="preserve">Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D11</t>
   </si>
   <si>
-    <t xml:space="preserve">What is your current main employment status?</t>
+    <t xml:space="preserve">Actuellement, quel est votre principal statut professionnel?</t>
   </si>
   <si>
     <t xml:space="preserve">D11_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] What is your current main employment status?</t>
+    <t xml:space="preserve">[Autre] Actuellement, quel est votre principal statut professionnel?</t>
   </si>
   <si>
     <t xml:space="preserve">D12</t>
   </si>
   <si>
-    <t xml:space="preserve">Considering all income in your household, how easy or difficult is it to make ends meet at the end of each month?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Very easily; [2] Easily; [3] Fairly easily; [4] With some difficulty; [5] With difficulty; [6] With great difficulty; [7] I don't know</t>
+    <t xml:space="preserve">En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D13</t>
   </si>
   <si>
-    <t xml:space="preserve">Approximately how long ago were you diagnosed with a psychotic disorder?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Less than 6 months; [2] 6 months to 2 years; [3] 2 to 5 years; [4] 5 to 10 years; [5] More than 10 years; [6] I don't know</t>
+    <t xml:space="preserve">Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">D13b</t>
   </si>
   <si>
-    <t xml:space="preserve">Please indicate the approximate number of years:</t>
+    <t xml:space="preserve">Indiquez approximativement le nombre d'années:</t>
   </si>
   <si>
     <t xml:space="preserve">DSHC1</t>
   </si>
   <si>
-    <t xml:space="preserve">How much time passed between your first psychotic symptoms and your first contact with a psychiatrist?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Less than 1 month; [2] Between 1 month and 6 months; [3] Between 6 months and 1 year; [4] Between 1 year and 2 years; [5] More than 2 years; [6] I don't know</t>
+    <t xml:space="preserve">Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">HC1</t>
   </si>
   <si>
-    <t xml:space="preserve">How much time passed between your first medical appointment for the psychotic disorder and the diagnosis?</t>
+    <t xml:space="preserve">Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Schizophrenia] Which diagnosis(es) have you received?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Yes; [2] Not selected</t>
+    <t xml:space="preserve">[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non sélectionné</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Schizoaffective disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Schizophreniform disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Delusional disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Brief psychotic disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Shared psychotic disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Substance-induced psychotic disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Psychotic disorder due to another medical condition] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Unspecified psychotic disorder] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Bipolar disorder with psychotic features] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A11</t>
   </si>
   <si>
-    <t xml:space="preserve">[I don't know] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A12</t>
   </si>
   <si>
-    <t xml:space="preserve">[I prefer not to answer] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Which diagnosis(es) have you received?</t>
+    <t xml:space="preserve">[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
   </si>
   <si>
     <t xml:space="preserve">END3</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you for your participation. Unfortunately, you are not eligible to continue this study because we do not include psychotic disorders due to another medical condition.</t>
+    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
   </si>
   <si>
     <t xml:space="preserve">DSD2</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you ever been hospitalized because of the psychotic disorder? Consider only hospitalizations with overnight stay(s).</t>
+    <t xml:space="preserve">Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
   </si>
   <si>
     <t xml:space="preserve">G00Q10</t>
@@ -347,1288 +350,1294 @@
     <t xml:space="preserve">DSD3_SQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Obsessive–compulsive disorder (OCD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Depression] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Bipolar disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Alcohol use disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Substance use disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Anxiety disorder or panic disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Post-traumatic stress disorder (PTSD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Personality disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autism spectrum disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Attention-deficit/hyperactivity disorder (ADHD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Eating disorder (e.g., anorexia, bulimia)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
+    <t xml:space="preserve">[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
   </si>
   <si>
     <t xml:space="preserve">D14</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you also have any other health problem(s)?</t>
+    <t xml:space="preserve">Avez-vous également d’ autre(s) problème(s) de santé ?</t>
   </si>
   <si>
     <t xml:space="preserve">D15_2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of the heart or blood vessels (e.g., hypertension)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_2comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of the heart or blood vessels (e.g., hypertension)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of the respiratory system (e.g., asthma)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_3comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of the respiratory system (e.g., asthma)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of the digestive system (e.g., irritable bowel syndrome)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_4comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of the digestive system (e.g., irritable bowel syndrome)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Skin disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_5comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Skin disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of bones, joints, or muscles (e.g., osteoarthritis, rheumatoid arthritis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_6comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of bones, joints, or muscles (e.g., osteoarthritis, rheumatoid arthritis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other mental or psychological disorder not mentioned in the previous question] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_7comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Other mental or psychological disorder not mentioned in the previous question] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_17</t>
   </si>
   <si>
-    <t xml:space="preserve">[Neurodevelopmental disorder (e.g., developmental delay)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_17comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Neurodevelopmental disorder (e.g., developmental delay)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of the nervous system (neurological) (e.g., dementia, multiple sclerosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_11comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of the nervous system (neurological) (e.g., dementia, multiple sclerosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of the blood (hematological) (e.g., anemia)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_8comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of the blood (hematological) (e.g., anemia)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Immune disease (e.g., allergies, autoinflammatory diseases)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_9comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Immune disease (e.g., allergies, autoinflammatory diseases)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Endocrine, nutritional, or metabolic disease (e.g., diabetes, high cholesterol, obesity, hypothyroidism)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_10comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Endocrine, nutritional, or metabolic disease (e.g., diabetes, high cholesterol, obesity, hypothyroidism)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_12</t>
   </si>
   <si>
-    <t xml:space="preserve">[Eye disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_12comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Eye disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_13</t>
   </si>
   <si>
-    <t xml:space="preserve">[Ear or vestibular system disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_13comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Ear or vestibular system disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_14</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease of the reproductive organs or urinary system (e.g., kidney failure, endometriosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_14comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease of the reproductive organs or urinary system (e.g., kidney failure, endometriosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_18</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sleep disorders (e.g., obstructive sleep apnea)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_18comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Sleep disorders (e.g., obstructive sleep apnea)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_15</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disease affecting multiple systems (e.g., psoriasis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_15comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [Disease affecting multiple systems (e.g., psoriasis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_19</t>
   </si>
   <si>
-    <t xml:space="preserve">[No known diagnosis] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_19comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [No known diagnosis] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_16</t>
   </si>
   <si>
-    <t xml:space="preserve">[I don't know] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_16comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment] [I don't know] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_othercomment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comment for other] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
+    <t xml:space="preserve">[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
   </si>
   <si>
     <t xml:space="preserve">H1</t>
   </si>
   <si>
-    <t xml:space="preserve">Your mobility before your first psychotic symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I had no problems walking.; [2] I had slight problems walking.; [3] I had moderate problems walking.; [4] I had severe problems walking.; [5] I was unable to walk.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
-    <t xml:space="preserve">Your self-care before your first psychotic symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I had no problems washing or dressing by myself.; [2] I had slight problems washing or dressing by myself.; [3] I had moderate problems washing or dressing by myself.; [4] I had severe problems washing or dressing by myself.; [5] I was unable to wash or dress by myself.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H3</t>
   </si>
   <si>
-    <t xml:space="preserve">Your usual activities before your first psychotic symptoms (e.g., work, study, shopping, housework, using public transport, activities with family or seeing friends, leisure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I had no problems performing my usual activities.; [2] I had slight problems performing my usual activities.; [3] I had moderate problems performing my usual activities.; [4] I had severe problems performing my usual activities.; [5] I was unable to perform my usual activities.; [6] I don't know.</t>
+    <t xml:space="preserve">Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H4</t>
   </si>
   <si>
-    <t xml:space="preserve">Your pain or discomfort before your first psychotic symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I had no pain or discomfort.; [2] I had slight pain or discomfort.; [3] I had moderate pain or discomfort.; [4] I had severe pain or discomfort.; [5] I had extreme pain or discomfort.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H5</t>
   </si>
   <si>
-    <t xml:space="preserve">Your anxiety or depression before your first psychotic symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I was not anxious or depressed.; [2] I was slightly anxious or depressed.; [3] I was moderately anxious or depressed.; [4] I was severely anxious or depressed.; [5] I was extremely anxious or depressed.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H6</t>
   </si>
   <si>
-    <t xml:space="preserve">We would like to know how good or bad your health was BEFORE your first psychotic symptoms on a scale from 0 to 100. 100 means the best health you can imagine; 0 means the worst health you can imagine. Please enter a number between 0 and 100 to indicate your health BEFORE your first psychotic symptoms.</t>
+    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
   </si>
   <si>
     <t xml:space="preserve">TXT</t>
   </si>
   <si>
-    <t xml:space="preserve">We would like to know your current health status, as you experience it today. Please tick the box next to the statement that best describes your health TODAY.</t>
+    <t xml:space="preserve">Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
   </si>
   <si>
     <t xml:space="preserve">H7</t>
   </si>
   <si>
-    <t xml:space="preserve">Your mobility today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I have no problems walking.; [2] I have slight problems walking.; [3] I have moderate problems walking.; [4] I have severe problems walking.; [5] I am unable to walk.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre mobilité aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H8</t>
   </si>
   <si>
-    <t xml:space="preserve">Your self-care today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I have no problems washing or dressing by myself.; [2] I have slight problems washing or dressing by myself.; [3] I have moderate problems washing or dressing by myself.; [4] I have severe problems washing or dressing by myself.; [5] I am unable to wash or dress by myself.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre autonomie aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H9</t>
   </si>
   <si>
-    <t xml:space="preserve">Your usual activities today (e.g., work, study, shopping, housework, using public transport, activities with family or seeing friends, leisure)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I have no problems performing my usual activities.; [2] I have slight problems performing my usual activities.; [3] I have moderate problems performing my usual activities.; [4] I have severe problems performing my usual activities.; [5] I am unable to perform my usual activities.; [6] I don't know.</t>
+    <t xml:space="preserve">Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H10</t>
   </si>
   <si>
-    <t xml:space="preserve">Your pain or discomfort today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I have no pain or discomfort.; [2] I have slight pain or discomfort.; [3] I have moderate pain or discomfort.; [4] I have severe pain or discomfort.; [5] I have extreme pain or discomfort.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre douleur ou gêne aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H11</t>
   </si>
   <si>
-    <t xml:space="preserve">Your anxiety or depression today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I am not anxious or depressed.; [2] I am slightly anxious or depressed.; [3] I am moderately anxious or depressed.; [4] I am severely anxious or depressed.; [5] I am extremely anxious or depressed.; [6] I don't know.</t>
+    <t xml:space="preserve">Votre anxiété ou dépression aujourd'hui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
   </si>
   <si>
     <t xml:space="preserve">H12</t>
   </si>
   <si>
-    <t xml:space="preserve">We would like to know how good or bad your health is TODAY on a scale from 0 to 100. 100 means the best health you can imagine; 0 means the worst health you can imagine. Please enter a number between 0 and 100 to indicate your health TODAY.</t>
+    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
   </si>
   <si>
     <t xml:space="preserve">HC2</t>
   </si>
   <si>
-    <t xml:space="preserve">Have you received treatment related to your psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Atypical (second-generation) antipsychotics (e.g., Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quetiapine, Risperidone, Serdolect)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Typical (first-generation) antipsychotics (e.g., Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Clozapine (e.g., Clozapine Sandoz, Leponex)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Antidepressants used to treat depression, obsessive–compulsive disorder, or panic disorder (e.g., Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tranquilizers (e.g., Diazepam, Valium, Lormetazepam, Lorazepam)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Psychotherapy (e.g., cognitive behavioral therapy, psychoeducation, etc.)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Electroconvulsive therapy (ECT)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other non-invasive brain stimulation: transcranial direct current stimulation (tDCS) or repetitive transcranial magnetic stimulation (rTMS)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Deep brain stimulation] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Physical exercise] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Peer support] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[I don't know] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Weight gain] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hyperglycemia (high blood sugar) or diabetes] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[High cholesterol (excess blood lipids)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Low white blood cell count] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ019</t>
   </si>
   <si>
-    <t xml:space="preserve">[Movement disorders] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, difficulty staying still, urge to move] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Involuntary, sometimes painful, muscle contractions] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tremors and/or facial rigidity] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Involuntary facial movements, such as chewing, tongue protrusion, or eye blinking] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue or drowsiness] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dizziness] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dry mouth or eyes] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Nausea] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Constipation] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Myocarditis (inflammation of the heart muscle)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sexual dysfunction (e.g., decreased libido)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Memory problems or “brain fog”] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Affective blunting (lack of motivation, lack of interest)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[No side effects] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC4_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
+    <t xml:space="preserve">[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Weight gain] Indicate how burdensome each side effect was for you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Not at all burdensome; [2] Slightly burdensome; [3] Moderately burdensome; [4] Very burdensome; [5] Extremely burdensome; [6] I don't know</t>
+    <t xml:space="preserve">[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hyperglycemia (high blood sugar) or diabetes] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[High cholesterol (excess blood lipids)] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Low white blood cell count] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, difficulty staying still, urge to move] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Involuntary and sometimes painful muscle contractions] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tremors and/or facial rigidity] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Involuntary facial movements, such as chewing, sticking out the tongue, or blinking] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue or drowsiness] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dizziness] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dry mouth or eyes] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Nausea] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Constipation] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Myocarditis (inflammation of the heart muscle)] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sexual dysfunction (e.g., decreased libido)] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Memory problems or “brain fog”] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Affective blunting (lack of motivation, lack of interest)] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[No side effects] Indicate how burdensome each side effect was for you.</t>
+    <t xml:space="preserve">[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
   </si>
   <si>
     <t xml:space="preserve">HC6</t>
   </si>
   <si>
-    <t xml:space="preserve">Apart from side effects, how burdensome was the treatment you received for the psychotic disorder in the past 5 years? For example, due to injections, needing to go to the hospital to receive treatment, a strict dosing schedule, the need to keep the medication refrigerated, etc.</t>
+    <t xml:space="preserve">En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[The feeling that things are said on TV or written in newspapers especially about you; that people are deliberately trying to harm you; that there is a conspiracy against you; the feeling of hearing your thoughts repeated like an echo; or other altered perceptions of reality.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] I have not had this symptom; [2] Not at all burdensome; [3] Slightly burdensome; [4] Moderately burdensome; [5] Very burdensome; [6] Extremely burdensome; [7] I don't know</t>
+    <t xml:space="preserve">[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hearing, seeing, or feeling something that is not there. For example, hearing one or more voices when you are alone; seeing objects, people, or animals that others do not see.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Feelings of influence, control, or passivity. For example, the impression of having thoughts in your head that you do not recognize as your own; the feeling of being controlled by a force or power outside yourself.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disorganized thinking, such as feeling that your mind is blank, the impression that your thoughts have been taken out of your head, or having thoughts in your head that you do not recognize as your own.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Disorganized behavior. For example, feeling you neglect your appearance or personal hygiene, or feeling you never manage to finish what you start.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ019</t>
   </si>
   <si>
-    <t xml:space="preserve">[Inability to feel interest or pleasure, lack of motivation or enthusiasm, feeling that your emotions are blunted.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ020</t>
   </si>
   <si>
-    <t xml:space="preserve">[Social isolation, or feeling you have no interest in being with other people.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ021</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation or feeling tense] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problems with concentration] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue or exhaustion] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fear or anxiety] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Feeling down, depressed, or sad] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stress] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Self-harm behaviors or urges] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Feeling that you no longer want to live] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stigma or feeling discriminated against] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ011</t>
   </si>
   <si>
+    <t xml:space="preserve">[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+  </si>
+  <si>
     <t xml:space="preserve">H13_SQ022</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+    <t xml:space="preserve">[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
   </si>
   <si>
     <t xml:space="preserve">H14</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent has the psychotic disorder interfered with your sexual life?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable; [8] I prefer not to answer</t>
+    <t xml:space="preserve">Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
   </si>
   <si>
     <t xml:space="preserve">H15</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent has the psychotic disorder interfered with your reproductive life, i.e., with your ability or decision to conceive children naturally or to carry a pregnancy to term? For example: IVF, genetic screening, sperm/egg donation, needing to delay a pregnancy, or giving up having biological children because of the psychotic disorder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable (e.g., you have not yet considered having children, or you were not affected by the disorder ; [8] I prefer not to answer</t>
+    <t xml:space="preserve">Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
   </si>
   <si>
     <t xml:space="preserve">INFO</t>
   </si>
   <si>
-    <t xml:space="preserve">By ‘care’ we mean all appointments, treatments, and supports offered by health professionals to manage and improve your health related to the psychotic disorder.</t>
+    <t xml:space="preserve">Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
   </si>
   <si>
     <t xml:space="preserve">HC7</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you consider that your care has been well organized and planned over time?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Always; [2] Often; [3] Sometimes; [4] Rarely; [5] Never; [6] I don't know</t>
+    <t xml:space="preserve">Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">HC8</t>
   </si>
   <si>
-    <t xml:space="preserve">Do you have one or more health professionals who are responsible for coordinating the different medical services you need?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Yes; [2] No; [3] I don't know; [4] Not applicable: follow-up is only in one service, with no need for coordination</t>
+    <t xml:space="preserve">Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
   </si>
   <si>
     <t xml:space="preserve">HC9</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent do you see the same health professional(s) during your regular appointments or examinations?</t>
+    <t xml:space="preserve">Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
   </si>
   <si>
     <t xml:space="preserve">HC10</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent do you receive enough useful and understandable information from your health professionals?</t>
+    <t xml:space="preserve">Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
   </si>
   <si>
     <t xml:space="preserve">HC11</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you involved as much as you wish in decisions about your care or treatment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Yes, definitely; [2] Yes, to some extent; [3] No, not really; [4] No, definitely not; [5] No, but I did not want to be involved anyway; [6] Not applicable: no decisions were made about treatment; [7] I don't know</t>
+    <t xml:space="preserve">Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">HC12</t>
   </si>
   <si>
-    <t xml:space="preserve">In the past 12 months, was there any care for the psychotic disorder that you did not receive even though you needed it? This could be a consultation, treatment, medical tests, rehabilitation, or other.</t>
+    <t xml:space="preserve">Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Distance between home and place of care] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Transport problem (e.g., no nearby public transport, no personal vehicle, unable to drive your own vehicle, no one to take you to your care location)] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Lack of qualified staff to provide the care you need] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Very long waiting times] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Difficulties paying for care] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fear of medical tests, the hospital, or something else] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Lack of time because of work, children, or other] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Lack of information] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Language difficulties] What were the main reason(s) you did not receive the care you needed?</t>
+    <t xml:space="preserve">[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] For what main reason(s) did you not receive the care you needed?</t>
+    <t xml:space="preserve">[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent has your schooling or studies been affected by the psychotic disorder, in terms of attendance, performance, achievement, or choice of studies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable: the psychotic disorder occurred after schooling/studies were completed</t>
+    <t xml:space="preserve">Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
   </si>
   <si>
     <t xml:space="preserve">S2</t>
   </si>
   <si>
-    <t xml:space="preserve">Because of the psychotic disorder, have you reduced your working time?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Yes, I work less than before because of my psychotic disorder; [2] Yes, I stopped working because of my psychotic disorder; [3] No, the psychotic disorder did not affect my working time; [4] I don't know</t>
+    <t xml:space="preserve">En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">S2_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Because of the psychotic disorder, have you reduced your working time?</t>
+    <t xml:space="preserve">[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
   </si>
   <si>
     <t xml:space="preserve">S3</t>
   </si>
   <si>
-    <t xml:space="preserve">Approximately how long were you unable to work because of your psychotic disorder?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Less than 1 month; [2] 1 to 3 months; [3] 4 months to 1 year; [4] More than 1 year; [5] I don't know</t>
+    <t xml:space="preserve">Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">S3b</t>
   </si>
   <si>
-    <t xml:space="preserve">Please indicate approximately the number of years:</t>
+    <t xml:space="preserve">Veuillez indiquez approximativement le nombre d’années:  </t>
   </si>
   <si>
     <t xml:space="preserve">TXT1</t>
   </si>
   <si>
-    <t xml:space="preserve">The next question concerns the past seven days, not including today.</t>
+    <t xml:space="preserve">La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
   </si>
   <si>
     <t xml:space="preserve">S4_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[| 0 = The psychotic disorder had no effect on my work | 10 = Because of the psychotic disorder, I was not able to work at all] Over the past seven days, to what extent has the psychotic disorder affected your productivity while working? Think of days when you were limited in the amount or type of work you could do, days when you accomplished less than you would have liked, or days when you could not do your work as carefully as usual. Choose a low number if the psychotic disorder had little impact on your work. Choose a high number if it had a strong impact.</t>
+    <t xml:space="preserve">[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
   </si>
   <si>
     <t xml:space="preserve">S5</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent has your psychotic disorder or medical treatment caused you financial difficulties?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know</t>
+    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">S6</t>
   </si>
   <si>
-    <t xml:space="preserve">To what extent does your psychotic disorder interfere with your relationships with family, your partner, friends, or neighbors?</t>
+    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[No additional support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Practical help (e.g., cleaning, cooking, shopping, transport, childcare)] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Talking to other patients with a psychotic disorder] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Psychological support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Medical support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Administrative or social assistance] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Support for environmental adaptations or assistive equipment] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Return-to-work support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[School or study support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Spiritual or religious support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[I don't know] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
+    <t xml:space="preserve">[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact of the psychotic disorder on overall quality of life (impact on mobility, self-care, ability to dress and wash independently, pain/discomfort, anxiety or depression; years lived with disability)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Not at all a priority; [2] Slight priority; [3] Moderate priority; [4] High priority; [5] Extremely high priority; [6] I don't know</t>
+    <t xml:space="preserve">[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your physical health (physical symptoms, pain or discomfort related to the psychotic disorder)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your psychological health (psychological symptoms, anxiety, or depression related to the psychotic disorder)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your independence (impact on mobility, ability to wash and dress independently; ability to carry out usual activities such as work, studies, housework, family activities, or leisure)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your sexual and reproductive life] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on life expectancy] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your schooling or studies] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your work] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Financial impact] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Impact on your social life (relationships with family, your partner, or friends; need for additional support—administrative, social, etc.)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Quality of your care (speed of diagnosis, coordination and continuity of care, information received from healthcare professionals, involvement in decisions about your care or treatments)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Access to healthcare (obtaining care when needed, availability of treatment)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Scientific knowledge (e.g., regarding diagnosis, treatment, or prognosis)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Treatment effectiveness (ability of the treatment to control symptoms and improve quality of life)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Treatment burden (in terms of side effects or in terms of logistics/administration of the treatment)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+    <t xml:space="preserve">[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
   </si>
   <si>
     <t xml:space="preserve">G1</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to tell us about any other important needs that you were not able to express in the questionnaire?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Yes; [2] No</t>
+    <t xml:space="preserve">Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Oui; [2] Non</t>
   </si>
   <si>
     <t xml:space="preserve">G2</t>
   </si>
   <si>
-    <t xml:space="preserve">Which needs were not addressed in the questionnaire?</t>
+    <t xml:space="preserve">Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
   </si>
   <si>
     <t xml:space="preserve">CG1</t>
   </si>
   <si>
-    <t xml:space="preserve">As the person completing the questionnaire for someone with a psychotic disorder: do you consider yourself an 'informal caregiver'? That is, someone who helps this person because of their psychotic disorder, on a regular basis and not as a professional. For example, a parent helping their child, or a family member or friend helping a loved one.</t>
+    <t xml:space="preserve">En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
   </si>
   <si>
     <t xml:space="preserve">CG2</t>
   </si>
   <si>
-    <t xml:space="preserve">In relation to the person you help, you are:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] A family member (e.g., parent, child, grandparent...); [2] A close relation (e.g., friend, neighbor...)</t>
+    <t xml:space="preserve">Par rapport à la personne que vous aidez, vous êtes :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
   </si>
   <si>
     <t xml:space="preserve">CG2_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Other] In relation to the person you help, you are:</t>
+    <t xml:space="preserve">[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
   </si>
   <si>
     <t xml:space="preserve">CG3</t>
   </si>
   <si>
+    <t xml:space="preserve">A quel genre vous identifiez-vous ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">CG4</t>
   </si>
   <si>
     <t xml:space="preserve">CG5</t>
   </si>
   <si>
-    <t xml:space="preserve">Last week, how much time did you spend helping the person with activities they would normally have done themselves if they were in good health? For example, personal care (such as dressing/undressing, going to the toilet), household tasks (such as preparing meals, cleaning), or practical support (such as accompanying them to medical or other appointments).</t>
+    <t xml:space="preserve">La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
   </si>
   <si>
     <t xml:space="preserve">CG6</t>
   </si>
   <si>
-    <t xml:space="preserve">In your opinion, to what extent is your physical and/or mental health impacted because of your role as an informal caregiver?</t>
+    <t xml:space="preserve">Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
   </si>
   <si>
     <t xml:space="preserve">CG7</t>
   </si>
   <si>
-    <t xml:space="preserve">In your opinion, to what extent is your social life impacted because of your role as an informal caregiver?</t>
+    <t xml:space="preserve">Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
   </si>
   <si>
     <t xml:space="preserve">Follow</t>
   </si>
   <si>
-    <t xml:space="preserve">We would like to know more about the needs and difficulties you experience or have experienced in the context of your psychotic disorder. If you wish, you can take part in an individual interview (online or face-to-face with a researcher) to discuss your experiences and needs in more detail. This interview will be conducted confidentially and independently of the care you receive from healthcare providers. We plan to interview 24 patients. This individual interview will last about an hour and a half. Would you like to take part in an individual interview?</t>
+    <t xml:space="preserve">Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_Email</t>
   </si>
   <si>
-    <t xml:space="preserve">[Email address] If you are interested in the individual interview, please provide your contact details (phone number and email address) so that we can contact you.</t>
+    <t xml:space="preserve">[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_Cemail</t>
   </si>
   <si>
-    <t xml:space="preserve">[Confirm email address] If you are interested in the individual interview, please provide your contact details (phone number and email address) so that we can contact you.</t>
+    <t xml:space="preserve">[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
   </si>
   <si>
     <t xml:space="preserve">NOM_GSM1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Mobile phone number] If you are interested in the individual interview, please provide your contact details (phone number and email address) so that we can contact you.</t>
+    <t xml:space="preserve">[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
   </si>
   <si>
     <t xml:space="preserve">TXS</t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you very much for your cooperation! A member of the research team will contact you within a few weeks to inform you about your possible participation in an interview.</t>
+    <t xml:space="preserve">Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -2701,10 +2710,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2716,7 +2725,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -2724,10 +2733,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2739,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -2747,10 +2756,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2762,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -2770,10 +2779,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2785,7 +2794,7 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -2793,10 +2802,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2808,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -2816,10 +2825,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -2831,7 +2840,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -2839,10 +2848,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -2854,7 +2863,7 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -2862,10 +2871,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -2877,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -2885,10 +2894,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2900,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -2908,10 +2917,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2923,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -2931,10 +2940,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2946,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -2954,10 +2963,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2969,7 +2978,7 @@
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -2977,10 +2986,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3000,10 +3009,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -3023,10 +3032,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3046,10 +3055,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -3069,10 +3078,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -3092,10 +3101,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -3115,10 +3124,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -3138,10 +3147,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -3161,10 +3170,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -3184,10 +3193,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -3207,10 +3216,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -3230,10 +3239,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -3253,10 +3262,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -3276,10 +3285,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -3299,10 +3308,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -3322,10 +3331,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -3345,10 +3354,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -3360,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -3368,10 +3377,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -3391,10 +3400,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3406,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -3414,10 +3423,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -3437,10 +3446,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -3452,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -3460,10 +3469,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -3483,10 +3492,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3498,7 +3507,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
@@ -3506,10 +3515,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -3529,10 +3538,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3544,7 +3553,7 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -3552,10 +3561,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -3575,10 +3584,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3590,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -3598,10 +3607,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -3621,10 +3630,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3636,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -3644,10 +3653,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -3667,10 +3676,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3682,7 +3691,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -3690,10 +3699,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -3713,10 +3722,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3728,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
@@ -3736,10 +3745,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
@@ -3759,10 +3768,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3774,7 +3783,7 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
@@ -3782,10 +3791,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -3805,10 +3814,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3820,7 +3829,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -3828,10 +3837,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -3851,10 +3860,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3866,7 +3875,7 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
@@ -3874,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -3897,10 +3906,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3912,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -3920,10 +3929,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
@@ -3943,10 +3952,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3958,7 +3967,7 @@
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -3966,10 +3975,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -3989,10 +3998,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -4004,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
@@ -4012,10 +4021,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -4035,10 +4044,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -4050,7 +4059,7 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
@@ -4058,10 +4067,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -4081,10 +4090,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4096,7 +4105,7 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
@@ -4104,10 +4113,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -4127,10 +4136,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4142,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
@@ -4150,10 +4159,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -4173,10 +4182,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4196,10 +4205,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -4219,10 +4228,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4234,7 +4243,7 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
@@ -4242,10 +4251,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4257,7 +4266,7 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101">
@@ -4265,10 +4274,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -4280,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102">
@@ -4288,10 +4297,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4303,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103">
@@ -4311,10 +4320,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -4326,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104">
@@ -4334,10 +4343,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -4357,10 +4366,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -4380,10 +4389,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4395,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107">
@@ -4403,10 +4412,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
@@ -4418,7 +4427,7 @@
         <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108">
@@ -4426,10 +4435,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -4441,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109">
@@ -4449,10 +4458,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -4464,7 +4473,7 @@
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110">
@@ -4472,10 +4481,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -4487,7 +4496,7 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111">
@@ -4495,10 +4504,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -4518,10 +4527,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4541,10 +4550,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4556,7 +4565,7 @@
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
@@ -4564,10 +4573,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4579,7 +4588,7 @@
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115">
@@ -4587,10 +4596,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4602,7 +4611,7 @@
         <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116">
@@ -4610,10 +4619,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4625,7 +4634,7 @@
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117">
@@ -4633,10 +4642,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4648,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
@@ -4656,10 +4665,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -4671,7 +4680,7 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119">
@@ -4679,10 +4688,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -4694,7 +4703,7 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120">
@@ -4702,10 +4711,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -4717,7 +4726,7 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121">
@@ -4725,10 +4734,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -4740,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122">
@@ -4748,10 +4757,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -4763,7 +4772,7 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123">
@@ -4771,10 +4780,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -4786,7 +4795,7 @@
         <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124">
@@ -4794,10 +4803,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C124" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -4809,7 +4818,7 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125">
@@ -4817,10 +4826,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
@@ -4840,10 +4849,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
@@ -4855,7 +4864,7 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127">
@@ -4863,10 +4872,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C127" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
@@ -4878,7 +4887,7 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128">
@@ -4886,10 +4895,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C128" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D128" t="s">
         <v>19</v>
@@ -4901,7 +4910,7 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129">
@@ -4909,10 +4918,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D129" t="s">
         <v>19</v>
@@ -4924,7 +4933,7 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130">
@@ -4932,10 +4941,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D130" t="s">
         <v>19</v>
@@ -4947,7 +4956,7 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131">
@@ -4955,10 +4964,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D131" t="s">
         <v>19</v>
@@ -4970,7 +4979,7 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132">
@@ -4978,10 +4987,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s">
         <v>19</v>
@@ -4993,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
@@ -5001,10 +5010,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C133" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
@@ -5016,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
@@ -5024,10 +5033,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D134" t="s">
         <v>19</v>
@@ -5039,7 +5048,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135">
@@ -5047,10 +5056,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C135" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D135" t="s">
         <v>19</v>
@@ -5062,7 +5071,7 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136">
@@ -5070,10 +5079,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
@@ -5085,7 +5094,7 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137">
@@ -5093,10 +5102,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C137" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D137" t="s">
         <v>19</v>
@@ -5108,7 +5117,7 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138">
@@ -5116,10 +5125,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C138" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D138" t="s">
         <v>19</v>
@@ -5131,7 +5140,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139">
@@ -5139,10 +5148,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D139" t="s">
         <v>19</v>
@@ -5154,7 +5163,7 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140">
@@ -5162,10 +5171,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D140" t="s">
         <v>19</v>
@@ -5177,7 +5186,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
@@ -5185,10 +5194,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D141" t="s">
         <v>19</v>
@@ -5200,7 +5209,7 @@
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142">
@@ -5208,10 +5217,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C142" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D142" t="s">
         <v>19</v>
@@ -5223,7 +5232,7 @@
         <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143">
@@ -5231,10 +5240,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D143" t="s">
         <v>19</v>
@@ -5246,7 +5255,7 @@
         <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144">
@@ -5254,10 +5263,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C144" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D144" t="s">
         <v>19</v>
@@ -5269,7 +5278,7 @@
         <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145">
@@ -5277,10 +5286,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C145" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
@@ -5300,10 +5309,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C146" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D146" t="s">
         <v>19</v>
@@ -5315,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147">
@@ -5323,10 +5332,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C147" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D147" t="s">
         <v>19</v>
@@ -5338,7 +5347,7 @@
         <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148">
@@ -5346,10 +5355,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D148" t="s">
         <v>19</v>
@@ -5361,7 +5370,7 @@
         <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="149">
@@ -5369,10 +5378,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C149" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D149" t="s">
         <v>19</v>
@@ -5384,7 +5393,7 @@
         <v>9</v>
       </c>
       <c r="G149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150">
@@ -5392,10 +5401,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C150" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D150" t="s">
         <v>19</v>
@@ -5407,7 +5416,7 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151">
@@ -5415,10 +5424,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C151" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D151" t="s">
         <v>19</v>
@@ -5430,7 +5439,7 @@
         <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="152">
@@ -5438,10 +5447,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C152" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -5453,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153">
@@ -5461,10 +5470,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C153" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D153" t="s">
         <v>19</v>
@@ -5476,7 +5485,7 @@
         <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154">
@@ -5484,10 +5493,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C154" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -5499,7 +5508,7 @@
         <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155">
@@ -5507,10 +5516,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C155" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
@@ -5522,7 +5531,7 @@
         <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156">
@@ -5530,10 +5539,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C156" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -5545,7 +5554,7 @@
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157">
@@ -5553,10 +5562,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C157" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D157" t="s">
         <v>19</v>
@@ -5568,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158">
@@ -5576,10 +5585,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D158" t="s">
         <v>19</v>
@@ -5591,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159">
@@ -5599,10 +5608,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D159" t="s">
         <v>19</v>
@@ -5614,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160">
@@ -5622,10 +5631,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C160" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -5637,7 +5646,7 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161">
@@ -5645,10 +5654,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C161" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D161" t="s">
         <v>19</v>
@@ -5660,7 +5669,7 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162">
@@ -5668,10 +5677,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C162" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -5683,7 +5692,7 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163">
@@ -5691,10 +5700,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C163" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D163" t="s">
         <v>19</v>
@@ -5706,7 +5715,7 @@
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164">
@@ -5714,10 +5723,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C164" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D164" t="s">
         <v>19</v>
@@ -5729,7 +5738,7 @@
         <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165">
@@ -5737,10 +5746,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C165" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D165" t="s">
         <v>19</v>
@@ -5752,7 +5761,7 @@
         <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166">
@@ -5760,10 +5769,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C166" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D166" t="s">
         <v>19</v>
@@ -5775,7 +5784,7 @@
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167">
@@ -5783,10 +5792,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C167" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D167" t="s">
         <v>19</v>
@@ -5798,7 +5807,7 @@
         <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168">
@@ -5806,10 +5815,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D168" t="s">
         <v>19</v>
@@ -5821,7 +5830,7 @@
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="169">
@@ -5829,10 +5838,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C169" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D169" t="s">
         <v>19</v>
@@ -5844,7 +5853,7 @@
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170">
@@ -5852,10 +5861,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D170" t="s">
         <v>19</v>
@@ -5867,7 +5876,7 @@
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="171">
@@ -5875,10 +5884,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D171" t="s">
         <v>19</v>
@@ -5890,7 +5899,7 @@
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172">
@@ -5898,10 +5907,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -5913,7 +5922,7 @@
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173">
@@ -5921,10 +5930,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C173" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D173" t="s">
         <v>19</v>
@@ -5936,7 +5945,7 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="174">
@@ -5944,10 +5953,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C174" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -5959,7 +5968,7 @@
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175">
@@ -5967,10 +5976,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C175" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
@@ -5982,7 +5991,7 @@
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176">
@@ -5990,10 +5999,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C176" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -6005,7 +6014,7 @@
         <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="177">
@@ -6013,10 +6022,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C177" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D177" t="s">
         <v>19</v>
@@ -6028,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="178">
@@ -6036,10 +6045,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C178" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D178" t="s">
         <v>19</v>
@@ -6051,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="179">
@@ -6059,10 +6068,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D179" t="s">
         <v>19</v>
@@ -6074,7 +6083,7 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="180">
@@ -6082,10 +6091,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C180" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D180" t="s">
         <v>19</v>
@@ -6097,7 +6106,7 @@
         <v>9</v>
       </c>
       <c r="G180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="181">
@@ -6105,9 +6114,11 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>386</v>
-      </c>
-      <c r="C181"/>
+        <v>387</v>
+      </c>
+      <c r="C181" t="s">
+        <v>388</v>
+      </c>
       <c r="D181" t="s">
         <v>19</v>
       </c>
@@ -6118,7 +6129,7 @@
         <v>9</v>
       </c>
       <c r="G181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182">
@@ -6126,10 +6137,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D182" t="s">
         <v>19</v>
@@ -6141,7 +6152,7 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183">
@@ -6149,10 +6160,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C183" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
@@ -6164,7 +6175,7 @@
         <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184">
@@ -6172,10 +6183,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C184" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D184" t="s">
         <v>19</v>
@@ -6187,7 +6198,7 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="185">
@@ -6195,10 +6206,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C185" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -6218,10 +6229,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C186" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D186" t="s">
         <v>19</v>
@@ -6233,7 +6244,7 @@
         <v>9</v>
       </c>
       <c r="G186" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187">
@@ -6241,10 +6252,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C187" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D187" t="s">
         <v>19</v>
@@ -6256,7 +6267,7 @@
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="188">
@@ -6264,10 +6275,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C188" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -6279,7 +6290,7 @@
         <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="189">
@@ -6287,10 +6298,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C189" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D189" t="s">
         <v>19</v>
@@ -6302,7 +6313,7 @@
         <v>9</v>
       </c>
       <c r="G189" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="190">
@@ -6310,10 +6321,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C190" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
@@ -6325,7 +6336,7 @@
         <v>9</v>
       </c>
       <c r="G190" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191">
@@ -6333,10 +6344,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C191" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D191" t="s">
         <v>19</v>
@@ -6356,10 +6367,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C192" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
@@ -6371,7 +6382,7 @@
         <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193">
@@ -6379,10 +6390,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C193" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D193" t="s">
         <v>19</v>
@@ -6394,7 +6405,7 @@
         <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194">
@@ -6402,10 +6413,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C194" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
@@ -6417,7 +6428,7 @@
         <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195">
@@ -6425,10 +6436,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C195" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D195" t="s">
         <v>19</v>
@@ -6440,7 +6451,7 @@
         <v>9</v>
       </c>
       <c r="G195" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196">
@@ -6448,10 +6459,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C196" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D196" t="s">
         <v>19</v>
@@ -6463,7 +6474,7 @@
         <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197">
@@ -6471,10 +6482,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C197" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D197" t="s">
         <v>19</v>
@@ -6486,7 +6497,7 @@
         <v>9</v>
       </c>
       <c r="G197" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="198">
@@ -6494,10 +6505,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C198" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D198" t="s">
         <v>19</v>
@@ -6509,7 +6520,7 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199">
@@ -6517,10 +6528,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C199" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D199" t="s">
         <v>19</v>
@@ -6532,7 +6543,7 @@
         <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200">
@@ -6540,10 +6551,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C200" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -6555,7 +6566,7 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201">
@@ -6563,10 +6574,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C201" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
@@ -6586,10 +6597,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C202" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -6601,7 +6612,7 @@
         <v>9</v>
       </c>
       <c r="G202" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="203">
@@ -6609,10 +6620,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C203" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D203" t="s">
         <v>19</v>
@@ -6624,7 +6635,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204">
@@ -6632,10 +6643,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C204" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -6655,10 +6666,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C205" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D205" t="s">
         <v>19</v>
@@ -6670,7 +6681,7 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206">
@@ -6678,10 +6689,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C206" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
@@ -6701,10 +6712,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C207" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
@@ -6724,10 +6735,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C208" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D208" t="s">
         <v>8</v>
@@ -6747,10 +6758,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C209" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D209" t="s">
         <v>19</v>
@@ -6762,7 +6773,7 @@
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210">
@@ -6770,10 +6781,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C210" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D210" t="s">
         <v>19</v>
@@ -6785,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="211">
@@ -6793,10 +6804,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C211" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D211" t="s">
         <v>19</v>
@@ -6808,7 +6819,7 @@
         <v>9</v>
       </c>
       <c r="G211" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212">
@@ -6816,10 +6827,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C212" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D212" t="s">
         <v>19</v>
@@ -6831,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="G212" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213">
@@ -6839,10 +6850,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C213" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
@@ -6854,7 +6865,7 @@
         <v>9</v>
       </c>
       <c r="G213" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214">
@@ -6862,10 +6873,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C214" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D214" t="s">
         <v>19</v>
@@ -6877,7 +6888,7 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215">
@@ -6885,10 +6896,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C215" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D215" t="s">
         <v>19</v>
@@ -6900,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="G215" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="216">
@@ -6908,10 +6919,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C216" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -6923,7 +6934,7 @@
         <v>9</v>
       </c>
       <c r="G216" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217">
@@ -6931,10 +6942,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C217" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D217" t="s">
         <v>19</v>
@@ -6946,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="G217" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218">
@@ -6954,10 +6965,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C218" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D218" t="s">
         <v>19</v>
@@ -6969,7 +6980,7 @@
         <v>9</v>
       </c>
       <c r="G218" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219">
@@ -6977,10 +6988,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C219" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D219" t="s">
         <v>19</v>
@@ -6992,7 +7003,7 @@
         <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="220">
@@ -7000,10 +7011,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C220" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D220" t="s">
         <v>19</v>
@@ -7015,7 +7026,7 @@
         <v>9</v>
       </c>
       <c r="G220" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="221">
@@ -7023,10 +7034,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C221" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D221" t="s">
         <v>19</v>
@@ -7038,7 +7049,7 @@
         <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222">
@@ -7046,10 +7057,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C222" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
@@ -7069,10 +7080,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C223" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
@@ -7084,7 +7095,7 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="224">
@@ -7092,10 +7103,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C224" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
@@ -7107,7 +7118,7 @@
         <v>9</v>
       </c>
       <c r="G224" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="225">
@@ -7115,10 +7126,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C225" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
@@ -7130,7 +7141,7 @@
         <v>9</v>
       </c>
       <c r="G225" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="226">
@@ -7138,10 +7149,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C226" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D226" t="s">
         <v>19</v>
@@ -7153,7 +7164,7 @@
         <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="227">
@@ -7161,10 +7172,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C227" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D227" t="s">
         <v>19</v>
@@ -7176,7 +7187,7 @@
         <v>9</v>
       </c>
       <c r="G227" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="228">
@@ -7184,10 +7195,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C228" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D228" t="s">
         <v>19</v>
@@ -7199,7 +7210,7 @@
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="229">
@@ -7207,10 +7218,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C229" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -7222,7 +7233,7 @@
         <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230">
@@ -7230,10 +7241,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C230" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D230" t="s">
         <v>19</v>
@@ -7245,7 +7256,7 @@
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="231">
@@ -7253,10 +7264,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C231" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D231" t="s">
         <v>19</v>
@@ -7268,7 +7279,7 @@
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232">
@@ -7276,10 +7287,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C232" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D232" t="s">
         <v>19</v>
@@ -7291,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233">
@@ -7299,10 +7310,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C233" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D233" t="s">
         <v>19</v>
@@ -7314,7 +7325,7 @@
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234">
@@ -7322,10 +7333,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C234" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D234" t="s">
         <v>19</v>
@@ -7337,7 +7348,7 @@
         <v>9</v>
       </c>
       <c r="G234" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="235">
@@ -7345,10 +7356,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C235" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D235" t="s">
         <v>19</v>
@@ -7360,7 +7371,7 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236">
@@ -7368,10 +7379,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C236" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -7383,7 +7394,7 @@
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="237">
@@ -7391,10 +7402,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C237" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D237" t="s">
         <v>19</v>
@@ -7406,7 +7417,7 @@
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="238">
@@ -7414,10 +7425,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C238" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D238" t="s">
         <v>19</v>
@@ -7429,7 +7440,7 @@
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239">
@@ -7437,10 +7448,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C239" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -7460,10 +7471,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C240" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D240" t="s">
         <v>19</v>
@@ -7475,7 +7486,7 @@
         <v>9</v>
       </c>
       <c r="G240" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241">
@@ -7483,10 +7494,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C241" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D241" t="s">
         <v>19</v>
@@ -7498,7 +7509,7 @@
         <v>9</v>
       </c>
       <c r="G241" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242">
@@ -7506,10 +7517,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C242" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
@@ -7529,10 +7540,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>524</v>
       </c>
       <c r="D243" t="s">
         <v>19</v>
@@ -7552,7 +7563,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -7575,10 +7586,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C245" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D245" t="s">
         <v>8</v>
@@ -7598,10 +7609,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C246" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D246" t="s">
         <v>19</v>
@@ -7613,7 +7624,7 @@
         <v>9</v>
       </c>
       <c r="G246" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247">
@@ -7621,10 +7632,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C247" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D247" t="s">
         <v>19</v>
@@ -7636,7 +7647,7 @@
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248">
@@ -7644,10 +7655,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C248" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D248" t="s">
         <v>19</v>
@@ -7659,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="249">
@@ -7667,10 +7678,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C249" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D249" t="s">
         <v>11</v>
@@ -7690,10 +7701,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C250" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D250" t="s">
         <v>11</v>
@@ -7713,10 +7724,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C251" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D251" t="s">
         <v>11</v>
@@ -7736,10 +7747,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C252" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D252" t="s">
         <v>11</v>

--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t xml:space="preserve">pos</t>
   </si>
@@ -1614,30 +1614,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM_Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM_Cemail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Confirmation de l'adresse e-mail] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOM_GSM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Numéro de GSM] Si vous êtes intéressé(e) par l'entretien individuel, merci de nous indiquer vos coordonnées (numéro de téléphone et adresse mail) afin que nous puissons vous contacter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TXS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merci beaucoup pour votre collaboration!  Un membre de l’équipe de recherche vous recontactera d’ici quelques semaines pour vous tenir informé(e) de votre éventuelle participation à un entretien.</t>
   </si>
 </sst>
 </file>
@@ -7673,98 +7649,6 @@
         <v>513</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>534</v>
-      </c>
-      <c r="C249" t="s">
-        <v>535</v>
-      </c>
-      <c r="D249" t="s">
-        <v>11</v>
-      </c>
-      <c r="E249" t="n">
-        <v>312</v>
-      </c>
-      <c r="F249" t="s">
-        <v>9</v>
-      </c>
-      <c r="G249" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>536</v>
-      </c>
-      <c r="C250" t="s">
-        <v>537</v>
-      </c>
-      <c r="D250" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" t="n">
-        <v>312</v>
-      </c>
-      <c r="F250" t="s">
-        <v>9</v>
-      </c>
-      <c r="G250" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>538</v>
-      </c>
-      <c r="C251" t="s">
-        <v>539</v>
-      </c>
-      <c r="D251" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" t="n">
-        <v>312</v>
-      </c>
-      <c r="F251" t="s">
-        <v>9</v>
-      </c>
-      <c r="G251" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>540</v>
-      </c>
-      <c r="C252" t="s">
-        <v>541</v>
-      </c>
-      <c r="D252" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" t="n">
-        <v>378</v>
-      </c>
-      <c r="F252" t="s">
-        <v>9</v>
-      </c>
-      <c r="G252" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/metadata/data_dictionary.xlsx
+++ b/data/metadata/data_dictionary.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="FR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EN" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t xml:space="preserve">pos</t>
   </si>
@@ -68,49 +68,49 @@
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous remplissez ce questionnaire</t>
+    <t xml:space="preserve">You are completing this questionnaire</t>
   </si>
   <si>
     <t xml:space="preserve">dbl+lbl</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] Pour vous-même; [2] Pour une autre personne dont vous êtes le représentant légal. (La personne que vous représentez n'est pas capable de rép</t>
+    <t xml:space="preserve">[1] For yourself; [2] For another person for whom you are the legal representative. (The person you represent is not able to answer themselves)</t>
   </si>
   <si>
     <t xml:space="preserve">D1b</t>
   </si>
   <si>
-    <t xml:space="preserve">A partir de maintenant veuillez répondre à toutes les questions comme si vous étiez la personne atteinte du trouble psychotique. Indiquez "je ne sais pas" si vous ne savez pas comment la personne répondrait.</t>
+    <t xml:space="preserve">From now on, please answer all questions as if you were the person with the psychotic disorder. Indicate "I don't know" if you do not know how the person would respond.</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">À quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Homme; [2] Femme; [3] Autre</t>
+    <t xml:space="preserve">Which gender do you identify with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Man; [2] Woman; [3] Other</t>
   </si>
   <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
-    <t xml:space="preserve">Quelle est votre année de naissance ?</t>
+    <t xml:space="preserve">What is your year of birth?</t>
   </si>
   <si>
     <t xml:space="preserve">END0</t>
   </si>
   <si>
-    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude.</t>
+    <t xml:space="preserve">Thank you for your participation. Unfortunately, you do not meet the conditions to continue this study.</t>
   </si>
   <si>
     <t xml:space="preserve">D4</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle province habitez-vous ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Anvers; [2] Brabant wallon; [3] Bruxelles; [4] Hainaut; [5] Liège; [6] Limbourg; [7] Luxembourg; [8] Namur; [9] Flandre orientale; [10] Brabant flamand; [11] Flandre occidentale ; [12] Je n’habite pas en Belgique; [13] Je ne sais pas</t>
+    <t xml:space="preserve">In which province do you live?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Antwerp; [2] Walloon Brabant; [3] Brussels; [4] Hainaut; [5] Liège; [6] Limburg; [7] Luxembourg; [8] Namur; [9] East Flanders; [10] Flemish Brabant; [11] West Flanders; [12] I do not live in Belgium; [13] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">END1</t>
@@ -119,226 +119,223 @@
     <t xml:space="preserve">D5</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas de diplôme ou enseignement primaire; [2] Enseignement secondaire inférieur; [3] Enseignement secondaire supérieur; [4] Enseignement supérieur de type court (p.ex. Bachelier); [5] Enseignement supérieur de type long (p.ex. Master); [6] Doctorat; [7] Je ne sais pas</t>
+    <t xml:space="preserve">What is the highest diploma or level of education you have obtained so far?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] No diploma or primary education; [2] Lower secondary education; [3] Upper secondary education; [4] Short-cycle higher education (e.g., Bachelor); [5] Long-cycle higher education (e.g., Master); [6] Doctorate; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D5_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel est le diplôme ou le niveau d’étude le plus élevé que vous avez obtenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Other] What is the highest diploma or level of education you have obtained so far?</t>
   </si>
   <si>
     <t xml:space="preserve">D6</t>
   </si>
   <si>
-    <t xml:space="preserve">Vous vivez …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Seul(e); [2] Seul(e) avec enfant(s); [3] En couple (sans enfants); [4] En couple (avec enfants); [5] Avec un ou deux parents; [6] En colocation ou habitat partagé; [7] En maison de soins psychiatriques; [8] En habitation protégée; [9] En logement supervisé; [10] A l'hôpital (temporairement); [11] En maison de repos; [12] Je ne sais pas</t>
+    <t xml:space="preserve">You live …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Alone; [2] Alone with child(ren); [3] With a partner (no children); [4] With a partner (with children); [5] With one or both parents; [6] In shared housing / flat share; [7] In a psychiatric nursing home; [8] In protected housing; [9] In supervised housing; [10] In hospital (temporarily); [11] In a nursing home; [12] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D6_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Vous vivez …</t>
+    <t xml:space="preserve">[Other] You live …</t>
   </si>
   <si>
     <t xml:space="preserve">D7</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel est votre pays de naissance ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Belgique; [2] Autre pays; [3] Je ne sais pas</t>
+    <t xml:space="preserve">What is your country of birth?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Belgium; [2] Another country; [3] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D8</t>
   </si>
   <si>
-    <t xml:space="preserve">Sélectionnez le pays concerné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Afghanistan; [2] Afrique du Sud; [3] Albanie; [4] Algérie; [5] Allemagne; [6] Andorre; [7] Angola; [8] Anguilla; [9] Antarctique; [10] Antigua et Barbuda; [11] Arabie Saoudite; [12] Argentine; [13] Arménie; [14] Aruba; [15] Australie; [16] Autriche; [17] Azerbaïdjan; [18] Bahamas; [19] Bahreïn; [20] Bangladesh; [21] Barbade; [22] Bélize; [23] Bénin; [24] Bermudes; [25] Bhoutan; [26] Biélorussie; [27] Bolivie; [28] Bonaire; [29] Bosnie - Herzégovine; [30] Botswana; [31] Brésil; [32] Brunei; [33] Bulgarie; [34] Burkina Faso; [35] Burundi; [36] Cambodge; [37] Cameroun; [38] Canada; [39] Cap-Vert; [40] Chili; [41] Chine; [42] Chypre; [43] Colombie; [44] Comores; [45] Congo (-Brazzaville); [46] Congo (République Démocratique); [47] Corée du Nord; [48] Corée du Sud (République de Corée); [49] Costa Rica; [50] Côte d'Ivoire; [51] Croatie; [52] Cuba; [53] Curaçao; [54] Danemark et îles Féroé; [55] Djibouti; [56] Dominique; [57] Egypte; [58] El Salvador; [59] Emirats Arabes Unis; [60] Equateur; [61] Erythrée; [62] Espagne et Iles Canaries; [63] Estonie; [64] eSwatini (Swaziland); [65] États-Unis d'Amérique; [66] Ethiopie; [67] Fidji; [68] Finlande; [69] France; [70] Gabon; [71] Gambie; [72] Géorgie; [73] Ghana; [74] Gibraltar; [75] Grèce; [76] Grenade; [77] Groenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinée-Bissau; [82] Guinée (Conakry); [83] Guinée equatoriale; [84] Guyana (Georgetown); [85] Guyane (Française); [86] Haïti; [87] Honduras; [88] Hong Kong; [89] Hongrie; [90] Ile Christmas; [91] Iles Caïmans; [92] Iles Cook; [93] Iles Malouines; [94] Iles Marshall; [95] Iles Salomon; [96] Iles Vierges (américaines); [97] Iles Vierges (britanniques); [98] Inde; [99] Indonésie; [100] Irak; [101] Iran; [102] Irlande; [103] Islande; [104] Israël; [105] Italie; [106] Jamaïque; [107] Japon; [108] Jordanie; [109] Kazakhstan; [110] Kenya; [111] Kirghizistan; [112] Kiribati; [113] Kosovo; [114] Koweït; [115] Laos; [116] Lesotho; [117] Lettonie; [118] Liban; [119] Libéria; [120] Libye; [121] Liechtenstein; [122] Lituanie; [123] Luxembourg; [124] Macao (Chine); [125] Macédoine du Nord; [126] Madagascar; [127] Malaisie; [128] Malawi; [129] Maldives; [130] Mali; [131] Malte; [132] Mariannes du Nord (Iles, américaines); [133] Maroc; [134] Martinique; [135] Maurice; [136] Mauritanie; [137] Mayotte; [138] Mexique; [139] Micronesie; [140] Moldova; [141] Monaco; [142] Mongolie; [143] Monténégro; [144] Montserrat (britannique); [145] Mozambique; [146] Myanmar; [147] Namibie; [148] Nauru; [149] Népal; [150] Nicaragua; [151] Niger; [152] Nigéria; [153] Niue; [154] Norvège; [155] Nouvelle-Calédonie; [156] Nouvelle-Zélande; [157] Oman; [158] Ouganda; [159] Ouzbékistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papouasie-Nouvelle-Guinée; [165] Paraguay; [166] Pays-Bas; [167] Pérou; [168] Philippines; [169] Pitcairn; [170] Pologne; [171] Polynésie (français); [172] Porto Rico; [173] Portugal, Açores, Madère; [174] Qatar; [175] République Centrafricaine; [176] République Dominicaine; [177] République tchèque; [178] Réunion; [179] Roumanie; [180] Royaume-Uni; [181] Russie; [182] Rwanda; [183] Sahara occidental; [184] Saint-Barthélemy; [185] Saint-Christophe-et-Niévès; [186] Saint-Eustache et Saba; [187] Saint-Marin; [188] Saint-Martin (France); [189] Saint-Martin (Pays-Bas); [190] Saint-Pierre-et-Miquelon; [191] Saint-Vincent-et-les-Grenadines; [192] Sainte-Hélène - Tristan Da Cunha - Ascension; [193] Sainte-Lucie; [194] Samoa; [195] Samoa (Américain); [196] Sao Tomé et Principe; [197] Sénégal; [198] Serbie; [199] Seychelles; [200] Sierra Leone; [201] Singapour; [202] Slovaquie; [203] Slovénie; [204] Somalie; [205] Soudan; [206] Soudan du Sud; [207] Sri Lanka; [208] Suède; [209] Suisse; [210] Suriname; [211] Syrie; [212] Tadjikistan; [213] Taiwan; [214] Tanzanie; [215] Tchad; [216] Thaïlande; [217] Timor oriental; [218] Togo; [219] Tokelau (Nouvelle-Zélande); [220] Tonga; [221] Trinité et Tobago; [222] Tunisie; [223] Turkménistan; [224] Turques-et-Caïques (britanniques); [225] Turquie; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis-et-Futuna; [233] Yémen; [234] Zambie; [235] Zimbabwe; [236] Je ne sais pas</t>
+    <t xml:space="preserve">Select the relevant country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Afghanistan; [2] South Africa; [3] Albania; [4] Algeria; [5] Germany; [6] Andorra; [7] Angola; [8] Anguilla; [9] Antarctica; [10] Antigua and Barbuda; [11] Saudi Arabia; [12] Argentina; [13] Armenia; [14] Aruba; [15] Australia; [16] Austria; [17] Azerbaijan; [18] The Bahamas; [19] Bahrain; [20] Bangladesh; [21] Barbados; [22] Belize; [23] Benin; [24] Bermuda; [25] Bhutan; [26] Belarus; [27] Bolivia; [28] Bonaire; [29] Bosnia and Herzegovina; [30] Botswana; [31] Brazil; [32] Brunei; [33] Bulgaria; [34] Burkina Faso; [35] Burundi; [36] Cambodia; [37] Cameroon; [38] Canada; [39] Cabo Verde; [40] Chile; [41] China; [42] Cyprus; [43] Colombia; [44] Comoros; [45] Congo (Brazzaville); [46] Congo (Democratic Republic); [47] North Korea; [48] South Korea (Republic of Korea); [49] Costa Rica; [50] Côte d’Ivoire; [51] Croatia; [52] Cuba; [53] Curaçao; [54] Denmark and the Faroe Islands; [55] Djibouti; [56] Dominica; [57] Egypt; [58] El Salvador; [59] United Arab Emirates; [60] Ecuador; [61] Eritrea; [62] Spain and the Canary Islands; [63] Estonia; [64] Eswatini (Swaziland); [65] United States of America; [66] Ethiopia; [67] Fiji; [68] Finland; [69] France; [70] Gabon; [71] Gambia; [72] Georgia; [73] Ghana; [74] Gibraltar; [75] Greece; [76] Grenada; [77] Greenland; [78] Guadeloupe; [79] Guam; [80] Guatemala; [81] Guinea-Bissau; [82] Guinea (Conakry); [83] Equatorial Guinea; [84] Guyana; [85] French Guiana; [86] Haiti; [87] Honduras; [88] Hong Kong; [89] Hungary; [90] Christmas Island; [91] Cayman Islands; [92] Cook Islands; [93] Falkland Islands; [94] Marshall Islands; [95] Solomon Islands; [96] U.S. Virgin Islands; [97] British Virgin Islands; [98] India; [99] Indonesia; [100] Iraq; [101] Iran; [102] Ireland; [103] Iceland; [104] Israel; [105] Italy; [106] Jamaica; [107] Japan; [108] Jordan; [109] Kazakhstan; [110] Kenya; [111] Kyrgyzstan; [112] Kiribati; [113] Kosovo; [114] Kuwait; [115] Laos; [116] Lesotho; [117] Latvia; [118] Lebanon; [119] Liberia; [120] Libya; [121] Liechtenstein; [122] Lithuania; [123] Luxembourg; [124] Macao (China); [125] North Macedonia; [126] Madagascar; [127] Malaysia; [128] Malawi; [129] Maldives; [130] Mali; [131] Malta; [132] Northern Mariana Islands (U.S.); [133] Morocco; [134] Martinique; [135] Mauritius; [136] Mauritania; [137] Mayotte; [138] Mexico; [139] Micronesia; [140] Moldova; [141] Monaco; [142] Mongolia; [143] Montenegro; [144] Montserrat; [145] Mozambique; [146] Myanmar; [147] Namibia; [148] Nauru; [149] Nepal; [150] Nicaragua; [151] Niger; [152] Nigeria; [153] Niue; [154] Norway; [155] New Caledonia; [156] New Zealand; [157] Oman; [158] Uganda; [159] Uzbekistan; [160] Pakistan; [161] Palau; [162] Palestine; [163] Panama; [164] Papua New Guinea; [165] Paraguay; [166] Netherlands; [167] Peru; [168] Philippines; [169] Pitcairn; [170] Poland; [171] French Polynesia; [172] Puerto Rico; [173] Portugal, Azores, Madeira; [174] Qatar; [175] Central African Republic; [176] Dominican Republic; [177] Czech Republic; [178] Réunion; [179] Romania; [180] United Kingdom; [181] Russia; [182] Rwanda; [183] Western Sahara; [184] Saint Barthélemy; [185] Saint Kitts and Nevis; [186] Sint Eustatius and Saba; [187] San Marino; [188] Saint Martin (France); [189] Sint Maarten (Netherlands); [190] Saint Pierre and Miquelon; [191] Saint Vincent and the Grenadines; [192] Saint Helena – Tristan da Cunha – Ascension; [193] Saint Lucia; [194] Samoa; [195] American Samoa; [196] São Tomé and Príncipe; [197] Senegal; [198] Serbia; [199] Seychelles; [200] Sierra Leone; [201] Singapore; [202] Slovakia; [203] Slovenia; [204] Somalia; [205] Sudan; [206] South Sudan; [207] Sri Lanka; [208] Sweden; [209] Switzerland; [210] Suriname; [211] Syria; [212] Tajikistan; [213] Taiwan; [214] Tanzania; [215] Chad; [216] Thailand; [217] Timor-Leste; [218] Togo; [219] Tokelau (New Zealand); [220] Tonga; [221] Trinidad and Tobago; [222] Tunisia; [223] Turkmenistan; [224] Turks and Caicos Islands; [225] Türkiye; [226] Tuvalu; [227] Ukraine; [228] Uruguay; [229] Vanuatu; [230] Venezuela; [231] Vietnam; [232] Wallis and Futuna; [233] Yemen; [234] Zambia; [235] Zimbabwe; [236] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D8_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Sélectionnez le pays concerné</t>
+    <t xml:space="preserve">[Other] Select the relevant country</t>
   </si>
   <si>
     <t xml:space="preserve">D9</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Emploi rémunéré (employé ou indépendant); [2] Demandeur/demandeuse d’emploi, chômage, CPAS; [3] Homme/femme au foyer, sans revenus; [4] Etudiant(e); [5] Pensionné(e); [6] Invalidité; [7] Je ne sais pas</t>
+    <t xml:space="preserve">What was your main employment status just before the onset of your psychotic disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Paid employment (employee or self-employed); [2] Job seeker, unemployed, social assistance; [3] Homemaker, no income; [4] Student; [5] Retired; [6] Disability; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D9_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel était votre principal statut professionnel juste avant le début de votre trouble psychotique  ?</t>
+    <t xml:space="preserve">[Other] What was your main employment status just before the onset of your psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">D10</t>
   </si>
   <si>
-    <t xml:space="preserve">Depuis le début de vos premiers symptômes psychotiques, avez-vous eu un emploi rémunéré?   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas</t>
+    <t xml:space="preserve">Since the onset of your first psychotic symptoms, have you had paid employment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] No; [3] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D11</t>
   </si>
   <si>
-    <t xml:space="preserve">Actuellement, quel est votre principal statut professionnel?</t>
+    <t xml:space="preserve">What is your current main employment status?</t>
   </si>
   <si>
     <t xml:space="preserve">D11_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Actuellement, quel est votre principal statut professionnel?</t>
+    <t xml:space="preserve">[Other] What is your current main employment status?</t>
   </si>
   <si>
     <t xml:space="preserve">D12</t>
   </si>
   <si>
-    <t xml:space="preserve">En tenant compte de tous les revenus de votre ménage, dans quelle mesure parvenez-vous à joindre les deux bouts à la fin de chaque mois ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Très facilement; [2] Facilement; [3] Assez facilement; [4] Avec quelque difficulté; [5] Avec difficulté; [6] Avec grande difficulté; [7] Je ne sais pas</t>
+    <t xml:space="preserve">Considering all income in your household, how easy or difficult is it to make ends meet at the end of each month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Very easily; [2] Easily; [3] Fairly easily; [4] With some difficulty; [5] With difficulty; [6] With great difficulty; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D13</t>
   </si>
   <si>
-    <t xml:space="preserve">Depuis combien de temps approximativement avez-vous reçu le diagnostic de trouble psychotique?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 6 mois; [2] 6 mois à 2 ans; [3] 2 à 5 ans; [4] 5 à 10 ans; [5] Plus de 10 ans; [6] Je ne sais pas</t>
+    <t xml:space="preserve">Approximately how long ago were you diagnosed with a psychotic disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Less than 6 months; [2] 6 months to 2 years; [3] 2 to 5 years; [4] 5 to 10 years; [5] More than 10 years; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">D13b</t>
   </si>
   <si>
-    <t xml:space="preserve">Indiquez approximativement le nombre d'années:</t>
+    <t xml:space="preserve">Please indicate the approximate number of years:</t>
   </si>
   <si>
     <t xml:space="preserve">DSHC1</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de temps est passé entre vos premiers symptômes psychotiques et le premier contact avec un psychiatre ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus de 2 ans; [6] Je ne sais pas</t>
+    <t xml:space="preserve">How much time passed between your first psychotic symptoms and your first contact with a psychiatrist?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Less than 1 month; [2] Between 1 month and 6 months; [3] Between 6 months and 1 year; [4] Between 1 year and 2 years; [5] More than 2 years; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC1</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de temps est passé entre votre premier rendez-vous médical pour le trouble psychotique et le diagnostic?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Moins de 1 mois; [2] Entre 1 mois et 6 mois; [3] Entre 6 mois et 1 an; [4] Entre 1 an et 2 ans; [5] Plus que 2 ans; [6] Je ne sais pas</t>
+    <t xml:space="preserve">How much time passed between your first medical appointment for the psychotic disorder and the diagnosis?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Schizophrénie] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non sélectionné</t>
+    <t xml:space="preserve">[Schizophrenia] Which diagnosis(es) have you received?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] Not selected</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble schizo-affectif] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Schizoaffective disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble schizophréniforme] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Schizophreniform disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A4</t>
   </si>
   <si>
-    <t xml:space="preserve">[ Trouble délirant] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Delusional disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique bref] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Brief psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique partagé] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Shared psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique induit par une substance] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Substance-induced psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique dû à une autre affection médicale] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Psychotic disorder due to another medical condition] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble psychotique non spécifié] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Unspecified psychotic disorder] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble bipolaire avec caractéristiques psychotiques] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Bipolar disorder with psychotic features] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[I don't know] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_A12</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne veux pas répondre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[I prefer not to answer] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD1_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel(s) diagnostic(s) avez-vous reçu(s) ?</t>
+    <t xml:space="preserve">[Other] Which diagnosis(es) have you received?</t>
   </si>
   <si>
     <t xml:space="preserve">END3</t>
   </si>
   <si>
-    <t xml:space="preserve">Merci pour votre participation.  Malheureusement, vous ne rentrez pas dans les conditions pour pouvoir poursuivre cette étude, car nous n'incluons pas les troubles psychotiques dû à une autre affection médicale.</t>
+    <t xml:space="preserve">Thank you for your participation. Unfortunately, you are not eligible to continue this study because we do not include psychotic disorders due to another medical condition.</t>
   </si>
   <si>
     <t xml:space="preserve">DSD2</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous déjà été hospitalisé(e) à cause du trouble psychotique? Considérez uniquement les hospitalisations avec nuitée(s)</t>
+    <t xml:space="preserve">Have you ever been hospitalized because of the psychotic disorder? Consider only hospitalizations with overnight stay(s).</t>
   </si>
   <si>
     <t xml:space="preserve">G00Q10</t>
@@ -350,1270 +347,1267 @@
     <t xml:space="preserve">DSD3_SQ1</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble obsessionnel compulsif (TOC)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Obsessive–compulsive disorder (OCD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dépression] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Depression] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble bipolaire] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Bipolar disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble de la consommation d'alcool] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Alcohol use disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble lié à l'usage de substances psychoactives / toxicomanie] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Substance use disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble anxieux ou trouble de panique] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Anxiety disorder or panic disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble du stress post-traumatique (TSPT)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Post-traumatic stress disorder (PTSD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble de la personnalité] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Personality disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble du spectre de l'autisme] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Autism spectrum disorder] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble déficit de l'attention avec ou sans hyperactivité (TDAH)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Attention-deficit/hyperactivity disorder (ADHD)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">DSD3_SQ11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble du comportement alimentaire (p.ex. anorexie, boulimie)] Avez-vous un ou plusieurs des problèmes de santé suivants pouvant-être associés au trouble psychotique ?</t>
+    <t xml:space="preserve">[Eating disorder (e.g., anorexia, bulimia)] Do you have one or more of the following health problems that may be associated with the psychotic disorder?</t>
   </si>
   <si>
     <t xml:space="preserve">D14</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous également d’ autre(s) problème(s) de santé ?</t>
+    <t xml:space="preserve">Do you also have any other health problem(s)?</t>
   </si>
   <si>
     <t xml:space="preserve">D15_2</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the heart or blood vessels (e.g., hypertension)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_2comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du cœur ou des vaisseaux sanguins (p.ex. hypertension)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the heart or blood vessels (e.g., hypertension)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_3</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the respiratory system (e.g., asthma)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_3comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du système respiratoire (p.ex. asthme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the respiratory system (e.g., asthma)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_4</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the digestive system (e.g., irritable bowel syndrome)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_4comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l'appareil digestif  (p.ex. syndrôme du colon irritable)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the digestive system (e.g., irritable bowel syndrome)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Skin disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_5comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de la peau ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Skin disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_6</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of bones, joints, or muscles (e.g., osteoarthritis, rheumatoid arthritis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_6comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie des os, articulations, ou muscles (p.ex. arthrose, arthrite rhumatoïde)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of bones, joints, or muscles (e.g., osteoarthritis, rheumatoid arthritis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_7</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Other mental or psychological disorder not mentioned in the previous question] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_7comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Autre trouble de santé mentale ou psychologique non mentionné dans la question précédente] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Other mental or psychological disorder not mentioned in the previous question] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_17</t>
   </si>
   <si>
-    <t xml:space="preserve">[Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Neurodevelopmental disorder (e.g., developmental delay)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_17comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Trouble neurodéveloppemental (p.ex. retard de développement)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Neurodevelopmental disorder (e.g., developmental delay)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_11</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the nervous system (neurological) (e.g., dementia, multiple sclerosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_11comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du système nerveux (neurologique) (p.ex. démence, sclérose en plaques)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the nervous system (neurological) (e.g., dementia, multiple sclerosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_8</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the blood (hematological) (e.g., anemia)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_8comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie du sang (hématologique) (p.ex. anémie)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the blood (hematological) (e.g., anemia)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_9</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Immune disease (e.g., allergies, autoinflammatory diseases)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_9comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie immunitaire (p.ex. allergies, maladies auto-inflammatoires)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Immune disease (e.g., allergies, autoinflammatory diseases)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_10</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Endocrine, nutritional, or metabolic disease (e.g., diabetes, high cholesterol, obesity, hypothyroidism)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_10comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie endocrinienne, nutritionnelle, ou métabolique (p.ex. diabète, cholestérol élevé, obésité, hypothyroïdisme)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Endocrine, nutritional, or metabolic disease (e.g., diabetes, high cholesterol, obesity, hypothyroidism)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_12</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Eye disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_12comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l'œil] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Eye disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_13</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Ear or vestibular system disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_13comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie de l’oreille ou du système vestibulaire ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Ear or vestibular system disease] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_14</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease of the reproductive organs or urinary system (e.g., kidney failure, endometriosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_14comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie des organes reproducteurs ou du système urinaire (p.ex. insuffisance rénale, endométriose)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease of the reproductive organs or urinary system (e.g., kidney failure, endometriosis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_18</t>
   </si>
   <si>
-    <t xml:space="preserve">[Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Sleep disorders (e.g., obstructive sleep apnea)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_18comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Troubles du sommeil (p.ex. apnée obstructive du sommeil)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Sleep disorders (e.g., obstructive sleep apnea)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_15</t>
   </si>
   <si>
-    <t xml:space="preserve">[Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Disease affecting multiple systems (e.g., psoriasis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_15comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Maladie qui touche plusieurs systèmes  (p.ex. psoriasis)] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [Disease affecting multiple systems (e.g., psoriasis)] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_19</t>
   </si>
   <si>
-    <t xml:space="preserve">[Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[No known diagnosis] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_19comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Pas de diagnostic connu] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [No known diagnosis] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_16</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[I don't know] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_16comment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire] [Je ne sais pas ] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment] [I don't know] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Other] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">D15_othercomment</t>
   </si>
   <si>
-    <t xml:space="preserve">[Commentaire pour autre] Quels autres problèmes de santé avez-vous ? Vous pouvez cocher plusieurs cases.  Veuillez également indiquer le nom précis de votre/vos problème(s) de santé si vous le(s) connaissez.Si vous ne connaissez pas (encore) le diagnostic de votre autre problème de santé, cochez la case “pas de diagnostic connu“.</t>
+    <t xml:space="preserve">[Comment for other] Which other health problems do you have? You may tick multiple boxes. Please also specify the exact name of your health problem(s) if you know it/them. If you do not (yet) know the diagnosis of your other health problem, tick “no known diagnosis”.</t>
   </si>
   <si>
     <t xml:space="preserve">H1</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre mobilité avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour me déplacer à pied.; [2] J’avais des problèmes légers pour me déplacer à pied.; [3] J’avais des problèmes modérés pour me déplacer à pied.; [4] J’avais des problèmes sévères pour me déplacer à pied.; [5] J’étais incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your mobility before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no problems walking.; [2] I had slight problems walking.; [3] I had moderate problems walking.; [4] I had severe problems walking.; [5] I was unable to walk.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H2</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre autonomie avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’avais des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’avais des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’avais des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] J’étais incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your self-care before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no problems washing or dressing by myself.; [2] I had slight problems washing or dressing by myself.; [3] I had moderate problems washing or dressing by myself.; [4] I had severe problems washing or dressing by myself.; [5] I was unable to wash or dress by myself.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H3</t>
   </si>
   <si>
-    <t xml:space="preserve">Vos activités courantes avant vos premiers symptômes de trouble psychotique (exemples: travail, études, faire des courses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais aucun problème pour accomplir mes activités courantes.; [2] J’avais des problèmes légers pour accomplir mes activités courantes.; [3] J’avais des problèmes modérés pour accomplir mes activités courantes.; [4] J’avais des problèmes sévères pour accomplir mes activités courantes.; [5] J’étais incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your usual activities before your first psychotic symptoms (e.g., work, study, shopping, housework, using public transport, activities with family or seeing friends, leisure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no problems performing my usual activities.; [2] I had slight problems performing my usual activities.; [3] I had moderate problems performing my usual activities.; [4] I had severe problems performing my usual activities.; [5] I was unable to perform my usual activities.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H4</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre douleur ou gêne avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’avais ni douleur ni gêne.; [2] J’avais des douleurs ou une gêne légère(s).; [3] J’avais des douleurs ou une gêne modérée(s).; [4] J’avais des douleurs ou une gêne sévère(s).; [5] J’avais des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your pain or discomfort before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I had no pain or discomfort.; [2] I had slight pain or discomfort.; [3] I had moderate pain or discomfort.; [4] I had severe pain or discomfort.; [5] I had extreme pain or discomfort.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H5</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre anxiété ou dépression avant vos premiers symptômes de trouble psychotique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’étais ni anxieux(se), ni déprimé(e).; [2] J’étais légèrement anxieux(se) ou déprimé(e).; [3] J’étais modérément anxieux(se) ou déprimé(e).; [4] J’étais sévèrement anxieux(se) ou déprimé(e).; [5] J’étais extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your anxiety or depression before your first psychotic symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I was not anxious or depressed.; [2] I was slightly anxious or depressed.; [3] I was moderately anxious or depressed.; [4] I was severely anxious or depressed.; [5] I was extremely anxious or depressed.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H6</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé était bonne ou mauvaise AVANT vos premiers symptômes de trouble psychotique sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AVANT vos premiers symptômes de trouble psychotique.</t>
+    <t xml:space="preserve">We would like to know how good or bad your health was BEFORE your first psychotic symptoms on a scale from 0 to 100. 100 means the best health you can imagine; 0 means the worst health you can imagine. Please enter a number between 0 and 100 to indicate your health BEFORE your first psychotic symptoms.</t>
   </si>
   <si>
     <t xml:space="preserve">TXT</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions connaitre votre état de santé actuel, tel que vous le vivez aujourd'hui. Veuillez cocher la case à côté de l'affirmation qui décrit le mieux votre santé AUJOURD'HUI.</t>
+    <t xml:space="preserve">We would like to know your current health status, as you experience it today. Please tick the box next to the statement that best describes your health TODAY.</t>
   </si>
   <si>
     <t xml:space="preserve">H7</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre mobilité aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour me déplacer à pied.; [2] J’ai des problèmes légers pour me déplacer à pied.; [3] J’ai des problèmes modérés pour me déplacer à pied.; [4] J’ai des problèmes sévères pour me déplacer à pied.; [5] Je suis incapable de me déplacer à pied.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your mobility today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no problems walking.; [2] I have slight problems walking.; [3] I have moderate problems walking.; [4] I have severe problems walking.; [5] I am unable to walk.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H8</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre autonomie aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour me laver ou m’habiller tout(e) seul(e).; [2] J’ai des problèmes légers pour me laver ou m’habiller tout(e) seul(e).; [3] J’ai des problèmes modérés pour me laver ou m’habiller tout(e) seul(e).; [4] J’ai des problèmes sévères pour me laver ou m’habiller tout(e) seul(e).; [5] Je suis incapable de me laver ou de m’habiller tout(e) seul(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your self-care today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no problems washing or dressing by myself.; [2] I have slight problems washing or dressing by myself.; [3] I have moderate problems washing or dressing by myself.; [4] I have severe problems washing or dressing by myself.; [5] I am unable to wash or dress by myself.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H9</t>
   </si>
   <si>
-    <t xml:space="preserve">Vos activités courantes aujourd'hui (exemples: travail, études, faire des couses, faire le ménage, prendre des transports en commun, activités avec la famille ou voir des amis, loisirs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai aucun problème pour accomplir mes activités courantes.; [2] J’ai des problèmes légers pour accomplir mes activités courantes.; [3] J’ai des problèmes modérés pour accomplir mes activités courantes.; [4] J’ai des problèmes sévères pour accomplir mes activités courantes.; [5] Je suis incapable d’accomplir mes activités courantes.; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your usual activities today (e.g., work, study, shopping, housework, using public transport, activities with family or seeing friends, leisure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no problems performing my usual activities.; [2] I have slight problems performing my usual activities.; [3] I have moderate problems performing my usual activities.; [4] I have severe problems performing my usual activities.; [5] I am unable to perform my usual activities.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H10</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre douleur ou gêne aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n’ai ni douleur ni gêne.; [2] J’ai des douleurs ou une gêne légère(s).; [3] J’ai des douleurs ou une gêne modérée(s).; [4] J’ai des douleurs ou une gêne sévère(s).; [5] J’ai des douleurs ou une gêne extrême(s).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your pain or discomfort today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have no pain or discomfort.; [2] I have slight pain or discomfort.; [3] I have moderate pain or discomfort.; [4] I have severe pain or discomfort.; [5] I have extreme pain or discomfort.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H11</t>
   </si>
   <si>
-    <t xml:space="preserve">Votre anxiété ou dépression aujourd'hui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je ne suis ni anxieux(se), ni déprimé(e).; [2] Je suis légèrement anxieux(se) ou déprimé(e).; [3] Je suis modérément anxieux(se) ou déprimé(e).; [4] Je suis sévèrement anxieux(se) ou déprimé(e).; [5] Je suis extrêmement anxieux(se) ou déprimé(e).; [6] Je ne sais pas.</t>
+    <t xml:space="preserve">Your anxiety or depression today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I am not anxious or depressed.; [2] I am slightly anxious or depressed.; [3] I am moderately anxious or depressed.; [4] I am severely anxious or depressed.; [5] I am extremely anxious or depressed.; [6] I don't know.</t>
   </si>
   <si>
     <t xml:space="preserve">H12</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions savoir dans quelle mesure votre santé est bonne ou mauvaise AUJOURD'HUI sur une échelle de 0 à 100.   100 correspond à la meilleure santé que vous puissiez imaginer. 0 correspond à la pire santé que vous puissiez imaginer.  Veuillez entrer un nombre entre 0 et 100 afin d’indiquer votre état de santé AUJOURD'HUI.</t>
+    <t xml:space="preserve">We would like to know how good or bad your health is TODAY on a scale from 0 to 100. 100 means the best health you can imagine; 0 means the worst health you can imagine. Please enter a number between 0 and 100 to indicate your health TODAY.</t>
   </si>
   <si>
     <t xml:space="preserve">HC2</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous reçu un traitement lié à votre trouble psychotique dans les 5 dernières années?</t>
+    <t xml:space="preserve">Have you received treatment related to your psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Médicaments antipsychotiques « atypiques » (de 2ème génération) (p.ex. Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quétiapine, Risperidone, Serdolect)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Atypical (second-generation) antipsychotics (e.g., Aripiprazole, Abilify, Sycrest, Reagila, Olanzapine, Zypadhera, Invega, Xeplion, Trevicta, Quetiapine, Risperidone, Serdolect)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Médicaments antipsychotiques « classiques » (de 1ère génération) (p.ex. Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Typical (first-generation) antipsychotics (e.g., Clopixol, Haldol, Nozinan, Fluanxol, Etumine, Deanxit)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Clozapine (p.ex. Clozapine Sandoz, Leponex)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Clozapine (e.g., Clozapine Sandoz, Leponex)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Antidépresseurs utilisés pour traiter la dépression, le trouble obsessionel compulsif, ou trouble de panique (p.ex. Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Antidepressants used to treat depression, obsessive–compulsive disorder, or panic disorder (e.g., Citalopram, Escitalopram, Fluoxetine, Sertraline, Edronax, Redomex, Duloxetine, Venlafaxine)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tranquillisants (p.ex. Diazepam, Valium, Lormetazepam, Lorazepam)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Tranquilizers (e.g., Diazepam, Valium, Lormetazepam, Lorazepam)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Psychothérapie (p.ex. thérapie cognitivo-comportementale, psychoéducation, etc)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Psychotherapy (e.g., cognitive behavioral therapy, psychoeducation, etc.)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Electroconvulsivothérapie (ECT)] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Electroconvulsive therapy (ECT)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre stimulation cérébrale non invasive : stimulation transcrânienne à courant direct (tDCS), ou la stimulation magnétique transcrânienne répétitive (rTMS).] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Other non-invasive brain stimulation: transcranial direct current stimulation (tDCS) or repetitive transcranial magnetic stimulation (rTMS)] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stimulation cérébrale profonde] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Deep brain stimulation] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Exercice physique] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Physical exercise] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien par les pairs] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Peer support] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas ] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[I don't know] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC3_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quels traitements avez-vous reçus pour le trouble psychotique dans les 5 dernières années ?</t>
+    <t xml:space="preserve">[Other] Which treatments have you received for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Prise de poids] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Weight gain] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabète] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Hyperglycemia (high blood sugar) or diabetes] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[High cholesterol (excess blood lipids)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de globules blancs] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Low white blood cell count] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ019</t>
   </si>
   <si>
-    <t xml:space="preserve">[Troubles du mouvement] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Movement disorders] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Agitation, difficulty staying still, urge to move] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Contractions musculaires involontaires, et parfois douloureuses] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Involuntary, sometimes painful, muscle contractions] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Tremors and/or facial rigidity] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou cligner des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Involuntary facial movements, such as chewing, tongue protrusion, or eye blinking] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue ou somnolence] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Fatigue or drowsiness] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Vertiges] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Dizziness] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Dry mouth or eyes] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Nausées] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Nausea] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Constipation] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Constipation] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Myocarditis (inflammation of the heart muscle)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Sexual dysfunction (e.g., decreased libido)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Memory problems or “brain fog”] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Émoussement affectif (manque de motivation, manque d'intérêt)] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Affective blunting (lack of motivation, lack of interest)] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aucun effet indésirable] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[No side effects] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC4_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Quel(s) effet(s) indésirable(s) avez-vous eu pendant ou après le traitement du trouble psychotique dans les 5 dernières années? </t>
+    <t xml:space="preserve">[Other] Which side effect(s) did you have during or after treatment for the psychotic disorder in the past 5 years?</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Prise de poids] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout pénible; [2] Légèrement pénible; [3] Modérément pénible; [4] Très pénible; [5] Extrêmement pénible; [6] Je ne sais pas</t>
+    <t xml:space="preserve">[Weight gain] Indicate how burdensome each side effect was for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all burdensome; [2] Slightly burdensome; [3] Moderately burdensome; [4] Very burdensome; [5] Extremely burdensome; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Hyperglycémie (taux de sucre élevé) ou diabete] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Hyperglycemia (high blood sugar) or diabetes] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Taux élevé de cholestérol (excès de graisses sanguines)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[High cholesterol (excess blood lipids)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de globules blancs] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Low white blood cell count] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, difficulté à rester immobile, besoin de bouger] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Agitation, difficulty staying still, urge to move] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Contractions musculaires involontaires et parfois douloureuses] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Involuntary and sometimes painful muscle contractions] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Tremblements et/ou rigidité faciale] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Tremors and/or facial rigidity] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Mouvements involontaires du visage, comme mâchonner, tirer la langue ou clinger des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Involuntary facial movements, such as chewing, sticking out the tongue, or blinking] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue ou somnolence] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Fatigue or drowsiness] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Vertiges] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Dizziness] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sécheresse de la bouche ou des yeux] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Dry mouth or eyes] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[Naussées] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Nausea] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Constipation] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Constipation] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Myocardite (inflammation du muscle cardiaque)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Myocarditis (inflammation of the heart muscle)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Dysfonction sexuelle (p.ex. baisse de la libido)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Sexual dysfunction (e.g., decreased libido)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problèmes de mémoire ou "brouillard mental"] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Memory problems or “brain fog”] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Emoussement affectif (manque de motivation, manque d'intérêt)] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[Affective blunting (lack of motivation, lack of interest)] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC5_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aucun effet indésirable] Indiquez dans quelle mesure chacun des effets indésirables était pénible pour vous.</t>
+    <t xml:space="preserve">[No side effects] Indicate how burdensome each side effect was for you.</t>
   </si>
   <si>
     <t xml:space="preserve">HC6</t>
   </si>
   <si>
-    <t xml:space="preserve">En dehors des effets indésirables, dans quelle mesure le traitement que vous avez reçu pour le trouble psychotique au cours des 5 dernières années, a-t-il été pénible pour vous? Par exemple, en raison de l'administration par injection, du besoin de se rendre à l'hôpital pour recevoir le traitement, d'un horaire de prise contraignant, de la nécessité de conserver le médicament au frigo, etc.</t>
+    <t xml:space="preserve">Apart from side effects, how burdensome was the treatment you received for the psychotic disorder in the past 5 years? For example, due to injections, needing to go to the hospital to receive treatment, a strict dosing schedule, the need to keep the medication refrigerated, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[L'impression que l'on dise à la télévision ou que l'on écrive dans les journaux des choses spécialement pour vous, l'impression que l'on cherche volontairement à vous nuire, l'impression qu'il y a un complot dirigé contre vous, l'impression d'entendre vos pensées répétées comme par un écho, ou d’autres perceptions altérées de la réalité.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Je n'ai pas eu ce symptôme; [2] Pas du tout pénible; [3] Légèrement pénible; [4] Modérément pénible; [5] Très pénible; [6] Extrêmement pénible; [7] Je ne sais pas</t>
+    <t xml:space="preserve">[The feeling that things are said on TV or written in newspapers especially about you; that people are deliberately trying to harm you; that there is a conspiracy against you; the feeling of hearing your thoughts repeated like an echo; or other altered perceptions of reality.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] I have not had this symptom; [2] Not at all burdensome; [3] Slightly burdensome; [4] Moderately burdensome; [5] Very burdensome; [6] Extremely burdensome; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[Entendre, voir ou ressentir quelque chose qui n’est pas là. Par exemple, entendre une ou plusieurs voix alors que vous êtes tout(e) seul(e) ; voir des objets, des personnes ou des animaux que les autres personnes ne voient pas.  ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Hearing, seeing, or feeling something that is not there. For example, hearing one or more voices when you are alone; seeing objects, people, or animals that others do not see.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ016</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sensation d’influence, de contrôle, ou de passivité. Par exemple, l'impression d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres. L'impression d'être sous le contrôle d’une force ou d’un pouvoir extérieur à vous-même.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Feelings of influence, control, or passivity. For example, the impression of having thoughts in your head that you do not recognize as your own; the feeling of being controlled by a force or power outside yourself.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ017</t>
   </si>
   <si>
-    <t xml:space="preserve">[Désorganisation de la pensée, comme le sentiment d’avoir l’esprit vide, ou l'impression que vos pensées ont été enlevées ou extraites de votre tête, ou d'avoir dans votre tête des pensées que vous ne reconnaissez pas comme les vôtres] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Disorganized thinking, such as feeling that your mind is blank, the impression that your thoughts have been taken out of your head, or having thoughts in your head that you do not recognize as your own.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ018</t>
   </si>
   <si>
-    <t xml:space="preserve">[Désorganisation du comportement. Par exemple, le sentiment que vous négligez votre apparence ou votre hygiène personnelle, ou le sentiment que vous n’arrivez jamais à terminer ce que vous faites.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Disorganized behavior. For example, feeling you neglect your appearance or personal hygiene, or feeling you never manage to finish what you start.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ019</t>
   </si>
   <si>
-    <t xml:space="preserve">[Incapacité à éprouver de l’intérêt ou du plaisir, manque de motivation ou d’enthousiasme, sentiment que vos émotions sont émoussées.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Inability to feel interest or pleasure, lack of motivation or enthusiasm, feeling that your emotions are blunted.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ020</t>
   </si>
   <si>
-    <t xml:space="preserve">[Isolement social, ou le sentiment que vous n’éprouvez pas d’intérêt à être avec d’autres personnes.] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Social isolation, or feeling you have no interest in being with other people.] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ021</t>
   </si>
   <si>
-    <t xml:space="preserve">[Agitation, ou sentiment de tension] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Agitation or feeling tense] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problèmes de concentration ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Problems with concentration] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Fatigue ou épuisement ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Fatigue or exhaustion] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Peur ou anxiété ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Fear or anxiety] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Sentiment d'abattement, de déprime, ou de tristesse ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Feeling down, depressed, or sad] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stress] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Stress] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Comportements ou envies de se faire du mal ou de se blesser] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Self-harm behaviors or urges] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[L'impression de n'avoir plus envie de vivre] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Feeling that you no longer want to live] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Stigmatisation ou sentiment de discrimination ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Stigma or feeling discriminated against] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Perte de confiance en soi ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Loss of self-confidence] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H13_SQ022</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre ] Depuis que vous êtes suivi(e) ou traité(e) pour le trouble psychotique, quels symptômes parmi les suivants avez-vous ressenti et dans quelle mesure étaient-ils pénibles pour vous ? Ne tenez pas compte des effets indésirables du traitement.</t>
+    <t xml:space="preserve">[Other] Since you have been followed or treated for the psychotic disorder, which of the following symptoms have you experienced and how burdensome were they for you? Do not take treatment side effects into account.</t>
   </si>
   <si>
     <t xml:space="preserve">H14</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure est-ce que le trouble psychotique a interféré avec votre vie sexuelle ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas; [8] Je ne veux pas répondre</t>
+    <t xml:space="preserve">To what extent has the psychotic disorder interfered with your sexual life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable; [8] I prefer not to answer</t>
   </si>
   <si>
     <t xml:space="preserve">H15</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure le trouble psychotique a-t-il interféré avec votre vie reproductive, c’est-à-dire avec votre possibilité ou décision de concevoir naturellement des enfants ou de mener à terme une grossesse?Par exemple: FIV (Fécondation in Vitro), dépistage génétique, don de sperme/ovocytes, nécessité de retarder une grossesse, ou renoncé à avoir des enfants biologiques à cause du trouble psychotique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas (p.ex. vous n'avez pas encore envisagé d'avoir des enfants, ou vous n'étiez pas touché par le trouble ; [8] Je ne veux pas répondre</t>
+    <t xml:space="preserve">To what extent has the psychotic disorder interfered with your reproductive life, i.e., with your ability or decision to conceive children naturally or to carry a pregnancy to term? For example: IVF, genetic screening, sperm/egg donation, needing to delay a pregnancy, or giving up having biological children because of the psychotic disorder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable (e.g., you have not yet considered having children, or you were not affected by the disorder ; [8] I prefer not to answer</t>
   </si>
   <si>
     <t xml:space="preserve">INFO</t>
   </si>
   <si>
-    <t xml:space="preserve">Par 'prise en charge' nous entendons l'ensemble des rendez-vous, traitements, et accompagnements proposés par les professionnels de santé pour gérer et améliorer votre état de santé en lien avec le trouble psychotique.</t>
+    <t xml:space="preserve">By ‘care’ we mean all appointments, treatments, and supports offered by health professionals to manage and improve your health related to the psychotic disorder.</t>
   </si>
   <si>
     <t xml:space="preserve">HC7</t>
   </si>
   <si>
-    <t xml:space="preserve">Considérez-vous que votre prise en charge a été bien organisée et planifiée au fil du temps?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Toujours; [2] Souvent; [3] Parfois; [4] Rarement; [5] Jamais; [6] Je ne sais pas</t>
+    <t xml:space="preserve">Do you consider that your care has been well organized and planned over time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Always; [2] Often; [3] Sometimes; [4] Rarely; [5] Never; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC8</t>
   </si>
   <si>
-    <t xml:space="preserve">Avez-vous un ou plusieurs professionnels de santé qui sont responsables de la coordination des différents services médicaux dont vous avez besoin ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non; [3] Je ne sais pas; [4] Ne s’applique pas : le suivi se fait uniquement dans un service, sans besoin de coordination</t>
+    <t xml:space="preserve">Do you have one or more health professionals who are responsible for coordinating the different medical services you need?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] No; [3] I don't know; [4] Not applicable: follow-up is only in one service, with no need for coordination</t>
   </si>
   <si>
     <t xml:space="preserve">HC9</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure voyez-vous le(s) même(s) professionnel(s) de santé pendant vos rendez-vous ou examens réguliers ?</t>
+    <t xml:space="preserve">To what extent do you see the same health professional(s) during your regular appointments or examinations?</t>
   </si>
   <si>
     <t xml:space="preserve">HC10</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure recevez-vous suffisamment d'informations utiles et compréhensibles de la part de vos professionnels de santé? </t>
+    <t xml:space="preserve">To what extent do you receive enough useful and understandable information from your health professionals?</t>
   </si>
   <si>
     <t xml:space="preserve">HC11</t>
   </si>
   <si>
-    <t xml:space="preserve">Êtes-vous impliqué(e) autant que vous le souhaitez dans les décisions concernant vos soins ou votre traitement ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui, certainement; [2] Oui, dans une certaine mesure; [3] Non, pas vraiment; [4] Non, certainement pas; [5] Non, mais je ne voulais de toute façon pas être impliqué(e); [6] Pas applicable: pas de décisions prises à propos du traitement; [7] Je ne sais pas</t>
+    <t xml:space="preserve">Are you involved as much as you wish in decisions about your care or treatment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes, definitely; [2] Yes, to some extent; [3] No, not really; [4] No, definitely not; [5] No, but I did not want to be involved anyway; [6] Not applicable: no decisions were made about treatment; [7] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">HC12</t>
   </si>
   <si>
-    <t xml:space="preserve">Au cours des 12 derniers mois, y a-t-il des soins pour le trouble psychotique que vous n’avez pas obtenus alors que vous en auriez eu besoin ? Il peut s’agir d’une consultation, d’un traitement, d’analyses médicales, de rééducation, ou autre.</t>
+    <t xml:space="preserve">In the past 12 months, was there any care for the psychotic disorder that you did not receive even though you needed it? This could be a consultation, treatment, medical tests, rehabilitation, or other.</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Distance entre le domicile et le lieu de soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Distance between home and place of care] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Problème de transport (par exemple pas de transport en commun à proximité, pas de véhicule personnel, impossibilité de conduire votre propre véhicule, personne pour vous emmener sur le lieu de vos soins)] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Transport problem (e.g., no nearby public transport, no personal vehicle, unable to drive your own vehicle, no one to take you to your care location)] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de personnel compétent pour vous administrer les soins dont vous avez besoin] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Lack of qualified staff to provide the care you need] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Délais d'attente très longs] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Very long waiting times] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Difficultés pour payer les soins] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Difficulties paying for care] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Peur des examens médicaux, de l'hôpital, ou d'autre chose] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Fear of medical tests, the hospital, or something else] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque de temps à cause du travail, des enfants, ou autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Lack of time because of work, children, or other] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Manque d'information] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Lack of information] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Difficultés liées à la langue] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Language difficulties] What were the main reason(s) you did not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">HC13_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Pour quelle(s) raison(s) principale(s) n'avez-vous pas reçu les soins dont vous aviez besoin?</t>
+    <t xml:space="preserve">[Other] For what main reason(s) did you not receive the care you needed?</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure votre scolarité ou vos études ont-elles été affectées par le trouble psychotique, en termes de présence, de performance, de réussite, ou de choix d'études?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas; [7] Ne s’applique pas: le trouble psychotique est survenu après que la scolarité/les études soient terminées</t>
+    <t xml:space="preserve">To what extent has your schooling or studies been affected by the psychotic disorder, in terms of attendance, performance, achievement, or choice of studies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know; [7] Not applicable: the psychotic disorder occurred after schooling/studies were completed</t>
   </si>
   <si>
     <t xml:space="preserve">S2</t>
   </si>
   <si>
-    <t xml:space="preserve">En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui, je travaille moins qu'avant en raison de mon trouble psychotique; [2] Oui, j’ai arrêté de travailler en raison de mon trouble psychotique; [3] Non, le trouble psychotique n’a pas eu d’impact sur mon temps de travail; [4] Je ne sais pas</t>
+    <t xml:space="preserve">Because of the psychotic disorder, have you reduced your working time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes, I work less than before because of my psychotic disorder; [2] Yes, I stopped working because of my psychotic disorder; [3] No, the psychotic disorder did not affect my working time; [4] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">S2_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] En raison du trouble psychotique, avez-vous diminué votre temps de travail?</t>
+    <t xml:space="preserve">[Other] Because of the psychotic disorder, have you reduced your working time?</t>
   </si>
   <si>
     <t xml:space="preserve">S3</t>
   </si>
   <si>
-    <t xml:space="preserve">Combien de temps, approximativement, avez-vous été en incapacité de travailler en raison de votre trouble psychotique?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pendant moins de 1 mois; [2] Pendant 1 à 3 mois ; [3] Pendant 4 mois à 1 an; [4] Pendant plus de 1 an; [5] Je ne sais pas</t>
+    <t xml:space="preserve">Approximately how long were you unable to work because of your psychotic disorder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Less than 1 month; [2] 1 to 3 months; [3] 4 months to 1 year; [4] More than 1 year; [5] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">S3b</t>
   </si>
   <si>
-    <t xml:space="preserve">Veuillez indiquez approximativement le nombre d’années:  </t>
+    <t xml:space="preserve">Please indicate approximately the number of years:</t>
   </si>
   <si>
     <t xml:space="preserve">TXT1</t>
   </si>
   <si>
-    <t xml:space="preserve">La prochaine question concerne les sept derniers jours, sans inclure aujourd'hui.</t>
+    <t xml:space="preserve">The next question concerns the past seven days, not including today.</t>
   </si>
   <si>
     <t xml:space="preserve">S4_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[| 0 = Le trouble psychotique n’a eu aucun effet sur mon travail | 10 = En raison du trouble psychotique, je n’ai pas pu travailler du tout] Au cours des sept derniers jours, dans quelle mesure le trouble psychotique a-t-il affecté votre productivité pendant que vous travailliez ?  Pensez aux jours où vous avez été limité(e) dans la quantité ou le type de travail que vous pouviez effectuer, aux jours où vous avez accompli moins que vous ne l'auriez souhaité ou aux jours où vous n'avez pas pu faire votre travail avec autant de soin que d'habitude. Si le trouble psychotique n'a que peu affecté votre travail, choisissez un chiffre faible. Choisissez un chiffre élevé si le trouble psychotique a beaucoup affecté votre travail.   </t>
+    <t xml:space="preserve">[| 0 = The psychotic disorder had no effect on my work | 10 = Because of the psychotic disorder, I was not able to work at all] Over the past seven days, to what extent has the psychotic disorder affected your productivity while working? Think of days when you were limited in the amount or type of work you could do, days when you accomplished less than you would have liked, or days when you could not do your work as carefully as usual. Choose a low number if the psychotic disorder had little impact on your work. Choose a high number if it had a strong impact.</t>
   </si>
   <si>
     <t xml:space="preserve">S5</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique ou votre traitement médical vous a-t-il causé des difficultés financières?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout; [2] Légèrement; [3] Modérément; [4] Beaucoup; [5] Extrêmement; [6] Je ne sais pas</t>
+    <t xml:space="preserve">To what extent has your psychotic disorder or medical treatment caused you financial difficulties?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all; [2] Slightly; [3] Moderately; [4] A lot; [5] Extremely; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">S6</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans quelle mesure votre trouble psychotique interfère-t-il avec vos relations avec la famille, votre partenaire, vos amis, ou voisins ?</t>
+    <t xml:space="preserve">To what extent does your psychotic disorder interfere with your relationships with family, your partner, friends, or neighbors?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aucun soutien supplémentaire ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[No additional support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aide logistique (par exemple: nettoyage, cuisine, courses, transport, garde d'enfants)] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Practical help (e.g., cleaning, cooking, shopping, transport, childcare)] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[Parler à d’autres patients atteints d'un trouble psychotique] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Talking to other patients with a psychotic disorder] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien psychologique ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Psychological support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien médical ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Medical support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[Aide administrative ou sociale ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Administrative or social assistance] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien pour l'adaptation de l'environnement, ou matériel adapté] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Support for environmental adaptations or assistive equipment] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien pour le retour au travail ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Return-to-work support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[Soutien scolaire ou pour les études] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[School or study support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[Accompagnement spirituel ou religieux ] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Spiritual or religious support] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[Je ne sais pas] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[I don't know] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">S7_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] À cause du trouble psychotique, de quels types de soutien supplémentaire avez-vous eu besoin, sans y être parvenu jusqu’à présent?</t>
+    <t xml:space="preserve">[Other] Because of the psychotic disorder, what types of additional support have you needed but have not been able to obtain so far?</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ001</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact du trouble psychotique sur la qualité de vie générale (impact sur la mobilité, l'autonomie, la capacité à vous habiller et laver seul, la gêne ou douleur, l'anxiété ou la dépression; années vécues avec une incapacité)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Pas du tout prioritaire; [2] Légèrement prioritaire; [3] Modérément prioritaire; [4] Très prioritaire; [5] Extrêmement prioritaire; [6] Je ne sais pas</t>
+    <t xml:space="preserve">[Impact of the psychotic disorder on overall quality of life (impact on mobility, self-care, ability to dress and wash independently, pain/discomfort, anxiety or depression; years lived with disability)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Not at all a priority; [2] Slight priority; [3] Moderate priority; [4] High priority; [5] Extremely high priority; [6] I don't know</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ002</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre santé physique (symptômes physiques, gêne ou douleur liées au à le touble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your physical health (physical symptoms, pain or discomfort related to the psychotic disorder)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ003</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact  sur votre santé psychologique (symptômes psychologiques, anxiété, ou dépression liées au à le trouble psychotique)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your psychological health (psychological symptoms, anxiety, or depression related to the psychotic disorder)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ004</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre autonomie (impact sur votre mobilité, sur votre capacité à vous laver et habiller seul(e) ; capacité à accomplir vos activités courantes comme le travail, études, travaux ménagers, activités familiales, ou loisirs)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your independence (impact on mobility, ability to wash and dress independently; ability to carry out usual activities such as work, studies, housework, family activities, or leisure)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ005</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre vie sexuelle et reproductive] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your sexual and reproductive life] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ006</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur l’espérance de vie] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on life expectancy] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ007</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre scolarité ou vos études] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your schooling or studies] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ008</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre travail] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your work] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ009</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact financier] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Financial impact] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ010</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’impact sur votre vie sociale (relations avec la famille, votre partenaire, ou vos amis ; besoin de soutien supplémentaire- administratif, social, etc)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Impact on your social life (relationships with family, your partner, or friends; need for additional support—administrative, social, etc.)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ011</t>
   </si>
   <si>
-    <t xml:space="preserve">[La qualité de votre prise en charge (la rapidité du diagnostic, la coordination et la continuité des soins, les informations reçues par les professionnels de santé, l’implication dans les décisions concernant vos soins ou traitements)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Quality of your care (speed of diagnosis, coordination and continuity of care, information received from healthcare professionals, involvement in decisions about your care or treatments)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ012</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’accès aux soins de santé (obtenir des soins lorsque vous en avez besoin, la disponibilité du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Access to healthcare (obtaining care when needed, availability of treatment)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ013</t>
   </si>
   <si>
-    <t xml:space="preserve">[Les connaissances scientifiques (par exemple en termes de diagnostic, de traitement, ou de pronostic)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Scientific knowledge (e.g., regarding diagnosis, treatment, or prognosis)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ014</t>
   </si>
   <si>
-    <t xml:space="preserve">[L’efficacité du traitement (capacité du traitement à contrôler les symptômes et améliorer la qualité de vie)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Treatment effectiveness (ability of the treatment to control symptoms and improve quality of life)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">P1_SQ015</t>
   </si>
   <si>
-    <t xml:space="preserve">[La pénibilité du traitement (en termes d’effets indésirables ou en termes de logistique/administration du traitement)] Selon vous, quels aspects de votre trouble psychotique ou de sa prise en charge devraient être améliorés en priorité ? Veuillez évaluer chaque aspect selon l’importance que vous lui accordez.</t>
+    <t xml:space="preserve">[Treatment burden (in terms of side effects or in terms of logistics/administration of the treatment)] In your opinion, which aspects of your psychotic disorder or its management should be improved as a priority? Please rate each aspect according to the importance you give it.</t>
   </si>
   <si>
     <t xml:space="preserve">G1</t>
   </si>
   <si>
-    <t xml:space="preserve">Souhaitez-vous nous faire part d'un ou de plusieurs autres besoins importants que vous n'avez pas pu exprimer dans le questionnaire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Oui; [2] Non</t>
+    <t xml:space="preserve">Would you like to tell us about any other important needs that you were not able to express in the questionnaire?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Yes; [2] No</t>
   </si>
   <si>
     <t xml:space="preserve">G2</t>
   </si>
   <si>
-    <t xml:space="preserve">Quels besoins n'ont pas été abordés dans le questionnaire ?</t>
+    <t xml:space="preserve">Which needs were not addressed in the questionnaire?</t>
   </si>
   <si>
     <t xml:space="preserve">CG1</t>
   </si>
   <si>
-    <t xml:space="preserve">En tant que personne remplissant le questionnaire pour quelqu’un atteint d’un trouble psychotique: vous considérez-vous comme « aidant proche » ?  C’est-à-dire venant en aide à cette personne en raison de son trouble psychotique, de manière régulière et à titre non professionnel. Par exemple, un parent aidant son enfant, un membre de la famille ou un ami aidant un proche.</t>
+    <t xml:space="preserve">As the person completing the questionnaire for someone with a psychotic disorder: do you consider yourself an 'informal caregiver'? That is, someone who helps this person because of their psychotic disorder, on a regular basis and not as a professional. For example, a parent helping their child, or a family member or friend helping a loved one.</t>
   </si>
   <si>
     <t xml:space="preserve">CG2</t>
   </si>
   <si>
-    <t xml:space="preserve">Par rapport à la personne que vous aidez, vous êtes :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Un membre de la famille (par exemple, parent, enfant, grand-parent…); [2] Une relation proche (par exemple, ami, voisin…)</t>
+    <t xml:space="preserve">In relation to the person you help, you are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] A family member (e.g., parent, child, grandparent...); [2] A close relation (e.g., friend, neighbor...)</t>
   </si>
   <si>
     <t xml:space="preserve">CG2_other</t>
   </si>
   <si>
-    <t xml:space="preserve">[Autre] Par rapport à la personne que vous aidez, vous êtes :</t>
+    <t xml:space="preserve">[Other] In relation to the person you help, you are:</t>
   </si>
   <si>
     <t xml:space="preserve">CG3</t>
   </si>
   <si>
-    <t xml:space="preserve">A quel genre vous identifiez-vous ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">CG4</t>
   </si>
   <si>
     <t xml:space="preserve">CG5</t>
   </si>
   <si>
-    <t xml:space="preserve">La semaine dernière, combien de temps avez-vous passé à aider la personne dans des activités qu'elle aurait normalement faites elle-même si elle était en bonne santé ? Par exemple dans les soins personnels (comme s’habiller/se déshabiller, aller aux toilettes…), les tâches ménagères (comme préparer les repas, nettoyer…) ou le soutien pratique (comme l’accompagner à l’extérieur à des rendez-vous médicaux ou autres…).</t>
+    <t xml:space="preserve">Last week, how much time did you spend helping the person with activities they would normally have done themselves if they were in good health? For example, personal care (such as dressing/undressing, going to the toilet), household tasks (such as preparing meals, cleaning), or practical support (such as accompanying them to medical or other appointments).</t>
   </si>
   <si>
     <t xml:space="preserve">CG6</t>
   </si>
   <si>
-    <t xml:space="preserve">Selon vous, dans quelle mesure votre santé physique et/ou psychologique est impactée en raison de votre rôle d’aidant proche?</t>
+    <t xml:space="preserve">In your opinion, to what extent is your physical and/or mental health impacted because of your role as an informal caregiver?</t>
   </si>
   <si>
     <t xml:space="preserve">CG7</t>
   </si>
   <si>
-    <t xml:space="preserve">Selon vous, dans quelle mesure votre vie sociale est impactée en raison de votre rôle d’aidant proche?</t>
+    <t xml:space="preserve">In your opinion, to what extent is your social life impacted because of your role as an informal caregiver?</t>
   </si>
   <si>
     <t xml:space="preserve">Follow</t>
   </si>
   <si>
-    <t xml:space="preserve">Nous aimerions en savoir plus sur les besoins et les difficultés que vous rencontrez ou avez rencontrées dans le contexte de votre trouble psychotique. Si vous le souhaitez, vous pouvez participer à un entretien individuel (en ligne ou en face à face avec un chercheur) pour discuter plus en détail de vos expériences et de vos besoins. Cet entretien se déroulera de manière confidentielle et indépendamment des soins que vous recevez des prestataires de soins de santé. Il est prévu que 24 patients soient interrogés. Cet entretien individuel durera environ une heure et demie.  Souhaitez-vous participer à un entretien individuel?</t>
+    <t xml:space="preserve">We would like to know more about the needs and difficulties you experience or have experienced in the context of your psychotic disorder. If you wish, you can take part in an individual interview (online or face-to-face with a researcher) to discuss your experiences and needs in more detail. This interview will be conducted confidentially and independently of the care you receive from healthcare providers. We plan to interview 24 patients. This individual interview will last about an hour and a half. Would you like to take part in an individual interview?</t>
   </si>
 </sst>
 </file>
@@ -2678,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
@@ -2686,10 +2680,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" t="s">
-        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2701,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -2709,10 +2703,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2724,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -2732,10 +2726,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2747,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -2755,10 +2749,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2770,7 +2764,7 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -2778,10 +2772,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -2793,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -2801,10 +2795,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -2816,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -2824,10 +2818,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -2839,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2847,10 +2841,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -2862,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
@@ -2870,10 +2864,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -2885,7 +2879,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -2893,10 +2887,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -2908,7 +2902,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
@@ -2916,10 +2910,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -2931,7 +2925,7 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -2939,10 +2933,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2954,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
@@ -2962,10 +2956,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -2985,10 +2979,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>106</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -3008,10 +3002,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -3031,10 +3025,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -3054,10 +3048,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -3077,10 +3071,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -3100,10 +3094,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
         <v>115</v>
-      </c>
-      <c r="C51" t="s">
-        <v>116</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -3123,10 +3117,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
         <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>118</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -3146,10 +3140,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -3169,10 +3163,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
         <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -3192,10 +3186,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
         <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>124</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -3215,10 +3209,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -3238,10 +3232,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
         <v>127</v>
-      </c>
-      <c r="C57" t="s">
-        <v>128</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -3261,10 +3255,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
         <v>129</v>
-      </c>
-      <c r="C58" t="s">
-        <v>130</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -3284,10 +3278,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
         <v>131</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -3307,10 +3301,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
         <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -3330,10 +3324,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
         <v>135</v>
-      </c>
-      <c r="C61" t="s">
-        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -3345,7 +3339,7 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -3353,10 +3347,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
         <v>137</v>
-      </c>
-      <c r="C62" t="s">
-        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -3376,10 +3370,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
         <v>139</v>
-      </c>
-      <c r="C63" t="s">
-        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3391,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
@@ -3399,10 +3393,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
         <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -3422,10 +3416,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
         <v>143</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -3437,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -3445,10 +3439,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="s">
         <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
@@ -3468,10 +3462,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" t="s">
         <v>147</v>
-      </c>
-      <c r="C67" t="s">
-        <v>148</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3483,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
@@ -3491,10 +3485,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
         <v>149</v>
-      </c>
-      <c r="C68" t="s">
-        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -3514,10 +3508,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
         <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>152</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3529,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -3537,10 +3531,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
         <v>153</v>
-      </c>
-      <c r="C70" t="s">
-        <v>154</v>
       </c>
       <c r="D70" t="s">
         <v>11</v>
@@ -3560,10 +3554,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
         <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3575,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
@@ -3583,10 +3577,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
         <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -3606,10 +3600,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
         <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3621,7 +3615,7 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -3629,10 +3623,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
         <v>161</v>
-      </c>
-      <c r="C74" t="s">
-        <v>162</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -3652,10 +3646,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
         <v>163</v>
-      </c>
-      <c r="C75" t="s">
-        <v>164</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3667,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
@@ -3675,10 +3669,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
         <v>165</v>
-      </c>
-      <c r="C76" t="s">
-        <v>166</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -3698,10 +3692,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
         <v>167</v>
-      </c>
-      <c r="C77" t="s">
-        <v>168</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3713,7 +3707,7 @@
         <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
@@ -3721,10 +3715,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
         <v>169</v>
-      </c>
-      <c r="C78" t="s">
-        <v>170</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
@@ -3744,10 +3738,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
         <v>171</v>
-      </c>
-      <c r="C79" t="s">
-        <v>172</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3759,7 +3753,7 @@
         <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
@@ -3767,10 +3761,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
         <v>173</v>
-      </c>
-      <c r="C80" t="s">
-        <v>174</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -3790,10 +3784,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" t="s">
-        <v>176</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3805,7 +3799,7 @@
         <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
@@ -3813,10 +3807,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
@@ -3836,10 +3830,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3851,7 +3845,7 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
@@ -3859,10 +3853,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>182</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -3882,10 +3876,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" t="s">
-        <v>184</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3897,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -3905,10 +3899,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" t="s">
         <v>185</v>
-      </c>
-      <c r="C86" t="s">
-        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
@@ -3928,10 +3922,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
         <v>187</v>
-      </c>
-      <c r="C87" t="s">
-        <v>188</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3943,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88">
@@ -3951,10 +3945,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
         <v>189</v>
-      </c>
-      <c r="C88" t="s">
-        <v>190</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -3974,10 +3968,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
         <v>191</v>
-      </c>
-      <c r="C89" t="s">
-        <v>192</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -3989,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
@@ -3997,10 +3991,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" t="s">
         <v>193</v>
-      </c>
-      <c r="C90" t="s">
-        <v>194</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -4020,10 +4014,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" t="s">
         <v>195</v>
-      </c>
-      <c r="C91" t="s">
-        <v>196</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -4035,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
@@ -4043,10 +4037,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" t="s">
         <v>197</v>
-      </c>
-      <c r="C92" t="s">
-        <v>198</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -4066,10 +4060,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
-      </c>
-      <c r="C93" t="s">
-        <v>200</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4081,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
@@ -4089,10 +4083,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
         <v>201</v>
-      </c>
-      <c r="C94" t="s">
-        <v>202</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -4112,10 +4106,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="s">
         <v>203</v>
-      </c>
-      <c r="C95" t="s">
-        <v>204</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4127,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96">
@@ -4135,10 +4129,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" t="s">
         <v>205</v>
-      </c>
-      <c r="C96" t="s">
-        <v>206</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -4158,10 +4152,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
         <v>207</v>
-      </c>
-      <c r="C97" t="s">
-        <v>208</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4181,10 +4175,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
         <v>209</v>
-      </c>
-      <c r="C98" t="s">
-        <v>210</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -4204,10 +4198,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" t="s">
         <v>211</v>
-      </c>
-      <c r="C99" t="s">
-        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4219,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100">
@@ -4227,10 +4221,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" t="s">
         <v>214</v>
-      </c>
-      <c r="C100" t="s">
-        <v>215</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4242,7 +4236,7 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101">
@@ -4250,10 +4244,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" t="s">
         <v>217</v>
-      </c>
-      <c r="C101" t="s">
-        <v>218</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -4265,7 +4259,7 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102">
@@ -4273,10 +4267,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
         <v>220</v>
-      </c>
-      <c r="C102" t="s">
-        <v>221</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4288,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103">
@@ -4296,10 +4290,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
         <v>223</v>
-      </c>
-      <c r="C103" t="s">
-        <v>224</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -4311,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
@@ -4319,10 +4313,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
         <v>226</v>
-      </c>
-      <c r="C104" t="s">
-        <v>227</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -4342,10 +4336,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
         <v>228</v>
-      </c>
-      <c r="C105" t="s">
-        <v>229</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -4365,10 +4359,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
         <v>230</v>
-      </c>
-      <c r="C106" t="s">
-        <v>231</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -4380,7 +4374,7 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107">
@@ -4388,10 +4382,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
         <v>233</v>
-      </c>
-      <c r="C107" t="s">
-        <v>234</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
@@ -4403,7 +4397,7 @@
         <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108">
@@ -4411,10 +4405,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
         <v>236</v>
-      </c>
-      <c r="C108" t="s">
-        <v>237</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -4426,7 +4420,7 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109">
@@ -4434,10 +4428,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
         <v>239</v>
-      </c>
-      <c r="C109" t="s">
-        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -4449,7 +4443,7 @@
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110">
@@ -4457,10 +4451,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" t="s">
         <v>242</v>
-      </c>
-      <c r="C110" t="s">
-        <v>243</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -4472,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111">
@@ -4480,10 +4474,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" t="s">
         <v>245</v>
-      </c>
-      <c r="C111" t="s">
-        <v>246</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -4503,10 +4497,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" t="s">
         <v>247</v>
-      </c>
-      <c r="C112" t="s">
-        <v>248</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4526,10 +4520,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" t="s">
         <v>249</v>
-      </c>
-      <c r="C113" t="s">
-        <v>250</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4541,7 +4535,7 @@
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114">
@@ -4549,10 +4543,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" t="s">
         <v>251</v>
-      </c>
-      <c r="C114" t="s">
-        <v>252</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4564,7 +4558,7 @@
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115">
@@ -4572,10 +4566,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" t="s">
         <v>253</v>
-      </c>
-      <c r="C115" t="s">
-        <v>254</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4587,7 +4581,7 @@
         <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116">
@@ -4595,10 +4589,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" t="s">
         <v>255</v>
-      </c>
-      <c r="C116" t="s">
-        <v>256</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4610,7 +4604,7 @@
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117">
@@ -4618,10 +4612,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" t="s">
         <v>257</v>
-      </c>
-      <c r="C117" t="s">
-        <v>258</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4633,7 +4627,7 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118">
@@ -4641,10 +4635,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" t="s">
         <v>259</v>
-      </c>
-      <c r="C118" t="s">
-        <v>260</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -4656,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119">
@@ -4664,10 +4658,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s">
         <v>261</v>
-      </c>
-      <c r="C119" t="s">
-        <v>262</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -4679,7 +4673,7 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
@@ -4687,10 +4681,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" t="s">
         <v>263</v>
-      </c>
-      <c r="C120" t="s">
-        <v>264</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -4702,7 +4696,7 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121">
@@ -4710,10 +4704,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" t="s">
         <v>265</v>
-      </c>
-      <c r="C121" t="s">
-        <v>266</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -4725,7 +4719,7 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122">
@@ -4733,10 +4727,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" t="s">
         <v>267</v>
-      </c>
-      <c r="C122" t="s">
-        <v>268</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -4748,7 +4742,7 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="123">
@@ -4756,10 +4750,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" t="s">
         <v>269</v>
-      </c>
-      <c r="C123" t="s">
-        <v>270</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -4771,7 +4765,7 @@
         <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
@@ -4779,10 +4773,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
         <v>271</v>
-      </c>
-      <c r="C124" t="s">
-        <v>272</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -4794,7 +4788,7 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125">
@@ -4802,10 +4796,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" t="s">
         <v>273</v>
-      </c>
-      <c r="C125" t="s">
-        <v>274</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
@@ -4825,10 +4819,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" t="s">
         <v>275</v>
-      </c>
-      <c r="C126" t="s">
-        <v>276</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
@@ -4840,7 +4834,7 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127">
@@ -4848,10 +4842,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" t="s">
         <v>277</v>
-      </c>
-      <c r="C127" t="s">
-        <v>278</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
@@ -4863,7 +4857,7 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128">
@@ -4871,10 +4865,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" t="s">
         <v>279</v>
-      </c>
-      <c r="C128" t="s">
-        <v>280</v>
       </c>
       <c r="D128" t="s">
         <v>19</v>
@@ -4886,7 +4880,7 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129">
@@ -4894,10 +4888,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" t="s">
         <v>281</v>
-      </c>
-      <c r="C129" t="s">
-        <v>282</v>
       </c>
       <c r="D129" t="s">
         <v>19</v>
@@ -4909,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130">
@@ -4917,10 +4911,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" t="s">
         <v>283</v>
-      </c>
-      <c r="C130" t="s">
-        <v>284</v>
       </c>
       <c r="D130" t="s">
         <v>19</v>
@@ -4932,7 +4926,7 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="131">
@@ -4940,10 +4934,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" t="s">
         <v>285</v>
-      </c>
-      <c r="C131" t="s">
-        <v>286</v>
       </c>
       <c r="D131" t="s">
         <v>19</v>
@@ -4955,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132">
@@ -4963,10 +4957,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" t="s">
         <v>287</v>
-      </c>
-      <c r="C132" t="s">
-        <v>288</v>
       </c>
       <c r="D132" t="s">
         <v>19</v>
@@ -4978,7 +4972,7 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133">
@@ -4986,10 +4980,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>288</v>
+      </c>
+      <c r="C133" t="s">
         <v>289</v>
-      </c>
-      <c r="C133" t="s">
-        <v>290</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
@@ -5001,7 +4995,7 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134">
@@ -5009,10 +5003,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" t="s">
         <v>291</v>
-      </c>
-      <c r="C134" t="s">
-        <v>292</v>
       </c>
       <c r="D134" t="s">
         <v>19</v>
@@ -5024,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135">
@@ -5032,10 +5026,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" t="s">
         <v>293</v>
-      </c>
-      <c r="C135" t="s">
-        <v>294</v>
       </c>
       <c r="D135" t="s">
         <v>19</v>
@@ -5047,7 +5041,7 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136">
@@ -5055,10 +5049,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" t="s">
         <v>295</v>
-      </c>
-      <c r="C136" t="s">
-        <v>296</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
@@ -5070,7 +5064,7 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137">
@@ -5078,10 +5072,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" t="s">
         <v>297</v>
-      </c>
-      <c r="C137" t="s">
-        <v>298</v>
       </c>
       <c r="D137" t="s">
         <v>19</v>
@@ -5093,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138">
@@ -5101,10 +5095,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>298</v>
+      </c>
+      <c r="C138" t="s">
         <v>299</v>
-      </c>
-      <c r="C138" t="s">
-        <v>300</v>
       </c>
       <c r="D138" t="s">
         <v>19</v>
@@ -5116,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139">
@@ -5124,10 +5118,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" t="s">
         <v>301</v>
-      </c>
-      <c r="C139" t="s">
-        <v>302</v>
       </c>
       <c r="D139" t="s">
         <v>19</v>
@@ -5139,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="140">
@@ -5147,10 +5141,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" t="s">
         <v>303</v>
-      </c>
-      <c r="C140" t="s">
-        <v>304</v>
       </c>
       <c r="D140" t="s">
         <v>19</v>
@@ -5162,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141">
@@ -5170,10 +5164,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" t="s">
         <v>305</v>
-      </c>
-      <c r="C141" t="s">
-        <v>306</v>
       </c>
       <c r="D141" t="s">
         <v>19</v>
@@ -5185,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142">
@@ -5193,10 +5187,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" t="s">
         <v>307</v>
-      </c>
-      <c r="C142" t="s">
-        <v>308</v>
       </c>
       <c r="D142" t="s">
         <v>19</v>
@@ -5208,7 +5202,7 @@
         <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143">
@@ -5216,10 +5210,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
         <v>309</v>
-      </c>
-      <c r="C143" t="s">
-        <v>310</v>
       </c>
       <c r="D143" t="s">
         <v>19</v>
@@ -5231,7 +5225,7 @@
         <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144">
@@ -5239,10 +5233,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" t="s">
         <v>311</v>
-      </c>
-      <c r="C144" t="s">
-        <v>312</v>
       </c>
       <c r="D144" t="s">
         <v>19</v>
@@ -5254,7 +5248,7 @@
         <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145">
@@ -5262,10 +5256,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" t="s">
         <v>313</v>
-      </c>
-      <c r="C145" t="s">
-        <v>314</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
@@ -5285,10 +5279,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" t="s">
         <v>315</v>
-      </c>
-      <c r="C146" t="s">
-        <v>316</v>
       </c>
       <c r="D146" t="s">
         <v>19</v>
@@ -5300,7 +5294,7 @@
         <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147">
@@ -5308,10 +5302,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>317</v>
+      </c>
+      <c r="C147" t="s">
         <v>318</v>
-      </c>
-      <c r="C147" t="s">
-        <v>319</v>
       </c>
       <c r="D147" t="s">
         <v>19</v>
@@ -5323,7 +5317,7 @@
         <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148">
@@ -5331,10 +5325,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C148" t="s">
         <v>320</v>
-      </c>
-      <c r="C148" t="s">
-        <v>321</v>
       </c>
       <c r="D148" t="s">
         <v>19</v>
@@ -5346,7 +5340,7 @@
         <v>9</v>
       </c>
       <c r="G148" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149">
@@ -5354,10 +5348,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>321</v>
+      </c>
+      <c r="C149" t="s">
         <v>322</v>
-      </c>
-      <c r="C149" t="s">
-        <v>323</v>
       </c>
       <c r="D149" t="s">
         <v>19</v>
@@ -5369,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="G149" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150">
@@ -5377,10 +5371,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" t="s">
         <v>324</v>
-      </c>
-      <c r="C150" t="s">
-        <v>325</v>
       </c>
       <c r="D150" t="s">
         <v>19</v>
@@ -5392,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151">
@@ -5400,10 +5394,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
+        <v>325</v>
+      </c>
+      <c r="C151" t="s">
         <v>326</v>
-      </c>
-      <c r="C151" t="s">
-        <v>327</v>
       </c>
       <c r="D151" t="s">
         <v>19</v>
@@ -5415,7 +5409,7 @@
         <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152">
@@ -5423,10 +5417,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" t="s">
         <v>328</v>
-      </c>
-      <c r="C152" t="s">
-        <v>329</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -5438,7 +5432,7 @@
         <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153">
@@ -5446,10 +5440,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" t="s">
         <v>330</v>
-      </c>
-      <c r="C153" t="s">
-        <v>331</v>
       </c>
       <c r="D153" t="s">
         <v>19</v>
@@ -5461,7 +5455,7 @@
         <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154">
@@ -5469,10 +5463,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" t="s">
         <v>332</v>
-      </c>
-      <c r="C154" t="s">
-        <v>333</v>
       </c>
       <c r="D154" t="s">
         <v>19</v>
@@ -5484,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155">
@@ -5492,10 +5486,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
         <v>334</v>
-      </c>
-      <c r="C155" t="s">
-        <v>335</v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
@@ -5507,7 +5501,7 @@
         <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156">
@@ -5515,10 +5509,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" t="s">
         <v>336</v>
-      </c>
-      <c r="C156" t="s">
-        <v>337</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
@@ -5530,7 +5524,7 @@
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157">
@@ -5538,10 +5532,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" t="s">
         <v>338</v>
-      </c>
-      <c r="C157" t="s">
-        <v>339</v>
       </c>
       <c r="D157" t="s">
         <v>19</v>
@@ -5553,7 +5547,7 @@
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158">
@@ -5561,10 +5555,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" t="s">
         <v>340</v>
-      </c>
-      <c r="C158" t="s">
-        <v>341</v>
       </c>
       <c r="D158" t="s">
         <v>19</v>
@@ -5576,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159">
@@ -5584,10 +5578,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" t="s">
         <v>342</v>
-      </c>
-      <c r="C159" t="s">
-        <v>343</v>
       </c>
       <c r="D159" t="s">
         <v>19</v>
@@ -5599,7 +5593,7 @@
         <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160">
@@ -5607,10 +5601,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
         <v>344</v>
-      </c>
-      <c r="C160" t="s">
-        <v>345</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -5622,7 +5616,7 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161">
@@ -5630,10 +5624,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
         <v>346</v>
-      </c>
-      <c r="C161" t="s">
-        <v>347</v>
       </c>
       <c r="D161" t="s">
         <v>19</v>
@@ -5645,7 +5639,7 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162">
@@ -5653,10 +5647,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
         <v>348</v>
-      </c>
-      <c r="C162" t="s">
-        <v>349</v>
       </c>
       <c r="D162" t="s">
         <v>19</v>
@@ -5668,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163">
@@ -5676,10 +5670,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" t="s">
         <v>350</v>
-      </c>
-      <c r="C163" t="s">
-        <v>351</v>
       </c>
       <c r="D163" t="s">
         <v>19</v>
@@ -5691,7 +5685,7 @@
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164">
@@ -5699,10 +5693,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" t="s">
         <v>352</v>
-      </c>
-      <c r="C164" t="s">
-        <v>353</v>
       </c>
       <c r="D164" t="s">
         <v>19</v>
@@ -5714,7 +5708,7 @@
         <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165">
@@ -5722,10 +5716,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" t="s">
         <v>354</v>
-      </c>
-      <c r="C165" t="s">
-        <v>355</v>
       </c>
       <c r="D165" t="s">
         <v>19</v>
@@ -5737,7 +5731,7 @@
         <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166">
@@ -5745,10 +5739,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" t="s">
         <v>357</v>
-      </c>
-      <c r="C166" t="s">
-        <v>358</v>
       </c>
       <c r="D166" t="s">
         <v>19</v>
@@ -5760,7 +5754,7 @@
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167">
@@ -5768,10 +5762,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" t="s">
         <v>359</v>
-      </c>
-      <c r="C167" t="s">
-        <v>360</v>
       </c>
       <c r="D167" t="s">
         <v>19</v>
@@ -5783,7 +5777,7 @@
         <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168">
@@ -5791,10 +5785,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" t="s">
         <v>361</v>
-      </c>
-      <c r="C168" t="s">
-        <v>362</v>
       </c>
       <c r="D168" t="s">
         <v>19</v>
@@ -5806,7 +5800,7 @@
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169">
@@ -5814,10 +5808,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" t="s">
         <v>363</v>
-      </c>
-      <c r="C169" t="s">
-        <v>364</v>
       </c>
       <c r="D169" t="s">
         <v>19</v>
@@ -5829,7 +5823,7 @@
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170">
@@ -5837,10 +5831,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
         <v>365</v>
-      </c>
-      <c r="C170" t="s">
-        <v>366</v>
       </c>
       <c r="D170" t="s">
         <v>19</v>
@@ -5852,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171">
@@ -5860,10 +5854,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" t="s">
         <v>367</v>
-      </c>
-      <c r="C171" t="s">
-        <v>368</v>
       </c>
       <c r="D171" t="s">
         <v>19</v>
@@ -5875,7 +5869,7 @@
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172">
@@ -5883,10 +5877,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" t="s">
         <v>369</v>
-      </c>
-      <c r="C172" t="s">
-        <v>370</v>
       </c>
       <c r="D172" t="s">
         <v>19</v>
@@ -5898,7 +5892,7 @@
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173">
@@ -5906,10 +5900,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
         <v>371</v>
-      </c>
-      <c r="C173" t="s">
-        <v>372</v>
       </c>
       <c r="D173" t="s">
         <v>19</v>
@@ -5921,7 +5915,7 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174">
@@ -5929,10 +5923,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" t="s">
         <v>373</v>
-      </c>
-      <c r="C174" t="s">
-        <v>374</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -5944,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175">
@@ -5952,10 +5946,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" t="s">
         <v>375</v>
-      </c>
-      <c r="C175" t="s">
-        <v>376</v>
       </c>
       <c r="D175" t="s">
         <v>19</v>
@@ -5967,7 +5961,7 @@
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176">
@@ -5975,10 +5969,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" t="s">
         <v>377</v>
-      </c>
-      <c r="C176" t="s">
-        <v>378</v>
       </c>
       <c r="D176" t="s">
         <v>19</v>
@@ -5990,7 +5984,7 @@
         <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177">
@@ -5998,10 +5992,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" t="s">
         <v>379</v>
-      </c>
-      <c r="C177" t="s">
-        <v>380</v>
       </c>
       <c r="D177" t="s">
         <v>19</v>
@@ -6013,7 +6007,7 @@
         <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178">
@@ -6021,10 +6015,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" t="s">
         <v>381</v>
-      </c>
-      <c r="C178" t="s">
-        <v>382</v>
       </c>
       <c r="D178" t="s">
         <v>19</v>
@@ -6036,7 +6030,7 @@
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179">
@@ -6044,10 +6038,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>382</v>
+      </c>
+      <c r="C179" t="s">
         <v>383</v>
-      </c>
-      <c r="C179" t="s">
-        <v>384</v>
       </c>
       <c r="D179" t="s">
         <v>19</v>
@@ -6059,7 +6053,7 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180">
@@ -6067,10 +6061,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>384</v>
+      </c>
+      <c r="C180" t="s">
         <v>385</v>
-      </c>
-      <c r="C180" t="s">
-        <v>386</v>
       </c>
       <c r="D180" t="s">
         <v>19</v>
@@ -6082,7 +6076,7 @@
         <v>9</v>
       </c>
       <c r="G180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181">
@@ -6090,10 +6084,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>386</v>
+      </c>
+      <c r="C181" t="s">
         <v>387</v>
-      </c>
-      <c r="C181" t="s">
-        <v>388</v>
       </c>
       <c r="D181" t="s">
         <v>19</v>
@@ -6105,7 +6099,7 @@
         <v>9</v>
       </c>
       <c r="G181" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182">
@@ -6113,10 +6107,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
+        <v>388</v>
+      </c>
+      <c r="C182" t="s">
         <v>389</v>
-      </c>
-      <c r="C182" t="s">
-        <v>390</v>
       </c>
       <c r="D182" t="s">
         <v>19</v>
@@ -6128,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183">
@@ -6136,10 +6130,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" t="s">
         <v>391</v>
-      </c>
-      <c r="C183" t="s">
-        <v>392</v>
       </c>
       <c r="D183" t="s">
         <v>19</v>
@@ -6151,7 +6145,7 @@
         <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184">
@@ -6159,10 +6153,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" t="s">
         <v>394</v>
-      </c>
-      <c r="C184" t="s">
-        <v>395</v>
       </c>
       <c r="D184" t="s">
         <v>19</v>
@@ -6174,7 +6168,7 @@
         <v>9</v>
       </c>
       <c r="G184" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185">
@@ -6182,10 +6176,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
+        <v>396</v>
+      </c>
+      <c r="C185" t="s">
         <v>397</v>
-      </c>
-      <c r="C185" t="s">
-        <v>398</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -6205,10 +6199,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>398</v>
+      </c>
+      <c r="C186" t="s">
         <v>399</v>
-      </c>
-      <c r="C186" t="s">
-        <v>400</v>
       </c>
       <c r="D186" t="s">
         <v>19</v>
@@ -6220,7 +6214,7 @@
         <v>9</v>
       </c>
       <c r="G186" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="187">
@@ -6228,10 +6222,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>401</v>
+      </c>
+      <c r="C187" t="s">
         <v>402</v>
-      </c>
-      <c r="C187" t="s">
-        <v>403</v>
       </c>
       <c r="D187" t="s">
         <v>19</v>
@@ -6243,7 +6237,7 @@
         <v>9</v>
       </c>
       <c r="G187" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188">
@@ -6251,10 +6245,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
+        <v>404</v>
+      </c>
+      <c r="C188" t="s">
         <v>405</v>
-      </c>
-      <c r="C188" t="s">
-        <v>406</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -6266,7 +6260,7 @@
         <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189">
@@ -6274,10 +6268,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
+        <v>406</v>
+      </c>
+      <c r="C189" t="s">
         <v>407</v>
-      </c>
-      <c r="C189" t="s">
-        <v>408</v>
       </c>
       <c r="D189" t="s">
         <v>19</v>
@@ -6289,7 +6283,7 @@
         <v>9</v>
       </c>
       <c r="G189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190">
@@ -6297,10 +6291,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>408</v>
+      </c>
+      <c r="C190" t="s">
         <v>409</v>
-      </c>
-      <c r="C190" t="s">
-        <v>410</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
@@ -6312,7 +6306,7 @@
         <v>9</v>
       </c>
       <c r="G190" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="191">
@@ -6320,10 +6314,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>411</v>
+      </c>
+      <c r="C191" t="s">
         <v>412</v>
-      </c>
-      <c r="C191" t="s">
-        <v>413</v>
       </c>
       <c r="D191" t="s">
         <v>19</v>
@@ -6343,10 +6337,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>413</v>
+      </c>
+      <c r="C192" t="s">
         <v>414</v>
-      </c>
-      <c r="C192" t="s">
-        <v>415</v>
       </c>
       <c r="D192" t="s">
         <v>19</v>
@@ -6358,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193">
@@ -6366,10 +6360,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>415</v>
+      </c>
+      <c r="C193" t="s">
         <v>416</v>
-      </c>
-      <c r="C193" t="s">
-        <v>417</v>
       </c>
       <c r="D193" t="s">
         <v>19</v>
@@ -6381,7 +6375,7 @@
         <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194">
@@ -6389,10 +6383,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>417</v>
+      </c>
+      <c r="C194" t="s">
         <v>418</v>
-      </c>
-      <c r="C194" t="s">
-        <v>419</v>
       </c>
       <c r="D194" t="s">
         <v>19</v>
@@ -6404,7 +6398,7 @@
         <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195">
@@ -6412,10 +6406,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" t="s">
         <v>420</v>
-      </c>
-      <c r="C195" t="s">
-        <v>421</v>
       </c>
       <c r="D195" t="s">
         <v>19</v>
@@ -6427,7 +6421,7 @@
         <v>9</v>
       </c>
       <c r="G195" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196">
@@ -6435,10 +6429,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
+        <v>421</v>
+      </c>
+      <c r="C196" t="s">
         <v>422</v>
-      </c>
-      <c r="C196" t="s">
-        <v>423</v>
       </c>
       <c r="D196" t="s">
         <v>19</v>
@@ -6450,7 +6444,7 @@
         <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197">
@@ -6458,10 +6452,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
+        <v>423</v>
+      </c>
+      <c r="C197" t="s">
         <v>424</v>
-      </c>
-      <c r="C197" t="s">
-        <v>425</v>
       </c>
       <c r="D197" t="s">
         <v>19</v>
@@ -6473,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="G197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198">
@@ -6481,10 +6475,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
+        <v>425</v>
+      </c>
+      <c r="C198" t="s">
         <v>426</v>
-      </c>
-      <c r="C198" t="s">
-        <v>427</v>
       </c>
       <c r="D198" t="s">
         <v>19</v>
@@ -6496,7 +6490,7 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199">
@@ -6504,10 +6498,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
+        <v>427</v>
+      </c>
+      <c r="C199" t="s">
         <v>428</v>
-      </c>
-      <c r="C199" t="s">
-        <v>429</v>
       </c>
       <c r="D199" t="s">
         <v>19</v>
@@ -6519,7 +6513,7 @@
         <v>9</v>
       </c>
       <c r="G199" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200">
@@ -6527,10 +6521,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
+        <v>429</v>
+      </c>
+      <c r="C200" t="s">
         <v>430</v>
-      </c>
-      <c r="C200" t="s">
-        <v>431</v>
       </c>
       <c r="D200" t="s">
         <v>19</v>
@@ -6542,7 +6536,7 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201">
@@ -6550,10 +6544,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
+        <v>431</v>
+      </c>
+      <c r="C201" t="s">
         <v>432</v>
-      </c>
-      <c r="C201" t="s">
-        <v>433</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
@@ -6573,10 +6567,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
+        <v>433</v>
+      </c>
+      <c r="C202" t="s">
         <v>434</v>
-      </c>
-      <c r="C202" t="s">
-        <v>435</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -6588,7 +6582,7 @@
         <v>9</v>
       </c>
       <c r="G202" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="203">
@@ -6596,10 +6590,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
+        <v>436</v>
+      </c>
+      <c r="C203" t="s">
         <v>437</v>
-      </c>
-      <c r="C203" t="s">
-        <v>438</v>
       </c>
       <c r="D203" t="s">
         <v>19</v>
@@ -6611,7 +6605,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="204">
@@ -6619,10 +6613,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
+        <v>439</v>
+      </c>
+      <c r="C204" t="s">
         <v>440</v>
-      </c>
-      <c r="C204" t="s">
-        <v>441</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -6642,10 +6636,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
+        <v>441</v>
+      </c>
+      <c r="C205" t="s">
         <v>442</v>
-      </c>
-      <c r="C205" t="s">
-        <v>443</v>
       </c>
       <c r="D205" t="s">
         <v>19</v>
@@ -6657,7 +6651,7 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="206">
@@ -6665,10 +6659,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
+        <v>444</v>
+      </c>
+      <c r="C206" t="s">
         <v>445</v>
-      </c>
-      <c r="C206" t="s">
-        <v>446</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
@@ -6688,10 +6682,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
+        <v>446</v>
+      </c>
+      <c r="C207" t="s">
         <v>447</v>
-      </c>
-      <c r="C207" t="s">
-        <v>448</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
@@ -6711,10 +6705,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>448</v>
+      </c>
+      <c r="C208" t="s">
         <v>449</v>
-      </c>
-      <c r="C208" t="s">
-        <v>450</v>
       </c>
       <c r="D208" t="s">
         <v>8</v>
@@ -6734,10 +6728,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>450</v>
+      </c>
+      <c r="C209" t="s">
         <v>451</v>
-      </c>
-      <c r="C209" t="s">
-        <v>452</v>
       </c>
       <c r="D209" t="s">
         <v>19</v>
@@ -6749,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210">
@@ -6757,10 +6751,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>453</v>
+      </c>
+      <c r="C210" t="s">
         <v>454</v>
-      </c>
-      <c r="C210" t="s">
-        <v>455</v>
       </c>
       <c r="D210" t="s">
         <v>19</v>
@@ -6772,7 +6766,7 @@
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211">
@@ -6780,10 +6774,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>455</v>
+      </c>
+      <c r="C211" t="s">
         <v>456</v>
-      </c>
-      <c r="C211" t="s">
-        <v>457</v>
       </c>
       <c r="D211" t="s">
         <v>19</v>
@@ -6795,7 +6789,7 @@
         <v>9</v>
       </c>
       <c r="G211" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212">
@@ -6803,10 +6797,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>457</v>
+      </c>
+      <c r="C212" t="s">
         <v>458</v>
-      </c>
-      <c r="C212" t="s">
-        <v>459</v>
       </c>
       <c r="D212" t="s">
         <v>19</v>
@@ -6818,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="G212" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213">
@@ -6826,10 +6820,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>459</v>
+      </c>
+      <c r="C213" t="s">
         <v>460</v>
-      </c>
-      <c r="C213" t="s">
-        <v>461</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
@@ -6841,7 +6835,7 @@
         <v>9</v>
       </c>
       <c r="G213" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214">
@@ -6849,10 +6843,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>461</v>
+      </c>
+      <c r="C214" t="s">
         <v>462</v>
-      </c>
-      <c r="C214" t="s">
-        <v>463</v>
       </c>
       <c r="D214" t="s">
         <v>19</v>
@@ -6864,7 +6858,7 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215">
@@ -6872,10 +6866,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>463</v>
+      </c>
+      <c r="C215" t="s">
         <v>464</v>
-      </c>
-      <c r="C215" t="s">
-        <v>465</v>
       </c>
       <c r="D215" t="s">
         <v>19</v>
@@ -6887,7 +6881,7 @@
         <v>9</v>
       </c>
       <c r="G215" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216">
@@ -6895,10 +6889,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>465</v>
+      </c>
+      <c r="C216" t="s">
         <v>466</v>
-      </c>
-      <c r="C216" t="s">
-        <v>467</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -6910,7 +6904,7 @@
         <v>9</v>
       </c>
       <c r="G216" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217">
@@ -6918,10 +6912,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>467</v>
+      </c>
+      <c r="C217" t="s">
         <v>468</v>
-      </c>
-      <c r="C217" t="s">
-        <v>469</v>
       </c>
       <c r="D217" t="s">
         <v>19</v>
@@ -6933,7 +6927,7 @@
         <v>9</v>
       </c>
       <c r="G217" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218">
@@ -6941,10 +6935,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>469</v>
+      </c>
+      <c r="C218" t="s">
         <v>470</v>
-      </c>
-      <c r="C218" t="s">
-        <v>471</v>
       </c>
       <c r="D218" t="s">
         <v>19</v>
@@ -6956,7 +6950,7 @@
         <v>9</v>
       </c>
       <c r="G218" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219">
@@ -6964,10 +6958,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>471</v>
+      </c>
+      <c r="C219" t="s">
         <v>472</v>
-      </c>
-      <c r="C219" t="s">
-        <v>473</v>
       </c>
       <c r="D219" t="s">
         <v>19</v>
@@ -6979,7 +6973,7 @@
         <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220">
@@ -6987,10 +6981,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
+        <v>473</v>
+      </c>
+      <c r="C220" t="s">
         <v>474</v>
-      </c>
-      <c r="C220" t="s">
-        <v>475</v>
       </c>
       <c r="D220" t="s">
         <v>19</v>
@@ -7002,7 +6996,7 @@
         <v>9</v>
       </c>
       <c r="G220" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221">
@@ -7010,10 +7004,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
+        <v>475</v>
+      </c>
+      <c r="C221" t="s">
         <v>476</v>
-      </c>
-      <c r="C221" t="s">
-        <v>477</v>
       </c>
       <c r="D221" t="s">
         <v>19</v>
@@ -7025,7 +7019,7 @@
         <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222">
@@ -7033,10 +7027,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
+        <v>477</v>
+      </c>
+      <c r="C222" t="s">
         <v>478</v>
-      </c>
-      <c r="C222" t="s">
-        <v>479</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
@@ -7056,10 +7050,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
+        <v>479</v>
+      </c>
+      <c r="C223" t="s">
         <v>480</v>
-      </c>
-      <c r="C223" t="s">
-        <v>481</v>
       </c>
       <c r="D223" t="s">
         <v>19</v>
@@ -7071,7 +7065,7 @@
         <v>9</v>
       </c>
       <c r="G223" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="224">
@@ -7079,10 +7073,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
+        <v>482</v>
+      </c>
+      <c r="C224" t="s">
         <v>483</v>
-      </c>
-      <c r="C224" t="s">
-        <v>484</v>
       </c>
       <c r="D224" t="s">
         <v>19</v>
@@ -7094,7 +7088,7 @@
         <v>9</v>
       </c>
       <c r="G224" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225">
@@ -7102,10 +7096,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>484</v>
+      </c>
+      <c r="C225" t="s">
         <v>485</v>
-      </c>
-      <c r="C225" t="s">
-        <v>486</v>
       </c>
       <c r="D225" t="s">
         <v>19</v>
@@ -7117,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="G225" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226">
@@ -7125,10 +7119,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>486</v>
+      </c>
+      <c r="C226" t="s">
         <v>487</v>
-      </c>
-      <c r="C226" t="s">
-        <v>488</v>
       </c>
       <c r="D226" t="s">
         <v>19</v>
@@ -7140,7 +7134,7 @@
         <v>9</v>
       </c>
       <c r="G226" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="227">
@@ -7148,10 +7142,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>488</v>
+      </c>
+      <c r="C227" t="s">
         <v>489</v>
-      </c>
-      <c r="C227" t="s">
-        <v>490</v>
       </c>
       <c r="D227" t="s">
         <v>19</v>
@@ -7163,7 +7157,7 @@
         <v>9</v>
       </c>
       <c r="G227" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228">
@@ -7171,10 +7165,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
+        <v>490</v>
+      </c>
+      <c r="C228" t="s">
         <v>491</v>
-      </c>
-      <c r="C228" t="s">
-        <v>492</v>
       </c>
       <c r="D228" t="s">
         <v>19</v>
@@ -7186,7 +7180,7 @@
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229">
@@ -7194,10 +7188,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>492</v>
+      </c>
+      <c r="C229" t="s">
         <v>493</v>
-      </c>
-      <c r="C229" t="s">
-        <v>494</v>
       </c>
       <c r="D229" t="s">
         <v>19</v>
@@ -7209,7 +7203,7 @@
         <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230">
@@ -7217,10 +7211,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>494</v>
+      </c>
+      <c r="C230" t="s">
         <v>495</v>
-      </c>
-      <c r="C230" t="s">
-        <v>496</v>
       </c>
       <c r="D230" t="s">
         <v>19</v>
@@ -7232,7 +7226,7 @@
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="231">
@@ -7240,10 +7234,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>496</v>
+      </c>
+      <c r="C231" t="s">
         <v>497</v>
-      </c>
-      <c r="C231" t="s">
-        <v>498</v>
       </c>
       <c r="D231" t="s">
         <v>19</v>
@@ -7255,7 +7249,7 @@
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232">
@@ -7263,10 +7257,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
+        <v>498</v>
+      </c>
+      <c r="C232" t="s">
         <v>499</v>
-      </c>
-      <c r="C232" t="s">
-        <v>500</v>
       </c>
       <c r="D232" t="s">
         <v>19</v>
@@ -7278,7 +7272,7 @@
         <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233">
@@ -7286,10 +7280,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>500</v>
+      </c>
+      <c r="C233" t="s">
         <v>501</v>
-      </c>
-      <c r="C233" t="s">
-        <v>502</v>
       </c>
       <c r="D233" t="s">
         <v>19</v>
@@ -7301,7 +7295,7 @@
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234">
@@ -7309,10 +7303,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>502</v>
+      </c>
+      <c r="C234" t="s">
         <v>503</v>
-      </c>
-      <c r="C234" t="s">
-        <v>504</v>
       </c>
       <c r="D234" t="s">
         <v>19</v>
@@ -7324,7 +7318,7 @@
         <v>9</v>
       </c>
       <c r="G234" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235">
@@ -7332,10 +7326,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>504</v>
+      </c>
+      <c r="C235" t="s">
         <v>505</v>
-      </c>
-      <c r="C235" t="s">
-        <v>506</v>
       </c>
       <c r="D235" t="s">
         <v>19</v>
@@ -7347,7 +7341,7 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236">
@@ -7355,10 +7349,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>506</v>
+      </c>
+      <c r="C236" t="s">
         <v>507</v>
-      </c>
-      <c r="C236" t="s">
-        <v>508</v>
       </c>
       <c r="D236" t="s">
         <v>19</v>
@@ -7370,7 +7364,7 @@
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237">
@@ -7378,10 +7372,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>508</v>
+      </c>
+      <c r="C237" t="s">
         <v>509</v>
-      </c>
-      <c r="C237" t="s">
-        <v>510</v>
       </c>
       <c r="D237" t="s">
         <v>19</v>
@@ -7393,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238">
@@ -7401,10 +7395,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
+        <v>510</v>
+      </c>
+      <c r="C238" t="s">
         <v>511</v>
-      </c>
-      <c r="C238" t="s">
-        <v>512</v>
       </c>
       <c r="D238" t="s">
         <v>19</v>
@@ -7416,7 +7410,7 @@
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239">
@@ -7424,10 +7418,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
+        <v>513</v>
+      </c>
+      <c r="C239" t="s">
         <v>514</v>
-      </c>
-      <c r="C239" t="s">
-        <v>515</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -7447,10 +7441,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
+        <v>515</v>
+      </c>
+      <c r="C240" t="s">
         <v>516</v>
-      </c>
-      <c r="C240" t="s">
-        <v>517</v>
       </c>
       <c r="D240" t="s">
         <v>19</v>
@@ -7462,7 +7456,7 @@
         <v>9</v>
       </c>
       <c r="G240" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="241">
@@ -7470,10 +7464,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>517</v>
+      </c>
+      <c r="C241" t="s">
         <v>518</v>
-      </c>
-      <c r="C241" t="s">
-        <v>519</v>
       </c>
       <c r="D241" t="s">
         <v>19</v>
@@ -7485,7 +7479,7 @@
         <v>9</v>
       </c>
       <c r="G241" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242">
@@ -7493,10 +7487,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>520</v>
+      </c>
+      <c r="C242" t="s">
         <v>521</v>
-      </c>
-      <c r="C242" t="s">
-        <v>522</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
@@ -7516,10 +7510,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C243" t="s">
-        <v>524</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
         <v>19</v>
@@ -7539,7 +7533,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -7562,10 +7556,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C245" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D245" t="s">
         <v>8</v>
@@ -7585,10 +7579,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C246" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D246" t="s">
         <v>19</v>
@@ -7600,7 +7594,7 @@
         <v>9</v>
       </c>
       <c r="G246" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247">
@@ -7608,10 +7602,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C247" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D247" t="s">
         <v>19</v>
@@ -7623,7 +7617,7 @@
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248">
@@ -7631,10 +7625,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C248" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D248" t="s">
         <v>19</v>
@@ -7646,7 +7640,7 @@
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
